--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_7_11.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_7_11.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>90715.63879002683</v>
+        <v>109535.1894461157</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1973233.353921687</v>
+        <v>4453576.274210435</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>24066711.25112404</v>
+        <v>23187179.77914629</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4462970.388809198</v>
+        <v>4712329.818903973</v>
       </c>
     </row>
     <row r="11">
@@ -8690,22 +8692,22 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K11" t="n">
-        <v>203.9792427191599</v>
+        <v>111.0988064408343</v>
       </c>
       <c r="L11" t="n">
-        <v>207.5793892203829</v>
+        <v>92.35299496713264</v>
       </c>
       <c r="M11" t="n">
-        <v>191.9450832570614</v>
+        <v>63.73351790103578</v>
       </c>
       <c r="N11" t="n">
-        <v>189.3652521218436</v>
+        <v>59.07908959729269</v>
       </c>
       <c r="O11" t="n">
-        <v>195.2455900566382</v>
+        <v>72.2200612653113</v>
       </c>
       <c r="P11" t="n">
-        <v>208.5255628951208</v>
+        <v>104.1545363166676</v>
       </c>
       <c r="Q11" t="n">
         <v>137.5801139476182</v>
@@ -8769,25 +8771,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K12" t="n">
-        <v>124.3367140941166</v>
+        <v>61.25115537459055</v>
       </c>
       <c r="L12" t="n">
-        <v>110.1017125573465</v>
+        <v>25.27539361745087</v>
       </c>
       <c r="M12" t="n">
-        <v>104.6295870384377</v>
+        <v>5.64127383456389</v>
       </c>
       <c r="N12" t="n">
-        <v>89.64271299632065</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>109.3875391069288</v>
+        <v>16.43585092326006</v>
       </c>
       <c r="P12" t="n">
-        <v>111.6177305927455</v>
+        <v>37.01580605976547</v>
       </c>
       <c r="Q12" t="n">
-        <v>136.1300824528302</v>
+        <v>86.2606715564213</v>
       </c>
       <c r="R12" t="n">
         <v>29.49804203773589</v>
@@ -8851,16 +8853,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L13" t="n">
-        <v>105.2836065989273</v>
+        <v>82.03309671786837</v>
       </c>
       <c r="M13" t="n">
-        <v>115.6742602693208</v>
+        <v>82.47714074425393</v>
       </c>
       <c r="N13" t="n">
-        <v>111.3378805152112</v>
+        <v>70.83300696034803</v>
       </c>
       <c r="O13" t="n">
-        <v>105.6509998050918</v>
+        <v>90.45803797570775</v>
       </c>
       <c r="P13" t="n">
         <v>87.48425302749862</v>
@@ -8927,22 +8929,22 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K14" t="n">
-        <v>203.9792427191599</v>
+        <v>111.0988064408343</v>
       </c>
       <c r="L14" t="n">
-        <v>207.5793892203829</v>
+        <v>92.35299496713264</v>
       </c>
       <c r="M14" t="n">
-        <v>191.9450832570614</v>
+        <v>63.73351790103578</v>
       </c>
       <c r="N14" t="n">
-        <v>189.3652521218436</v>
+        <v>59.07908959729269</v>
       </c>
       <c r="O14" t="n">
-        <v>195.2455900566382</v>
+        <v>72.2200612653113</v>
       </c>
       <c r="P14" t="n">
-        <v>208.5255628951208</v>
+        <v>104.1545363166676</v>
       </c>
       <c r="Q14" t="n">
         <v>137.5801139476182</v>
@@ -9006,25 +9008,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K15" t="n">
-        <v>124.3367140941166</v>
+        <v>61.25115537459055</v>
       </c>
       <c r="L15" t="n">
-        <v>110.1017125573465</v>
+        <v>25.27539361745087</v>
       </c>
       <c r="M15" t="n">
-        <v>104.6295870384377</v>
+        <v>5.64127383456389</v>
       </c>
       <c r="N15" t="n">
-        <v>89.64271299632065</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>109.3875391069288</v>
+        <v>16.43585092326006</v>
       </c>
       <c r="P15" t="n">
-        <v>111.6177305927455</v>
+        <v>37.01580605976547</v>
       </c>
       <c r="Q15" t="n">
-        <v>136.1300824528302</v>
+        <v>86.26067155642129</v>
       </c>
       <c r="R15" t="n">
         <v>29.49804203773589</v>
@@ -9088,16 +9090,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L16" t="n">
-        <v>105.2836065989273</v>
+        <v>82.03309671786837</v>
       </c>
       <c r="M16" t="n">
-        <v>115.6742602693208</v>
+        <v>82.47714074425393</v>
       </c>
       <c r="N16" t="n">
-        <v>111.3378805152112</v>
+        <v>70.83300696034803</v>
       </c>
       <c r="O16" t="n">
-        <v>105.6509998050918</v>
+        <v>90.45803797570775</v>
       </c>
       <c r="P16" t="n">
         <v>87.48425302749862</v>
@@ -9164,22 +9166,22 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K17" t="n">
-        <v>203.9792427191599</v>
+        <v>111.0988064408343</v>
       </c>
       <c r="L17" t="n">
-        <v>207.5793892203829</v>
+        <v>92.35299496713264</v>
       </c>
       <c r="M17" t="n">
-        <v>191.9450832570614</v>
+        <v>63.73351790103578</v>
       </c>
       <c r="N17" t="n">
-        <v>189.3652521218436</v>
+        <v>59.07908959729269</v>
       </c>
       <c r="O17" t="n">
-        <v>195.2455900566382</v>
+        <v>72.2200612653113</v>
       </c>
       <c r="P17" t="n">
-        <v>208.5255628951208</v>
+        <v>104.1545363166676</v>
       </c>
       <c r="Q17" t="n">
         <v>137.5801139476182</v>
@@ -9243,25 +9245,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K18" t="n">
-        <v>124.3367140941166</v>
+        <v>61.25115537459055</v>
       </c>
       <c r="L18" t="n">
-        <v>110.1017125573465</v>
+        <v>25.27539361745087</v>
       </c>
       <c r="M18" t="n">
-        <v>104.6295870384377</v>
+        <v>5.64127383456389</v>
       </c>
       <c r="N18" t="n">
-        <v>89.64271299632065</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>109.3875391069288</v>
+        <v>16.43585092326006</v>
       </c>
       <c r="P18" t="n">
-        <v>111.6177305927455</v>
+        <v>37.01580605976547</v>
       </c>
       <c r="Q18" t="n">
-        <v>136.1300824528302</v>
+        <v>86.2606715564213</v>
       </c>
       <c r="R18" t="n">
         <v>29.49804203773589</v>
@@ -9325,16 +9327,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L19" t="n">
-        <v>105.2836065989273</v>
+        <v>82.03309671786837</v>
       </c>
       <c r="M19" t="n">
-        <v>115.6742602693208</v>
+        <v>82.47714074425393</v>
       </c>
       <c r="N19" t="n">
-        <v>111.3378805152112</v>
+        <v>70.83300696034803</v>
       </c>
       <c r="O19" t="n">
-        <v>105.6509998050918</v>
+        <v>90.45803797570775</v>
       </c>
       <c r="P19" t="n">
         <v>87.48425302749862</v>
@@ -9401,22 +9403,22 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K20" t="n">
-        <v>203.9792427191599</v>
+        <v>111.0988064408343</v>
       </c>
       <c r="L20" t="n">
-        <v>207.5793892203829</v>
+        <v>92.35299496713264</v>
       </c>
       <c r="M20" t="n">
-        <v>191.9450832570614</v>
+        <v>63.73351790103578</v>
       </c>
       <c r="N20" t="n">
-        <v>189.3652521218436</v>
+        <v>59.07908959729269</v>
       </c>
       <c r="O20" t="n">
-        <v>195.2455900566382</v>
+        <v>72.2200612653113</v>
       </c>
       <c r="P20" t="n">
-        <v>208.5255628951208</v>
+        <v>104.1545363166676</v>
       </c>
       <c r="Q20" t="n">
         <v>137.5801139476182</v>
@@ -9480,25 +9482,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K21" t="n">
-        <v>124.3367140941166</v>
+        <v>61.25115537459055</v>
       </c>
       <c r="L21" t="n">
-        <v>110.1017125573465</v>
+        <v>25.27539361745087</v>
       </c>
       <c r="M21" t="n">
-        <v>104.6295870384377</v>
+        <v>5.64127383456389</v>
       </c>
       <c r="N21" t="n">
-        <v>89.64271299632065</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>109.3875391069288</v>
+        <v>16.43585092326006</v>
       </c>
       <c r="P21" t="n">
-        <v>111.6177305927455</v>
+        <v>37.01580605976547</v>
       </c>
       <c r="Q21" t="n">
-        <v>136.1300824528302</v>
+        <v>86.26067155642129</v>
       </c>
       <c r="R21" t="n">
         <v>29.49804203773589</v>
@@ -9562,16 +9564,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L22" t="n">
-        <v>105.2836065989273</v>
+        <v>82.03309671786837</v>
       </c>
       <c r="M22" t="n">
-        <v>115.6742602693208</v>
+        <v>82.47714074425393</v>
       </c>
       <c r="N22" t="n">
-        <v>111.3378805152112</v>
+        <v>70.83300696034803</v>
       </c>
       <c r="O22" t="n">
-        <v>105.6509998050918</v>
+        <v>90.45803797570775</v>
       </c>
       <c r="P22" t="n">
         <v>87.48425302749862</v>
@@ -9638,22 +9640,22 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K23" t="n">
-        <v>203.9792427191599</v>
+        <v>111.0988064408343</v>
       </c>
       <c r="L23" t="n">
-        <v>207.5793892203829</v>
+        <v>92.35299496713264</v>
       </c>
       <c r="M23" t="n">
-        <v>191.9450832570614</v>
+        <v>63.73351790103578</v>
       </c>
       <c r="N23" t="n">
-        <v>189.3652521218436</v>
+        <v>59.07908959729269</v>
       </c>
       <c r="O23" t="n">
-        <v>195.2455900566382</v>
+        <v>72.2200612653113</v>
       </c>
       <c r="P23" t="n">
-        <v>208.5255628951208</v>
+        <v>104.1545363166676</v>
       </c>
       <c r="Q23" t="n">
         <v>137.5801139476182</v>
@@ -9717,25 +9719,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K24" t="n">
-        <v>124.3367140941166</v>
+        <v>61.25115537459055</v>
       </c>
       <c r="L24" t="n">
-        <v>110.1017125573465</v>
+        <v>25.27539361745087</v>
       </c>
       <c r="M24" t="n">
-        <v>104.6295870384377</v>
+        <v>5.64127383456389</v>
       </c>
       <c r="N24" t="n">
-        <v>89.64271299632065</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>109.3875391069288</v>
+        <v>16.43585092326006</v>
       </c>
       <c r="P24" t="n">
-        <v>111.6177305927455</v>
+        <v>37.01580605976547</v>
       </c>
       <c r="Q24" t="n">
-        <v>136.1300824528302</v>
+        <v>86.26067155642129</v>
       </c>
       <c r="R24" t="n">
         <v>29.49804203773589</v>
@@ -9799,16 +9801,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L25" t="n">
-        <v>105.2836065989273</v>
+        <v>82.03309671786837</v>
       </c>
       <c r="M25" t="n">
-        <v>115.6742602693208</v>
+        <v>82.47714074425393</v>
       </c>
       <c r="N25" t="n">
-        <v>111.3378805152112</v>
+        <v>70.83300696034803</v>
       </c>
       <c r="O25" t="n">
-        <v>105.6509998050918</v>
+        <v>90.45803797570775</v>
       </c>
       <c r="P25" t="n">
         <v>87.48425302749862</v>
@@ -9875,22 +9877,22 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K26" t="n">
-        <v>203.9792427191599</v>
+        <v>111.0988064408343</v>
       </c>
       <c r="L26" t="n">
-        <v>207.5793892203829</v>
+        <v>92.35299496713264</v>
       </c>
       <c r="M26" t="n">
-        <v>191.9450832570614</v>
+        <v>63.73351790103578</v>
       </c>
       <c r="N26" t="n">
-        <v>189.3652521218436</v>
+        <v>59.07908959729269</v>
       </c>
       <c r="O26" t="n">
-        <v>195.2455900566382</v>
+        <v>72.2200612653113</v>
       </c>
       <c r="P26" t="n">
-        <v>208.5255628951208</v>
+        <v>104.1545363166676</v>
       </c>
       <c r="Q26" t="n">
         <v>137.5801139476182</v>
@@ -9954,25 +9956,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K27" t="n">
-        <v>124.3367140941166</v>
+        <v>61.25115537459055</v>
       </c>
       <c r="L27" t="n">
-        <v>110.1017125573465</v>
+        <v>25.27539361745087</v>
       </c>
       <c r="M27" t="n">
-        <v>104.6295870384377</v>
+        <v>5.64127383456389</v>
       </c>
       <c r="N27" t="n">
-        <v>89.64271299632065</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>109.3875391069288</v>
+        <v>16.43585092326006</v>
       </c>
       <c r="P27" t="n">
-        <v>111.6177305927455</v>
+        <v>37.01580605976547</v>
       </c>
       <c r="Q27" t="n">
-        <v>136.1300824528302</v>
+        <v>86.26067155642129</v>
       </c>
       <c r="R27" t="n">
         <v>29.49804203773589</v>
@@ -10036,16 +10038,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L28" t="n">
-        <v>105.2836065989273</v>
+        <v>82.03309671786837</v>
       </c>
       <c r="M28" t="n">
-        <v>115.6742602693208</v>
+        <v>82.47714074425393</v>
       </c>
       <c r="N28" t="n">
-        <v>111.3378805152112</v>
+        <v>70.83300696034803</v>
       </c>
       <c r="O28" t="n">
-        <v>105.6509998050918</v>
+        <v>90.45803797570775</v>
       </c>
       <c r="P28" t="n">
         <v>87.48425302749862</v>
@@ -10112,22 +10114,22 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K29" t="n">
-        <v>203.9792427191599</v>
+        <v>111.0988064408343</v>
       </c>
       <c r="L29" t="n">
-        <v>207.5793892203829</v>
+        <v>92.35299496713264</v>
       </c>
       <c r="M29" t="n">
-        <v>191.9450832570614</v>
+        <v>63.73351790103578</v>
       </c>
       <c r="N29" t="n">
-        <v>189.3652521218436</v>
+        <v>59.07908959729269</v>
       </c>
       <c r="O29" t="n">
-        <v>195.2455900566382</v>
+        <v>72.2200612653113</v>
       </c>
       <c r="P29" t="n">
-        <v>208.5255628951208</v>
+        <v>104.1545363166676</v>
       </c>
       <c r="Q29" t="n">
         <v>137.5801139476182</v>
@@ -10191,25 +10193,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K30" t="n">
-        <v>124.3367140941166</v>
+        <v>61.25115537459055</v>
       </c>
       <c r="L30" t="n">
-        <v>110.1017125573465</v>
+        <v>25.27539361745087</v>
       </c>
       <c r="M30" t="n">
-        <v>104.6295870384377</v>
+        <v>5.64127383456389</v>
       </c>
       <c r="N30" t="n">
-        <v>89.64271299632065</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>109.3875391069288</v>
+        <v>16.43585092326006</v>
       </c>
       <c r="P30" t="n">
-        <v>111.6177305927455</v>
+        <v>37.01580605976547</v>
       </c>
       <c r="Q30" t="n">
-        <v>136.1300824528302</v>
+        <v>86.26067155642129</v>
       </c>
       <c r="R30" t="n">
         <v>29.49804203773589</v>
@@ -10273,16 +10275,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L31" t="n">
-        <v>105.2836065989273</v>
+        <v>82.03309671786837</v>
       </c>
       <c r="M31" t="n">
-        <v>115.6742602693208</v>
+        <v>82.47714074425393</v>
       </c>
       <c r="N31" t="n">
-        <v>111.3378805152112</v>
+        <v>70.83300696034803</v>
       </c>
       <c r="O31" t="n">
-        <v>105.6509998050918</v>
+        <v>90.45803797570775</v>
       </c>
       <c r="P31" t="n">
         <v>87.48425302749862</v>
@@ -10349,22 +10351,22 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K32" t="n">
-        <v>203.9792427191599</v>
+        <v>111.0988064408343</v>
       </c>
       <c r="L32" t="n">
-        <v>207.5793892203829</v>
+        <v>92.35299496713264</v>
       </c>
       <c r="M32" t="n">
-        <v>191.9450832570614</v>
+        <v>63.73351790103578</v>
       </c>
       <c r="N32" t="n">
-        <v>189.3652521218436</v>
+        <v>59.07908959729269</v>
       </c>
       <c r="O32" t="n">
-        <v>195.2455900566382</v>
+        <v>72.2200612653113</v>
       </c>
       <c r="P32" t="n">
-        <v>208.5255628951208</v>
+        <v>104.1545363166676</v>
       </c>
       <c r="Q32" t="n">
         <v>137.5801139476182</v>
@@ -10428,25 +10430,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K33" t="n">
-        <v>124.3367140941166</v>
+        <v>61.25115537459055</v>
       </c>
       <c r="L33" t="n">
-        <v>110.1017125573465</v>
+        <v>25.27539361745087</v>
       </c>
       <c r="M33" t="n">
-        <v>104.6295870384377</v>
+        <v>5.64127383456389</v>
       </c>
       <c r="N33" t="n">
-        <v>89.64271299632065</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>109.3875391069288</v>
+        <v>16.43585092326006</v>
       </c>
       <c r="P33" t="n">
-        <v>111.6177305927455</v>
+        <v>37.01580605976547</v>
       </c>
       <c r="Q33" t="n">
-        <v>136.1300824528302</v>
+        <v>86.26067155642129</v>
       </c>
       <c r="R33" t="n">
         <v>29.49804203773589</v>
@@ -10510,16 +10512,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L34" t="n">
-        <v>105.2836065989273</v>
+        <v>82.03309671786837</v>
       </c>
       <c r="M34" t="n">
-        <v>115.6742602693208</v>
+        <v>82.47714074425393</v>
       </c>
       <c r="N34" t="n">
-        <v>111.3378805152112</v>
+        <v>70.83300696034803</v>
       </c>
       <c r="O34" t="n">
-        <v>105.6509998050918</v>
+        <v>90.45803797570775</v>
       </c>
       <c r="P34" t="n">
         <v>87.48425302749862</v>
@@ -10586,22 +10588,22 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K35" t="n">
-        <v>203.9792427191599</v>
+        <v>111.0988064408343</v>
       </c>
       <c r="L35" t="n">
-        <v>207.5793892203829</v>
+        <v>92.35299496713264</v>
       </c>
       <c r="M35" t="n">
-        <v>191.9450832570614</v>
+        <v>63.73351790103578</v>
       </c>
       <c r="N35" t="n">
-        <v>189.3652521218436</v>
+        <v>59.07908959729269</v>
       </c>
       <c r="O35" t="n">
-        <v>195.2455900566382</v>
+        <v>72.2200612653113</v>
       </c>
       <c r="P35" t="n">
-        <v>208.5255628951208</v>
+        <v>104.1545363166676</v>
       </c>
       <c r="Q35" t="n">
         <v>137.5801139476182</v>
@@ -10665,25 +10667,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K36" t="n">
-        <v>124.3367140941166</v>
+        <v>61.25115537459055</v>
       </c>
       <c r="L36" t="n">
-        <v>110.1017125573465</v>
+        <v>25.27539361745087</v>
       </c>
       <c r="M36" t="n">
-        <v>104.6295870384377</v>
+        <v>5.64127383456389</v>
       </c>
       <c r="N36" t="n">
-        <v>89.64271299632065</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>109.3875391069288</v>
+        <v>16.43585092326006</v>
       </c>
       <c r="P36" t="n">
-        <v>111.6177305927455</v>
+        <v>37.01580605976547</v>
       </c>
       <c r="Q36" t="n">
-        <v>136.1300824528302</v>
+        <v>86.26067155642129</v>
       </c>
       <c r="R36" t="n">
         <v>29.49804203773589</v>
@@ -10747,16 +10749,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L37" t="n">
-        <v>105.2836065989273</v>
+        <v>82.03309671786837</v>
       </c>
       <c r="M37" t="n">
-        <v>115.6742602693208</v>
+        <v>82.47714074425393</v>
       </c>
       <c r="N37" t="n">
-        <v>111.3378805152112</v>
+        <v>70.83300696034803</v>
       </c>
       <c r="O37" t="n">
-        <v>105.6509998050918</v>
+        <v>90.45803797570775</v>
       </c>
       <c r="P37" t="n">
         <v>87.48425302749862</v>
@@ -10823,22 +10825,22 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K38" t="n">
-        <v>203.9792427191599</v>
+        <v>111.0988064408343</v>
       </c>
       <c r="L38" t="n">
-        <v>207.5793892203829</v>
+        <v>92.35299496713264</v>
       </c>
       <c r="M38" t="n">
-        <v>191.9450832570614</v>
+        <v>63.73351790103578</v>
       </c>
       <c r="N38" t="n">
-        <v>189.3652521218436</v>
+        <v>59.07908959729269</v>
       </c>
       <c r="O38" t="n">
-        <v>195.2455900566382</v>
+        <v>72.2200612653113</v>
       </c>
       <c r="P38" t="n">
-        <v>208.5255628951208</v>
+        <v>104.1545363166676</v>
       </c>
       <c r="Q38" t="n">
         <v>137.5801139476182</v>
@@ -10902,25 +10904,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K39" t="n">
-        <v>124.3367140941166</v>
+        <v>61.25115537459055</v>
       </c>
       <c r="L39" t="n">
-        <v>110.1017125573465</v>
+        <v>25.27539361745087</v>
       </c>
       <c r="M39" t="n">
-        <v>104.6295870384377</v>
+        <v>5.64127383456389</v>
       </c>
       <c r="N39" t="n">
-        <v>89.64271299632065</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>109.3875391069288</v>
+        <v>16.43585092326006</v>
       </c>
       <c r="P39" t="n">
-        <v>111.6177305927455</v>
+        <v>37.01580605976547</v>
       </c>
       <c r="Q39" t="n">
-        <v>136.1300824528302</v>
+        <v>86.26067155642129</v>
       </c>
       <c r="R39" t="n">
         <v>29.49804203773589</v>
@@ -10984,16 +10986,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L40" t="n">
-        <v>105.2836065989273</v>
+        <v>82.03309671786837</v>
       </c>
       <c r="M40" t="n">
-        <v>115.6742602693208</v>
+        <v>82.47714074425393</v>
       </c>
       <c r="N40" t="n">
-        <v>111.3378805152112</v>
+        <v>70.83300696034803</v>
       </c>
       <c r="O40" t="n">
-        <v>105.6509998050918</v>
+        <v>90.45803797570775</v>
       </c>
       <c r="P40" t="n">
         <v>87.48425302749862</v>
@@ -11060,22 +11062,22 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K41" t="n">
-        <v>203.9792427191599</v>
+        <v>111.0988064408343</v>
       </c>
       <c r="L41" t="n">
-        <v>207.5793892203829</v>
+        <v>92.35299496713264</v>
       </c>
       <c r="M41" t="n">
-        <v>191.9450832570614</v>
+        <v>63.73351790103578</v>
       </c>
       <c r="N41" t="n">
-        <v>189.3652521218436</v>
+        <v>59.07908959729269</v>
       </c>
       <c r="O41" t="n">
-        <v>195.2455900566382</v>
+        <v>72.2200612653113</v>
       </c>
       <c r="P41" t="n">
-        <v>208.5255628951208</v>
+        <v>104.1545363166676</v>
       </c>
       <c r="Q41" t="n">
         <v>137.5801139476182</v>
@@ -11139,25 +11141,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K42" t="n">
-        <v>124.3367140941166</v>
+        <v>61.25115537459055</v>
       </c>
       <c r="L42" t="n">
-        <v>110.1017125573465</v>
+        <v>25.27539361745087</v>
       </c>
       <c r="M42" t="n">
-        <v>104.6295870384377</v>
+        <v>5.64127383456389</v>
       </c>
       <c r="N42" t="n">
-        <v>89.64271299632065</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>109.3875391069288</v>
+        <v>16.43585092326006</v>
       </c>
       <c r="P42" t="n">
-        <v>111.6177305927455</v>
+        <v>37.01580605976547</v>
       </c>
       <c r="Q42" t="n">
-        <v>136.1300824528302</v>
+        <v>86.26067155642129</v>
       </c>
       <c r="R42" t="n">
         <v>29.49804203773589</v>
@@ -11221,16 +11223,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L43" t="n">
-        <v>105.2836065989273</v>
+        <v>82.03309671786837</v>
       </c>
       <c r="M43" t="n">
-        <v>115.6742602693208</v>
+        <v>82.47714074425393</v>
       </c>
       <c r="N43" t="n">
-        <v>111.3378805152112</v>
+        <v>70.83300696034803</v>
       </c>
       <c r="O43" t="n">
-        <v>105.6509998050918</v>
+        <v>90.45803797570775</v>
       </c>
       <c r="P43" t="n">
         <v>87.48425302749862</v>
@@ -11294,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>109.5746066315038</v>
+        <v>104.889258789408</v>
       </c>
       <c r="K44" t="n">
-        <v>203.9792427191599</v>
+        <v>94.6755543817487</v>
       </c>
       <c r="L44" t="n">
-        <v>207.5793892203829</v>
+        <v>71.97849854454964</v>
       </c>
       <c r="M44" t="n">
-        <v>191.9450832570614</v>
+        <v>41.06296488573625</v>
       </c>
       <c r="N44" t="n">
-        <v>189.3652521218436</v>
+        <v>36.04170333287215</v>
       </c>
       <c r="O44" t="n">
-        <v>195.2455900566382</v>
+        <v>50.46651067918273</v>
       </c>
       <c r="P44" t="n">
-        <v>208.5255628951208</v>
+        <v>85.58838417758693</v>
       </c>
       <c r="Q44" t="n">
-        <v>137.5801139476182</v>
+        <v>123.6377068975464</v>
       </c>
       <c r="R44" t="n">
         <v>42.58424007769262</v>
@@ -11376,25 +11378,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K45" t="n">
-        <v>124.3367140941166</v>
+        <v>50.09627633166346</v>
       </c>
       <c r="L45" t="n">
-        <v>110.1017125573466</v>
+        <v>10.27628214666007</v>
       </c>
       <c r="M45" t="n">
-        <v>104.6295870384377</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>89.64271299632065</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>109.3875391069288</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>111.6177305927455</v>
+        <v>23.82458668363597</v>
       </c>
       <c r="Q45" t="n">
-        <v>136.1300824528302</v>
+        <v>77.442690741435</v>
       </c>
       <c r="R45" t="n">
         <v>29.49804203773589</v>
@@ -11458,16 +11460,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L46" t="n">
-        <v>105.2836065989273</v>
+        <v>73.42283224274789</v>
       </c>
       <c r="M46" t="n">
-        <v>115.6742602693208</v>
+        <v>73.3988241034014</v>
       </c>
       <c r="N46" t="n">
-        <v>111.3378805152112</v>
+        <v>61.97055239817956</v>
       </c>
       <c r="O46" t="n">
-        <v>105.6509998050918</v>
+        <v>82.27212675770768</v>
       </c>
       <c r="P46" t="n">
         <v>87.48425302749862</v>
@@ -23270,16 +23272,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G11" t="n">
-        <v>418.7375927771332</v>
+        <v>418.0074221942822</v>
       </c>
       <c r="H11" t="n">
-        <v>345.9913317836409</v>
+        <v>338.5134723020187</v>
       </c>
       <c r="I11" t="n">
-        <v>237.1321516133932</v>
+        <v>208.9822502180322</v>
       </c>
       <c r="J11" t="n">
-        <v>68.24500144420554</v>
+        <v>6.272685937960304</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23297,22 +23299,22 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0.6284159487409511</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>78.85020852884477</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>188.5634753039845</v>
+        <v>142.6968974289739</v>
       </c>
       <c r="S11" t="n">
-        <v>225.2250235810158</v>
+        <v>208.5862614242999</v>
       </c>
       <c r="T11" t="n">
-        <v>222.0255916377255</v>
+        <v>218.8292699112955</v>
       </c>
       <c r="U11" t="n">
-        <v>250.1424950778085</v>
+        <v>250.0840814311804</v>
       </c>
       <c r="V11" t="n">
         <v>320.879783609152</v>
@@ -23349,16 +23351,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G12" t="n">
-        <v>148.6907893310277</v>
+        <v>148.3001136271938</v>
       </c>
       <c r="H12" t="n">
-        <v>125.2157835936458</v>
+        <v>121.4426787697765</v>
       </c>
       <c r="I12" t="n">
-        <v>105.510564391123</v>
+        <v>92.05966844771967</v>
       </c>
       <c r="J12" t="n">
-        <v>47.39081947044386</v>
+        <v>10.48053290778771</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23382,16 +23384,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>131.3785412593008</v>
+        <v>107.1223778230184</v>
       </c>
       <c r="S12" t="n">
-        <v>190.5911986307839</v>
+        <v>183.3345687810625</v>
       </c>
       <c r="T12" t="n">
-        <v>214.7540108117728</v>
+        <v>213.1793135669336</v>
       </c>
       <c r="U12" t="n">
-        <v>237.224529026915</v>
+        <v>237.1988266779785</v>
       </c>
       <c r="V12" t="n">
         <v>240.6489209154022</v>
@@ -23428,49 +23430,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G13" t="n">
-        <v>168.6556581185268</v>
+        <v>168.3281287320799</v>
       </c>
       <c r="H13" t="n">
-        <v>165.4232682107039</v>
+        <v>162.5112342112035</v>
       </c>
       <c r="I13" t="n">
-        <v>163.4961825867497</v>
+        <v>153.6464806743293</v>
       </c>
       <c r="J13" t="n">
-        <v>117.0498492130746</v>
+        <v>93.89352159128109</v>
       </c>
       <c r="K13" t="n">
-        <v>61.78822728249941</v>
+        <v>23.73526765712697</v>
       </c>
       <c r="L13" t="n">
-        <v>25.44417726395996</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>18.14460057041805</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>9.616055191137953</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>31.10182817494228</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>53.02192597337787</v>
+        <v>13.40873545256763</v>
       </c>
       <c r="Q13" t="n">
-        <v>123.4390684704985</v>
+        <v>96.01294866538856</v>
       </c>
       <c r="R13" t="n">
-        <v>201.4013453787021</v>
+        <v>186.6744331481002</v>
       </c>
       <c r="S13" t="n">
-        <v>234.651781437677</v>
+        <v>228.9438374938711</v>
       </c>
       <c r="T13" t="n">
-        <v>223.5687866316497</v>
+        <v>222.1693428895585</v>
       </c>
       <c r="U13" t="n">
-        <v>288.6540960517315</v>
+        <v>288.6362308124707</v>
       </c>
       <c r="V13" t="n">
         <v>245.1090151844499</v>
@@ -23507,16 +23509,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G14" t="n">
-        <v>418.7375927771332</v>
+        <v>418.0074221942822</v>
       </c>
       <c r="H14" t="n">
-        <v>345.9913317836409</v>
+        <v>338.5134723020187</v>
       </c>
       <c r="I14" t="n">
-        <v>237.1321516133932</v>
+        <v>208.9822502180322</v>
       </c>
       <c r="J14" t="n">
-        <v>68.24500144420554</v>
+        <v>6.272685937960304</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23534,22 +23536,22 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0.6284159487409511</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>78.85020852884477</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>188.5634753039845</v>
+        <v>142.6968974289739</v>
       </c>
       <c r="S14" t="n">
-        <v>225.2250235810158</v>
+        <v>208.5862614242999</v>
       </c>
       <c r="T14" t="n">
-        <v>222.0255916377255</v>
+        <v>218.8292699112955</v>
       </c>
       <c r="U14" t="n">
-        <v>250.1424950778085</v>
+        <v>250.0840814311804</v>
       </c>
       <c r="V14" t="n">
         <v>320.879783609152</v>
@@ -23586,16 +23588,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G15" t="n">
-        <v>148.6907893310277</v>
+        <v>148.3001136271938</v>
       </c>
       <c r="H15" t="n">
-        <v>125.2157835936458</v>
+        <v>121.4426787697765</v>
       </c>
       <c r="I15" t="n">
-        <v>105.510564391123</v>
+        <v>92.05966844771967</v>
       </c>
       <c r="J15" t="n">
-        <v>47.39081947044386</v>
+        <v>10.48053290778771</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23619,16 +23621,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>131.3785412593008</v>
+        <v>107.1223778230184</v>
       </c>
       <c r="S15" t="n">
-        <v>190.5911986307839</v>
+        <v>183.3345687810625</v>
       </c>
       <c r="T15" t="n">
-        <v>214.7540108117728</v>
+        <v>213.1793135669336</v>
       </c>
       <c r="U15" t="n">
-        <v>237.224529026915</v>
+        <v>237.1988266779785</v>
       </c>
       <c r="V15" t="n">
         <v>240.6489209154022</v>
@@ -23665,49 +23667,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G16" t="n">
-        <v>168.6556581185268</v>
+        <v>168.3281287320799</v>
       </c>
       <c r="H16" t="n">
-        <v>165.4232682107039</v>
+        <v>162.5112342112035</v>
       </c>
       <c r="I16" t="n">
-        <v>163.4961825867497</v>
+        <v>153.6464806743293</v>
       </c>
       <c r="J16" t="n">
-        <v>117.0498492130746</v>
+        <v>93.89352159128109</v>
       </c>
       <c r="K16" t="n">
-        <v>61.78822728249941</v>
+        <v>23.73526765712697</v>
       </c>
       <c r="L16" t="n">
-        <v>25.44417726395996</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>18.14460057041805</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>9.616055191137953</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>31.10182817494228</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>53.02192597337787</v>
+        <v>13.40873545256764</v>
       </c>
       <c r="Q16" t="n">
-        <v>123.4390684704985</v>
+        <v>96.01294866538856</v>
       </c>
       <c r="R16" t="n">
-        <v>201.4013453787021</v>
+        <v>186.6744331481002</v>
       </c>
       <c r="S16" t="n">
-        <v>234.651781437677</v>
+        <v>228.9438374938711</v>
       </c>
       <c r="T16" t="n">
-        <v>223.5687866316497</v>
+        <v>222.1693428895585</v>
       </c>
       <c r="U16" t="n">
-        <v>288.6540960517315</v>
+        <v>288.6362308124707</v>
       </c>
       <c r="V16" t="n">
         <v>245.1090151844499</v>
@@ -23744,16 +23746,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G17" t="n">
-        <v>418.7375927771332</v>
+        <v>418.0074221942822</v>
       </c>
       <c r="H17" t="n">
-        <v>345.9913317836409</v>
+        <v>338.5134723020187</v>
       </c>
       <c r="I17" t="n">
-        <v>237.1321516133932</v>
+        <v>208.9822502180322</v>
       </c>
       <c r="J17" t="n">
-        <v>68.24500144420554</v>
+        <v>6.272685937960304</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23771,22 +23773,22 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0.6284159487409511</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>78.85020852884477</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>188.5634753039845</v>
+        <v>142.6968974289739</v>
       </c>
       <c r="S17" t="n">
-        <v>225.2250235810158</v>
+        <v>208.5862614242999</v>
       </c>
       <c r="T17" t="n">
-        <v>222.0255916377255</v>
+        <v>218.8292699112955</v>
       </c>
       <c r="U17" t="n">
-        <v>250.1424950778085</v>
+        <v>250.0840814311804</v>
       </c>
       <c r="V17" t="n">
         <v>320.879783609152</v>
@@ -23823,16 +23825,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
-        <v>148.6907893310277</v>
+        <v>148.3001136271938</v>
       </c>
       <c r="H18" t="n">
-        <v>125.2157835936458</v>
+        <v>121.4426787697765</v>
       </c>
       <c r="I18" t="n">
-        <v>105.510564391123</v>
+        <v>92.05966844771967</v>
       </c>
       <c r="J18" t="n">
-        <v>47.39081947044386</v>
+        <v>10.48053290778771</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23856,16 +23858,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>131.3785412593008</v>
+        <v>107.1223778230184</v>
       </c>
       <c r="S18" t="n">
-        <v>190.5911986307839</v>
+        <v>183.3345687810625</v>
       </c>
       <c r="T18" t="n">
-        <v>214.7540108117728</v>
+        <v>213.1793135669336</v>
       </c>
       <c r="U18" t="n">
-        <v>237.224529026915</v>
+        <v>237.1988266779785</v>
       </c>
       <c r="V18" t="n">
         <v>240.6489209154022</v>
@@ -23902,49 +23904,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G19" t="n">
-        <v>168.6556581185268</v>
+        <v>168.3281287320799</v>
       </c>
       <c r="H19" t="n">
-        <v>165.4232682107039</v>
+        <v>162.5112342112035</v>
       </c>
       <c r="I19" t="n">
-        <v>163.4961825867497</v>
+        <v>153.6464806743293</v>
       </c>
       <c r="J19" t="n">
-        <v>117.0498492130746</v>
+        <v>93.89352159128109</v>
       </c>
       <c r="K19" t="n">
-        <v>61.78822728249941</v>
+        <v>23.73526765712697</v>
       </c>
       <c r="L19" t="n">
-        <v>25.44417726395996</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>18.14460057041805</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>9.616055191137953</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>31.10182817494228</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>53.02192597337787</v>
+        <v>13.40873545256763</v>
       </c>
       <c r="Q19" t="n">
-        <v>123.4390684704985</v>
+        <v>96.01294866538856</v>
       </c>
       <c r="R19" t="n">
-        <v>201.4013453787021</v>
+        <v>186.6744331481002</v>
       </c>
       <c r="S19" t="n">
-        <v>234.651781437677</v>
+        <v>228.9438374938711</v>
       </c>
       <c r="T19" t="n">
-        <v>223.5687866316497</v>
+        <v>222.1693428895585</v>
       </c>
       <c r="U19" t="n">
-        <v>288.6540960517315</v>
+        <v>288.6362308124707</v>
       </c>
       <c r="V19" t="n">
         <v>245.1090151844499</v>
@@ -23981,16 +23983,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G20" t="n">
-        <v>418.7375927771332</v>
+        <v>418.0074221942822</v>
       </c>
       <c r="H20" t="n">
-        <v>345.9913317836409</v>
+        <v>338.5134723020187</v>
       </c>
       <c r="I20" t="n">
-        <v>237.1321516133932</v>
+        <v>208.9822502180322</v>
       </c>
       <c r="J20" t="n">
-        <v>68.24500144420554</v>
+        <v>6.272685937960304</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24008,22 +24010,22 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0.6284159487409511</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>78.85020852884477</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>188.5634753039845</v>
+        <v>142.6968974289739</v>
       </c>
       <c r="S20" t="n">
-        <v>225.2250235810158</v>
+        <v>208.5862614242999</v>
       </c>
       <c r="T20" t="n">
-        <v>222.0255916377255</v>
+        <v>218.8292699112955</v>
       </c>
       <c r="U20" t="n">
-        <v>250.1424950778085</v>
+        <v>250.0840814311804</v>
       </c>
       <c r="V20" t="n">
         <v>320.879783609152</v>
@@ -24060,16 +24062,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
-        <v>148.6907893310277</v>
+        <v>148.3001136271938</v>
       </c>
       <c r="H21" t="n">
-        <v>125.2157835936458</v>
+        <v>121.4426787697765</v>
       </c>
       <c r="I21" t="n">
-        <v>105.510564391123</v>
+        <v>92.05966844771967</v>
       </c>
       <c r="J21" t="n">
-        <v>47.39081947044386</v>
+        <v>10.48053290778771</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24093,16 +24095,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>131.3785412593008</v>
+        <v>107.1223778230184</v>
       </c>
       <c r="S21" t="n">
-        <v>190.5911986307839</v>
+        <v>183.3345687810625</v>
       </c>
       <c r="T21" t="n">
-        <v>214.7540108117728</v>
+        <v>213.1793135669336</v>
       </c>
       <c r="U21" t="n">
-        <v>237.224529026915</v>
+        <v>237.1988266779785</v>
       </c>
       <c r="V21" t="n">
         <v>240.6489209154022</v>
@@ -24139,49 +24141,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G22" t="n">
-        <v>168.6556581185268</v>
+        <v>168.3281287320799</v>
       </c>
       <c r="H22" t="n">
-        <v>165.4232682107039</v>
+        <v>162.5112342112035</v>
       </c>
       <c r="I22" t="n">
-        <v>163.4961825867497</v>
+        <v>153.6464806743293</v>
       </c>
       <c r="J22" t="n">
-        <v>117.0498492130746</v>
+        <v>93.89352159128109</v>
       </c>
       <c r="K22" t="n">
-        <v>61.78822728249941</v>
+        <v>23.73526765712697</v>
       </c>
       <c r="L22" t="n">
-        <v>25.44417726395996</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>18.14460057041805</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>9.616055191137953</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>31.10182817494228</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>53.02192597337787</v>
+        <v>13.40873545256764</v>
       </c>
       <c r="Q22" t="n">
-        <v>123.4390684704985</v>
+        <v>96.01294866538856</v>
       </c>
       <c r="R22" t="n">
-        <v>201.4013453787021</v>
+        <v>186.6744331481002</v>
       </c>
       <c r="S22" t="n">
-        <v>234.651781437677</v>
+        <v>228.9438374938711</v>
       </c>
       <c r="T22" t="n">
-        <v>223.5687866316497</v>
+        <v>222.1693428895585</v>
       </c>
       <c r="U22" t="n">
-        <v>288.6540960517315</v>
+        <v>288.6362308124707</v>
       </c>
       <c r="V22" t="n">
         <v>245.1090151844499</v>
@@ -24218,16 +24220,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G23" t="n">
-        <v>418.7375927771332</v>
+        <v>418.0074221942822</v>
       </c>
       <c r="H23" t="n">
-        <v>345.9913317836409</v>
+        <v>338.5134723020187</v>
       </c>
       <c r="I23" t="n">
-        <v>237.1321516133932</v>
+        <v>208.9822502180322</v>
       </c>
       <c r="J23" t="n">
-        <v>68.24500144420554</v>
+        <v>6.272685937960304</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24245,22 +24247,22 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0.6284159487409511</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>78.85020852884477</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>188.5634753039845</v>
+        <v>142.6968974289739</v>
       </c>
       <c r="S23" t="n">
-        <v>225.2250235810158</v>
+        <v>208.5862614242999</v>
       </c>
       <c r="T23" t="n">
-        <v>222.0255916377255</v>
+        <v>218.8292699112955</v>
       </c>
       <c r="U23" t="n">
-        <v>250.1424950778085</v>
+        <v>250.0840814311804</v>
       </c>
       <c r="V23" t="n">
         <v>320.879783609152</v>
@@ -24297,16 +24299,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
-        <v>148.6907893310277</v>
+        <v>148.3001136271938</v>
       </c>
       <c r="H24" t="n">
-        <v>125.2157835936458</v>
+        <v>121.4426787697765</v>
       </c>
       <c r="I24" t="n">
-        <v>105.510564391123</v>
+        <v>92.05966844771967</v>
       </c>
       <c r="J24" t="n">
-        <v>47.39081947044386</v>
+        <v>10.48053290778771</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24330,16 +24332,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>131.3785412593008</v>
+        <v>107.1223778230184</v>
       </c>
       <c r="S24" t="n">
-        <v>190.5911986307839</v>
+        <v>183.3345687810625</v>
       </c>
       <c r="T24" t="n">
-        <v>214.7540108117728</v>
+        <v>213.1793135669336</v>
       </c>
       <c r="U24" t="n">
-        <v>237.224529026915</v>
+        <v>237.1988266779785</v>
       </c>
       <c r="V24" t="n">
         <v>240.6489209154022</v>
@@ -24376,49 +24378,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G25" t="n">
-        <v>168.6556581185268</v>
+        <v>168.3281287320799</v>
       </c>
       <c r="H25" t="n">
-        <v>165.4232682107039</v>
+        <v>162.5112342112035</v>
       </c>
       <c r="I25" t="n">
-        <v>163.4961825867497</v>
+        <v>153.6464806743293</v>
       </c>
       <c r="J25" t="n">
-        <v>117.0498492130746</v>
+        <v>93.89352159128109</v>
       </c>
       <c r="K25" t="n">
-        <v>61.78822728249941</v>
+        <v>23.73526765712697</v>
       </c>
       <c r="L25" t="n">
-        <v>25.44417726395996</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>18.14460057041805</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>9.616055191137953</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>31.10182817494228</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>53.02192597337787</v>
+        <v>13.40873545256764</v>
       </c>
       <c r="Q25" t="n">
-        <v>123.4390684704985</v>
+        <v>96.01294866538856</v>
       </c>
       <c r="R25" t="n">
-        <v>201.4013453787021</v>
+        <v>186.6744331481002</v>
       </c>
       <c r="S25" t="n">
-        <v>234.651781437677</v>
+        <v>228.9438374938711</v>
       </c>
       <c r="T25" t="n">
-        <v>223.5687866316497</v>
+        <v>222.1693428895585</v>
       </c>
       <c r="U25" t="n">
-        <v>288.6540960517315</v>
+        <v>288.6362308124707</v>
       </c>
       <c r="V25" t="n">
         <v>245.1090151844499</v>
@@ -24455,16 +24457,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G26" t="n">
-        <v>418.7375927771332</v>
+        <v>418.0074221942822</v>
       </c>
       <c r="H26" t="n">
-        <v>345.9913317836409</v>
+        <v>338.5134723020187</v>
       </c>
       <c r="I26" t="n">
-        <v>237.1321516133932</v>
+        <v>208.9822502180322</v>
       </c>
       <c r="J26" t="n">
-        <v>68.24500144420554</v>
+        <v>6.272685937960304</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24482,22 +24484,22 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0.6284159487409511</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>78.85020852884477</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>188.5634753039845</v>
+        <v>142.6968974289739</v>
       </c>
       <c r="S26" t="n">
-        <v>225.2250235810158</v>
+        <v>208.5862614242999</v>
       </c>
       <c r="T26" t="n">
-        <v>222.0255916377255</v>
+        <v>218.8292699112955</v>
       </c>
       <c r="U26" t="n">
-        <v>250.1424950778085</v>
+        <v>250.0840814311804</v>
       </c>
       <c r="V26" t="n">
         <v>320.879783609152</v>
@@ -24534,16 +24536,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
-        <v>148.6907893310277</v>
+        <v>148.3001136271938</v>
       </c>
       <c r="H27" t="n">
-        <v>125.2157835936458</v>
+        <v>121.4426787697765</v>
       </c>
       <c r="I27" t="n">
-        <v>105.510564391123</v>
+        <v>92.05966844771967</v>
       </c>
       <c r="J27" t="n">
-        <v>47.39081947044386</v>
+        <v>10.48053290778771</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24567,16 +24569,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>131.3785412593008</v>
+        <v>107.1223778230184</v>
       </c>
       <c r="S27" t="n">
-        <v>190.5911986307839</v>
+        <v>183.3345687810625</v>
       </c>
       <c r="T27" t="n">
-        <v>214.7540108117728</v>
+        <v>213.1793135669336</v>
       </c>
       <c r="U27" t="n">
-        <v>237.224529026915</v>
+        <v>237.1988266779785</v>
       </c>
       <c r="V27" t="n">
         <v>240.6489209154022</v>
@@ -24613,49 +24615,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G28" t="n">
-        <v>168.6556581185268</v>
+        <v>168.3281287320799</v>
       </c>
       <c r="H28" t="n">
-        <v>165.4232682107039</v>
+        <v>162.5112342112035</v>
       </c>
       <c r="I28" t="n">
-        <v>163.4961825867497</v>
+        <v>153.6464806743293</v>
       </c>
       <c r="J28" t="n">
-        <v>117.0498492130746</v>
+        <v>93.89352159128109</v>
       </c>
       <c r="K28" t="n">
-        <v>61.78822728249941</v>
+        <v>23.73526765712697</v>
       </c>
       <c r="L28" t="n">
-        <v>25.44417726395996</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>18.14460057041805</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>9.616055191137953</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>31.10182817494228</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>53.02192597337787</v>
+        <v>13.40873545256764</v>
       </c>
       <c r="Q28" t="n">
-        <v>123.4390684704985</v>
+        <v>96.01294866538856</v>
       </c>
       <c r="R28" t="n">
-        <v>201.4013453787021</v>
+        <v>186.6744331481002</v>
       </c>
       <c r="S28" t="n">
-        <v>234.651781437677</v>
+        <v>228.9438374938711</v>
       </c>
       <c r="T28" t="n">
-        <v>223.5687866316497</v>
+        <v>222.1693428895585</v>
       </c>
       <c r="U28" t="n">
-        <v>288.6540960517315</v>
+        <v>288.6362308124707</v>
       </c>
       <c r="V28" t="n">
         <v>245.1090151844499</v>
@@ -24692,16 +24694,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G29" t="n">
-        <v>418.7375927771332</v>
+        <v>418.0074221942822</v>
       </c>
       <c r="H29" t="n">
-        <v>345.9913317836409</v>
+        <v>338.5134723020187</v>
       </c>
       <c r="I29" t="n">
-        <v>237.1321516133932</v>
+        <v>208.9822502180322</v>
       </c>
       <c r="J29" t="n">
-        <v>68.24500144420554</v>
+        <v>6.272685937960304</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24719,22 +24721,22 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0.6284159487409511</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>78.85020852884477</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>188.5634753039845</v>
+        <v>142.6968974289739</v>
       </c>
       <c r="S29" t="n">
-        <v>225.2250235810158</v>
+        <v>208.5862614242999</v>
       </c>
       <c r="T29" t="n">
-        <v>222.0255916377255</v>
+        <v>218.8292699112955</v>
       </c>
       <c r="U29" t="n">
-        <v>250.1424950778085</v>
+        <v>250.0840814311804</v>
       </c>
       <c r="V29" t="n">
         <v>320.879783609152</v>
@@ -24771,16 +24773,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
-        <v>148.6907893310277</v>
+        <v>148.3001136271938</v>
       </c>
       <c r="H30" t="n">
-        <v>125.2157835936458</v>
+        <v>121.4426787697765</v>
       </c>
       <c r="I30" t="n">
-        <v>105.510564391123</v>
+        <v>92.05966844771967</v>
       </c>
       <c r="J30" t="n">
-        <v>47.39081947044386</v>
+        <v>10.48053290778771</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24804,16 +24806,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>131.3785412593008</v>
+        <v>107.1223778230184</v>
       </c>
       <c r="S30" t="n">
-        <v>190.5911986307839</v>
+        <v>183.3345687810625</v>
       </c>
       <c r="T30" t="n">
-        <v>214.7540108117728</v>
+        <v>213.1793135669336</v>
       </c>
       <c r="U30" t="n">
-        <v>237.224529026915</v>
+        <v>237.1988266779785</v>
       </c>
       <c r="V30" t="n">
         <v>240.6489209154022</v>
@@ -24850,49 +24852,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G31" t="n">
-        <v>168.6556581185268</v>
+        <v>168.3281287320799</v>
       </c>
       <c r="H31" t="n">
-        <v>165.4232682107039</v>
+        <v>162.5112342112035</v>
       </c>
       <c r="I31" t="n">
-        <v>163.4961825867497</v>
+        <v>153.6464806743293</v>
       </c>
       <c r="J31" t="n">
-        <v>117.0498492130746</v>
+        <v>93.89352159128109</v>
       </c>
       <c r="K31" t="n">
-        <v>61.78822728249941</v>
+        <v>23.73526765712697</v>
       </c>
       <c r="L31" t="n">
-        <v>25.44417726395996</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>18.14460057041805</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>9.616055191137953</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>31.10182817494228</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>53.02192597337787</v>
+        <v>13.40873545256764</v>
       </c>
       <c r="Q31" t="n">
-        <v>123.4390684704985</v>
+        <v>96.01294866538856</v>
       </c>
       <c r="R31" t="n">
-        <v>201.4013453787021</v>
+        <v>186.6744331481002</v>
       </c>
       <c r="S31" t="n">
-        <v>234.651781437677</v>
+        <v>228.9438374938711</v>
       </c>
       <c r="T31" t="n">
-        <v>223.5687866316497</v>
+        <v>222.1693428895585</v>
       </c>
       <c r="U31" t="n">
-        <v>288.6540960517315</v>
+        <v>288.6362308124707</v>
       </c>
       <c r="V31" t="n">
         <v>245.1090151844499</v>
@@ -24929,16 +24931,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G32" t="n">
-        <v>418.7375927771332</v>
+        <v>418.0074221942822</v>
       </c>
       <c r="H32" t="n">
-        <v>345.9913317836409</v>
+        <v>338.5134723020187</v>
       </c>
       <c r="I32" t="n">
-        <v>237.1321516133932</v>
+        <v>208.9822502180322</v>
       </c>
       <c r="J32" t="n">
-        <v>68.24500144420554</v>
+        <v>6.272685937960304</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24956,22 +24958,22 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0.6284159487409511</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>78.85020852884477</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>188.5634753039845</v>
+        <v>142.6968974289739</v>
       </c>
       <c r="S32" t="n">
-        <v>225.2250235810158</v>
+        <v>208.5862614242999</v>
       </c>
       <c r="T32" t="n">
-        <v>222.0255916377255</v>
+        <v>218.8292699112955</v>
       </c>
       <c r="U32" t="n">
-        <v>250.1424950778085</v>
+        <v>250.0840814311804</v>
       </c>
       <c r="V32" t="n">
         <v>320.879783609152</v>
@@ -25008,16 +25010,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
-        <v>148.6907893310277</v>
+        <v>148.3001136271938</v>
       </c>
       <c r="H33" t="n">
-        <v>125.2157835936458</v>
+        <v>121.4426787697765</v>
       </c>
       <c r="I33" t="n">
-        <v>105.510564391123</v>
+        <v>92.05966844771967</v>
       </c>
       <c r="J33" t="n">
-        <v>47.39081947044386</v>
+        <v>10.48053290778771</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25041,16 +25043,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>131.3785412593008</v>
+        <v>107.1223778230184</v>
       </c>
       <c r="S33" t="n">
-        <v>190.5911986307839</v>
+        <v>183.3345687810625</v>
       </c>
       <c r="T33" t="n">
-        <v>214.7540108117728</v>
+        <v>213.1793135669336</v>
       </c>
       <c r="U33" t="n">
-        <v>237.224529026915</v>
+        <v>237.1988266779785</v>
       </c>
       <c r="V33" t="n">
         <v>240.6489209154022</v>
@@ -25087,49 +25089,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G34" t="n">
-        <v>168.6556581185268</v>
+        <v>168.3281287320799</v>
       </c>
       <c r="H34" t="n">
-        <v>165.4232682107039</v>
+        <v>162.5112342112035</v>
       </c>
       <c r="I34" t="n">
-        <v>163.4961825867497</v>
+        <v>153.6464806743293</v>
       </c>
       <c r="J34" t="n">
-        <v>117.0498492130746</v>
+        <v>93.89352159128109</v>
       </c>
       <c r="K34" t="n">
-        <v>61.78822728249941</v>
+        <v>23.73526765712697</v>
       </c>
       <c r="L34" t="n">
-        <v>25.44417726395996</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>18.14460057041805</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>9.616055191137953</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>31.10182817494228</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>53.02192597337787</v>
+        <v>13.40873545256764</v>
       </c>
       <c r="Q34" t="n">
-        <v>123.4390684704985</v>
+        <v>96.01294866538856</v>
       </c>
       <c r="R34" t="n">
-        <v>201.4013453787021</v>
+        <v>186.6744331481002</v>
       </c>
       <c r="S34" t="n">
-        <v>234.651781437677</v>
+        <v>228.9438374938711</v>
       </c>
       <c r="T34" t="n">
-        <v>223.5687866316497</v>
+        <v>222.1693428895585</v>
       </c>
       <c r="U34" t="n">
-        <v>288.6540960517315</v>
+        <v>288.6362308124707</v>
       </c>
       <c r="V34" t="n">
         <v>245.1090151844499</v>
@@ -25166,16 +25168,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G35" t="n">
-        <v>418.7375927771332</v>
+        <v>418.0074221942822</v>
       </c>
       <c r="H35" t="n">
-        <v>345.9913317836409</v>
+        <v>338.5134723020187</v>
       </c>
       <c r="I35" t="n">
-        <v>237.1321516133932</v>
+        <v>208.9822502180322</v>
       </c>
       <c r="J35" t="n">
-        <v>68.24500144420554</v>
+        <v>6.272685937960304</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25193,22 +25195,22 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0.6284159487409511</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>78.85020852884477</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>188.5634753039845</v>
+        <v>142.6968974289739</v>
       </c>
       <c r="S35" t="n">
-        <v>225.2250235810158</v>
+        <v>208.5862614242999</v>
       </c>
       <c r="T35" t="n">
-        <v>222.0255916377255</v>
+        <v>218.8292699112955</v>
       </c>
       <c r="U35" t="n">
-        <v>250.1424950778085</v>
+        <v>250.0840814311804</v>
       </c>
       <c r="V35" t="n">
         <v>320.879783609152</v>
@@ -25245,16 +25247,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
-        <v>148.6907893310277</v>
+        <v>148.3001136271938</v>
       </c>
       <c r="H36" t="n">
-        <v>125.2157835936458</v>
+        <v>121.4426787697765</v>
       </c>
       <c r="I36" t="n">
-        <v>105.510564391123</v>
+        <v>92.05966844771967</v>
       </c>
       <c r="J36" t="n">
-        <v>47.39081947044386</v>
+        <v>10.48053290778771</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25278,16 +25280,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>131.3785412593008</v>
+        <v>107.1223778230184</v>
       </c>
       <c r="S36" t="n">
-        <v>190.5911986307839</v>
+        <v>183.3345687810625</v>
       </c>
       <c r="T36" t="n">
-        <v>214.7540108117728</v>
+        <v>213.1793135669336</v>
       </c>
       <c r="U36" t="n">
-        <v>237.224529026915</v>
+        <v>237.1988266779785</v>
       </c>
       <c r="V36" t="n">
         <v>240.6489209154022</v>
@@ -25324,49 +25326,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G37" t="n">
-        <v>168.6556581185268</v>
+        <v>168.3281287320799</v>
       </c>
       <c r="H37" t="n">
-        <v>165.4232682107039</v>
+        <v>162.5112342112035</v>
       </c>
       <c r="I37" t="n">
-        <v>163.4961825867497</v>
+        <v>153.6464806743293</v>
       </c>
       <c r="J37" t="n">
-        <v>117.0498492130746</v>
+        <v>93.89352159128109</v>
       </c>
       <c r="K37" t="n">
-        <v>61.78822728249941</v>
+        <v>23.73526765712697</v>
       </c>
       <c r="L37" t="n">
-        <v>25.44417726395996</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>18.14460057041805</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>9.616055191137953</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>31.10182817494228</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>53.02192597337787</v>
+        <v>13.40873545256764</v>
       </c>
       <c r="Q37" t="n">
-        <v>123.4390684704985</v>
+        <v>96.01294866538856</v>
       </c>
       <c r="R37" t="n">
-        <v>201.4013453787021</v>
+        <v>186.6744331481002</v>
       </c>
       <c r="S37" t="n">
-        <v>234.651781437677</v>
+        <v>228.9438374938711</v>
       </c>
       <c r="T37" t="n">
-        <v>223.5687866316497</v>
+        <v>222.1693428895585</v>
       </c>
       <c r="U37" t="n">
-        <v>288.6540960517315</v>
+        <v>288.6362308124707</v>
       </c>
       <c r="V37" t="n">
         <v>245.1090151844499</v>
@@ -25403,16 +25405,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G38" t="n">
-        <v>418.7375927771332</v>
+        <v>418.0074221942822</v>
       </c>
       <c r="H38" t="n">
-        <v>345.9913317836409</v>
+        <v>338.5134723020187</v>
       </c>
       <c r="I38" t="n">
-        <v>237.1321516133932</v>
+        <v>208.9822502180322</v>
       </c>
       <c r="J38" t="n">
-        <v>68.24500144420554</v>
+        <v>6.272685937960304</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25430,22 +25432,22 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0.6284159487409511</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>78.85020852884477</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>188.5634753039845</v>
+        <v>142.6968974289739</v>
       </c>
       <c r="S38" t="n">
-        <v>225.2250235810158</v>
+        <v>208.5862614242999</v>
       </c>
       <c r="T38" t="n">
-        <v>222.0255916377255</v>
+        <v>218.8292699112955</v>
       </c>
       <c r="U38" t="n">
-        <v>250.1424950778085</v>
+        <v>250.0840814311804</v>
       </c>
       <c r="V38" t="n">
         <v>320.879783609152</v>
@@ -25482,16 +25484,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
-        <v>148.6907893310277</v>
+        <v>148.3001136271938</v>
       </c>
       <c r="H39" t="n">
-        <v>125.2157835936458</v>
+        <v>121.4426787697765</v>
       </c>
       <c r="I39" t="n">
-        <v>105.510564391123</v>
+        <v>92.05966844771967</v>
       </c>
       <c r="J39" t="n">
-        <v>47.39081947044386</v>
+        <v>10.48053290778771</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25515,16 +25517,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>131.3785412593008</v>
+        <v>107.1223778230184</v>
       </c>
       <c r="S39" t="n">
-        <v>190.5911986307839</v>
+        <v>183.3345687810625</v>
       </c>
       <c r="T39" t="n">
-        <v>214.7540108117728</v>
+        <v>213.1793135669336</v>
       </c>
       <c r="U39" t="n">
-        <v>237.224529026915</v>
+        <v>237.1988266779785</v>
       </c>
       <c r="V39" t="n">
         <v>240.6489209154022</v>
@@ -25561,49 +25563,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G40" t="n">
-        <v>168.6556581185268</v>
+        <v>168.3281287320799</v>
       </c>
       <c r="H40" t="n">
-        <v>165.4232682107039</v>
+        <v>162.5112342112035</v>
       </c>
       <c r="I40" t="n">
-        <v>163.4961825867497</v>
+        <v>153.6464806743293</v>
       </c>
       <c r="J40" t="n">
-        <v>117.0498492130746</v>
+        <v>93.89352159128109</v>
       </c>
       <c r="K40" t="n">
-        <v>61.78822728249941</v>
+        <v>23.73526765712697</v>
       </c>
       <c r="L40" t="n">
-        <v>25.44417726395996</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>18.14460057041805</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>9.616055191137953</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>31.10182817494228</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>53.02192597337787</v>
+        <v>13.40873545256764</v>
       </c>
       <c r="Q40" t="n">
-        <v>123.4390684704985</v>
+        <v>96.01294866538856</v>
       </c>
       <c r="R40" t="n">
-        <v>201.4013453787021</v>
+        <v>186.6744331481002</v>
       </c>
       <c r="S40" t="n">
-        <v>234.651781437677</v>
+        <v>228.9438374938711</v>
       </c>
       <c r="T40" t="n">
-        <v>223.5687866316497</v>
+        <v>222.1693428895585</v>
       </c>
       <c r="U40" t="n">
-        <v>288.6540960517315</v>
+        <v>288.6362308124707</v>
       </c>
       <c r="V40" t="n">
         <v>245.1090151844499</v>
@@ -25640,16 +25642,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G41" t="n">
-        <v>418.7375927771332</v>
+        <v>418.0074221942822</v>
       </c>
       <c r="H41" t="n">
-        <v>345.9913317836409</v>
+        <v>338.5134723020187</v>
       </c>
       <c r="I41" t="n">
-        <v>237.1321516133932</v>
+        <v>208.9822502180322</v>
       </c>
       <c r="J41" t="n">
-        <v>68.24500144420554</v>
+        <v>6.272685937960304</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25667,22 +25669,22 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0.6284159487409511</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>78.85020852884477</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>188.5634753039845</v>
+        <v>142.6968974289739</v>
       </c>
       <c r="S41" t="n">
-        <v>225.2250235810158</v>
+        <v>208.5862614242999</v>
       </c>
       <c r="T41" t="n">
-        <v>222.0255916377255</v>
+        <v>218.8292699112955</v>
       </c>
       <c r="U41" t="n">
-        <v>250.1424950778085</v>
+        <v>250.0840814311804</v>
       </c>
       <c r="V41" t="n">
         <v>320.879783609152</v>
@@ -25719,16 +25721,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
-        <v>148.6907893310277</v>
+        <v>148.3001136271938</v>
       </c>
       <c r="H42" t="n">
-        <v>125.2157835936458</v>
+        <v>121.4426787697765</v>
       </c>
       <c r="I42" t="n">
-        <v>105.510564391123</v>
+        <v>92.05966844771967</v>
       </c>
       <c r="J42" t="n">
-        <v>47.39081947044386</v>
+        <v>10.48053290778771</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25752,16 +25754,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>131.3785412593008</v>
+        <v>107.1223778230184</v>
       </c>
       <c r="S42" t="n">
-        <v>190.5911986307839</v>
+        <v>183.3345687810625</v>
       </c>
       <c r="T42" t="n">
-        <v>214.7540108117728</v>
+        <v>213.1793135669336</v>
       </c>
       <c r="U42" t="n">
-        <v>237.224529026915</v>
+        <v>237.1988266779785</v>
       </c>
       <c r="V42" t="n">
         <v>240.6489209154022</v>
@@ -25798,49 +25800,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G43" t="n">
-        <v>168.6556581185268</v>
+        <v>168.3281287320799</v>
       </c>
       <c r="H43" t="n">
-        <v>165.4232682107039</v>
+        <v>162.5112342112035</v>
       </c>
       <c r="I43" t="n">
-        <v>163.4961825867497</v>
+        <v>153.6464806743293</v>
       </c>
       <c r="J43" t="n">
-        <v>117.0498492130746</v>
+        <v>93.89352159128109</v>
       </c>
       <c r="K43" t="n">
-        <v>61.78822728249941</v>
+        <v>23.73526765712697</v>
       </c>
       <c r="L43" t="n">
-        <v>25.44417726395996</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>18.14460057041805</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>9.616055191137953</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>31.10182817494228</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>53.02192597337787</v>
+        <v>13.40873545256764</v>
       </c>
       <c r="Q43" t="n">
-        <v>123.4390684704985</v>
+        <v>96.01294866538856</v>
       </c>
       <c r="R43" t="n">
-        <v>201.4013453787021</v>
+        <v>186.6744331481002</v>
       </c>
       <c r="S43" t="n">
-        <v>234.651781437677</v>
+        <v>228.9438374938711</v>
       </c>
       <c r="T43" t="n">
-        <v>223.5687866316497</v>
+        <v>222.1693428895585</v>
       </c>
       <c r="U43" t="n">
-        <v>288.6540960517315</v>
+        <v>288.6362308124707</v>
       </c>
       <c r="V43" t="n">
         <v>245.1090151844499</v>
@@ -25877,16 +25879,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G44" t="n">
-        <v>418.7375927771332</v>
+        <v>417.8783123837688</v>
       </c>
       <c r="H44" t="n">
-        <v>345.9913317836409</v>
+        <v>337.191226455099</v>
       </c>
       <c r="I44" t="n">
-        <v>237.1321516133932</v>
+        <v>204.0047442482169</v>
       </c>
       <c r="J44" t="n">
-        <v>68.24500144420554</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25904,22 +25906,22 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0.6284159487409653</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>78.85020852884477</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>188.5634753039845</v>
+        <v>134.5867032943157</v>
       </c>
       <c r="S44" t="n">
-        <v>225.2250235810158</v>
+        <v>205.6441716172273</v>
       </c>
       <c r="T44" t="n">
-        <v>222.0255916377255</v>
+        <v>218.2640917157734</v>
       </c>
       <c r="U44" t="n">
-        <v>250.1424950778085</v>
+        <v>250.0737526463394</v>
       </c>
       <c r="V44" t="n">
         <v>320.879783609152</v>
@@ -25956,16 +25958,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
-        <v>148.6907893310277</v>
+        <v>148.2310337884838</v>
       </c>
       <c r="H45" t="n">
-        <v>125.2157835936458</v>
+        <v>120.7755129590769</v>
       </c>
       <c r="I45" t="n">
-        <v>105.510564391123</v>
+        <v>89.68126172020311</v>
       </c>
       <c r="J45" t="n">
-        <v>47.39081947044387</v>
+        <v>3.954003058433003</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25989,16 +25991,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>131.3785412593008</v>
+        <v>102.8333681880216</v>
       </c>
       <c r="S45" t="n">
-        <v>190.5911986307839</v>
+        <v>182.0514410751984</v>
       </c>
       <c r="T45" t="n">
-        <v>214.7540108117728</v>
+        <v>212.9008733398524</v>
       </c>
       <c r="U45" t="n">
-        <v>237.224529026915</v>
+        <v>237.1942819517476</v>
       </c>
       <c r="V45" t="n">
         <v>240.6489209154022</v>
@@ -26035,49 +26037,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G46" t="n">
-        <v>168.6556581185268</v>
+        <v>168.2702145158476</v>
       </c>
       <c r="H46" t="n">
-        <v>165.4232682107039</v>
+        <v>161.9963241796108</v>
       </c>
       <c r="I46" t="n">
-        <v>163.4961825867497</v>
+        <v>151.9048422443612</v>
       </c>
       <c r="J46" t="n">
-        <v>117.0498492130746</v>
+        <v>89.79898650365655</v>
       </c>
       <c r="K46" t="n">
-        <v>61.78822728249941</v>
+        <v>17.00668871668184</v>
       </c>
       <c r="L46" t="n">
-        <v>25.44417726395997</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>18.14460057041805</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>9.616055191137953</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>31.10182817494228</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>53.02192597337788</v>
+        <v>6.404274245706759</v>
       </c>
       <c r="Q46" t="n">
-        <v>123.4390684704985</v>
+        <v>91.16342279524457</v>
       </c>
       <c r="R46" t="n">
-        <v>201.4013453787021</v>
+        <v>184.0703993891455</v>
       </c>
       <c r="S46" t="n">
-        <v>234.651781437677</v>
+        <v>227.9345506528043</v>
       </c>
       <c r="T46" t="n">
-        <v>223.5687866316497</v>
+        <v>221.9218912383841</v>
       </c>
       <c r="U46" t="n">
-        <v>288.6540960517315</v>
+        <v>288.6330718552217</v>
       </c>
       <c r="V46" t="n">
         <v>245.1090151844499</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>398247.455569505</v>
+        <v>426838.285039525</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>398247.455569505</v>
+        <v>426838.285039525</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>398247.455569505</v>
+        <v>426838.285039525</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>398247.455569505</v>
+        <v>426838.285039525</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>398247.455569505</v>
+        <v>426838.285039525</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>398247.455569505</v>
+        <v>426838.285039525</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>398247.455569505</v>
+        <v>426838.285039525</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>398247.455569505</v>
+        <v>426838.285039525</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>398247.455569505</v>
+        <v>426838.285039525</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>398247.455569505</v>
+        <v>426838.285039525</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>398247.455569505</v>
+        <v>426838.285039525</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>398247.455569505</v>
+        <v>429047.8954458978</v>
       </c>
     </row>
   </sheetData>
@@ -26320,40 +26322,40 @@
         <v>58173.53424982008</v>
       </c>
       <c r="E2" t="n">
-        <v>68623.34780569664</v>
+        <v>76610.41109906371</v>
       </c>
       <c r="F2" t="n">
-        <v>68623.34780569664</v>
+        <v>76610.4110990637</v>
       </c>
       <c r="G2" t="n">
-        <v>68623.34780569664</v>
+        <v>76610.41109906371</v>
       </c>
       <c r="H2" t="n">
-        <v>68623.34780569664</v>
+        <v>76610.4110990637</v>
       </c>
       <c r="I2" t="n">
-        <v>68623.34780569664</v>
+        <v>76610.4110990637</v>
       </c>
       <c r="J2" t="n">
-        <v>68623.34780569664</v>
+        <v>76610.4110990637</v>
       </c>
       <c r="K2" t="n">
-        <v>68623.34780569664</v>
+        <v>76610.41109906367</v>
       </c>
       <c r="L2" t="n">
-        <v>68623.34780569664</v>
+        <v>76610.4110990637</v>
       </c>
       <c r="M2" t="n">
-        <v>68623.34780569664</v>
+        <v>76610.4110990637</v>
       </c>
       <c r="N2" t="n">
-        <v>68623.34780569664</v>
+        <v>76610.4110990637</v>
       </c>
       <c r="O2" t="n">
-        <v>68623.34780569664</v>
+        <v>76610.4110990637</v>
       </c>
       <c r="P2" t="n">
-        <v>68623.34780569664</v>
+        <v>77514.1134962019</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>101381.9911481113</v>
+        <v>247304.0237956926</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>21375.68232150296</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>37019.52179534004</v>
+        <v>37019.52179534005</v>
       </c>
       <c r="C4" t="n">
-        <v>37019.52179534004</v>
+        <v>37019.52179534005</v>
       </c>
       <c r="D4" t="n">
-        <v>37019.52179534004</v>
+        <v>37019.52179534005</v>
       </c>
       <c r="E4" t="n">
-        <v>30176.77188440486</v>
+        <v>15927.89823545574</v>
       </c>
       <c r="F4" t="n">
-        <v>30176.77188440486</v>
+        <v>15927.89823545574</v>
       </c>
       <c r="G4" t="n">
-        <v>30176.77188440486</v>
+        <v>15927.89823545574</v>
       </c>
       <c r="H4" t="n">
-        <v>30176.77188440486</v>
+        <v>15927.89823545574</v>
       </c>
       <c r="I4" t="n">
-        <v>30176.77188440486</v>
+        <v>15927.89823545574</v>
       </c>
       <c r="J4" t="n">
-        <v>30176.77188440486</v>
+        <v>15927.89823545574</v>
       </c>
       <c r="K4" t="n">
-        <v>30176.77188440486</v>
+        <v>15927.89823545574</v>
       </c>
       <c r="L4" t="n">
-        <v>30176.77188440486</v>
+        <v>15927.89823545574</v>
       </c>
       <c r="M4" t="n">
-        <v>30176.77188440486</v>
+        <v>15927.89823545574</v>
       </c>
       <c r="N4" t="n">
-        <v>30176.77188440486</v>
+        <v>15927.89823545574</v>
       </c>
       <c r="O4" t="n">
-        <v>30176.77188440486</v>
+        <v>15927.89823545574</v>
       </c>
       <c r="P4" t="n">
-        <v>30176.77188440486</v>
+        <v>13290.37760263282</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>2750.957373856988</v>
+        <v>6710.48990201194</v>
       </c>
       <c r="F5" t="n">
-        <v>2750.957373856988</v>
+        <v>6710.48990201194</v>
       </c>
       <c r="G5" t="n">
-        <v>2750.957373856988</v>
+        <v>6710.48990201194</v>
       </c>
       <c r="H5" t="n">
-        <v>2750.957373856988</v>
+        <v>6710.48990201194</v>
       </c>
       <c r="I5" t="n">
-        <v>2750.957373856988</v>
+        <v>6710.48990201194</v>
       </c>
       <c r="J5" t="n">
-        <v>2750.957373856988</v>
+        <v>6710.48990201194</v>
       </c>
       <c r="K5" t="n">
-        <v>2750.957373856988</v>
+        <v>6710.48990201194</v>
       </c>
       <c r="L5" t="n">
-        <v>2750.957373856988</v>
+        <v>6710.48990201194</v>
       </c>
       <c r="M5" t="n">
-        <v>2750.957373856988</v>
+        <v>6710.48990201194</v>
       </c>
       <c r="N5" t="n">
-        <v>2750.957373856988</v>
+        <v>6710.48990201194</v>
       </c>
       <c r="O5" t="n">
-        <v>2750.957373856988</v>
+        <v>6710.48990201194</v>
       </c>
       <c r="P5" t="n">
-        <v>2750.957373856988</v>
+        <v>7410.620126973125</v>
       </c>
     </row>
     <row r="6">
@@ -26528,40 +26530,40 @@
         <v>-12473.58754551996</v>
       </c>
       <c r="E6" t="n">
-        <v>-65686.37260067649</v>
+        <v>-193332.0008340966</v>
       </c>
       <c r="F6" t="n">
-        <v>35695.61854743479</v>
+        <v>53972.02296159602</v>
       </c>
       <c r="G6" t="n">
-        <v>35695.61854743479</v>
+        <v>53972.02296159603</v>
       </c>
       <c r="H6" t="n">
-        <v>35695.61854743479</v>
+        <v>53972.02296159602</v>
       </c>
       <c r="I6" t="n">
-        <v>35695.61854743479</v>
+        <v>53972.02296159602</v>
       </c>
       <c r="J6" t="n">
-        <v>35695.61854743479</v>
+        <v>53972.02296159602</v>
       </c>
       <c r="K6" t="n">
-        <v>35695.61854743479</v>
+        <v>53972.02296159599</v>
       </c>
       <c r="L6" t="n">
-        <v>35695.61854743479</v>
+        <v>53972.02296159602</v>
       </c>
       <c r="M6" t="n">
-        <v>35695.61854743479</v>
+        <v>53972.02296159602</v>
       </c>
       <c r="N6" t="n">
-        <v>35695.61854743479</v>
+        <v>53972.02296159602</v>
       </c>
       <c r="O6" t="n">
-        <v>35695.61854743479</v>
+        <v>53972.02296159602</v>
       </c>
       <c r="P6" t="n">
-        <v>35695.61854743479</v>
+        <v>35437.433445093</v>
       </c>
     </row>
   </sheetData>
@@ -26744,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>126.1907052227976</v>
+        <v>307.8206377069697</v>
       </c>
       <c r="F3" t="n">
-        <v>126.1907052227976</v>
+        <v>307.8206377069697</v>
       </c>
       <c r="G3" t="n">
-        <v>126.1907052227976</v>
+        <v>307.8206377069697</v>
       </c>
       <c r="H3" t="n">
-        <v>126.1907052227976</v>
+        <v>307.8206377069697</v>
       </c>
       <c r="I3" t="n">
-        <v>126.1907052227976</v>
+        <v>307.8206377069697</v>
       </c>
       <c r="J3" t="n">
-        <v>126.1907052227976</v>
+        <v>307.8206377069697</v>
       </c>
       <c r="K3" t="n">
-        <v>126.1907052227976</v>
+        <v>307.8206377069697</v>
       </c>
       <c r="L3" t="n">
-        <v>126.1907052227976</v>
+        <v>307.8206377069697</v>
       </c>
       <c r="M3" t="n">
-        <v>126.1907052227976</v>
+        <v>307.8206377069697</v>
       </c>
       <c r="N3" t="n">
-        <v>126.1907052227976</v>
+        <v>307.8206377069697</v>
       </c>
       <c r="O3" t="n">
-        <v>126.1907052227976</v>
+        <v>307.8206377069697</v>
       </c>
       <c r="P3" t="n">
-        <v>126.1907052227976</v>
+        <v>339.9367030721617</v>
       </c>
     </row>
     <row r="4">
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>126.1907052227976</v>
+        <v>307.8206377069697</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>32.1160653651919</v>
       </c>
     </row>
     <row r="4">
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.507299317478583</v>
+        <v>1.237469900329525</v>
       </c>
       <c r="H11" t="n">
-        <v>5.195379135127539</v>
+        <v>12.67323861674976</v>
       </c>
       <c r="I11" t="n">
-        <v>19.55765693709309</v>
+        <v>47.70755833245408</v>
       </c>
       <c r="J11" t="n">
-        <v>43.05639544684792</v>
+        <v>105.0287109530932</v>
       </c>
       <c r="K11" t="n">
-        <v>64.53037555571636</v>
+        <v>157.410811834042</v>
       </c>
       <c r="L11" t="n">
-        <v>80.05563704300155</v>
+        <v>195.2820312962518</v>
       </c>
       <c r="M11" t="n">
-        <v>89.07732128021131</v>
+        <v>217.288886636237</v>
       </c>
       <c r="N11" t="n">
-        <v>90.51868546599734</v>
+        <v>220.8048479905482</v>
       </c>
       <c r="O11" t="n">
-        <v>85.47422787781967</v>
+        <v>208.4997566691465</v>
       </c>
       <c r="P11" t="n">
-        <v>72.95027597756714</v>
+        <v>177.9497185047613</v>
       </c>
       <c r="Q11" t="n">
-        <v>54.78261917036537</v>
+        <v>133.6328276992101</v>
       </c>
       <c r="R11" t="n">
-        <v>31.86664075156407</v>
+        <v>77.73321862657463</v>
       </c>
       <c r="S11" t="n">
-        <v>11.56008319704322</v>
+        <v>28.19884535375909</v>
       </c>
       <c r="T11" t="n">
-        <v>2.220702762262498</v>
+        <v>5.417024488692501</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04058394539828663</v>
+        <v>0.09899759202636202</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2714290640641308</v>
+        <v>0.6621047678980103</v>
       </c>
       <c r="H12" t="n">
-        <v>2.621433329250947</v>
+        <v>6.394538153120259</v>
       </c>
       <c r="I12" t="n">
-        <v>9.345255056593976</v>
+        <v>22.79615099999729</v>
       </c>
       <c r="J12" t="n">
-        <v>25.64409416230457</v>
+        <v>62.55438072496072</v>
       </c>
       <c r="K12" t="n">
-        <v>43.82984145460132</v>
+        <v>106.9154001741274</v>
       </c>
       <c r="L12" t="n">
-        <v>58.93463077409997</v>
+        <v>143.7609497139956</v>
       </c>
       <c r="M12" t="n">
-        <v>68.7739343464247</v>
+        <v>167.7622475502985</v>
       </c>
       <c r="N12" t="n">
-        <v>70.59417574534601</v>
+        <v>160.2368887416667</v>
       </c>
       <c r="O12" t="n">
-        <v>64.57987911529342</v>
+        <v>157.5315672989621</v>
       </c>
       <c r="P12" t="n">
-        <v>51.83104645273739</v>
+        <v>126.4329709857174</v>
       </c>
       <c r="Q12" t="n">
-        <v>34.64768193211606</v>
+        <v>84.51709282852497</v>
       </c>
       <c r="R12" t="n">
-        <v>16.85241153899928</v>
+        <v>41.10857497528174</v>
       </c>
       <c r="S12" t="n">
-        <v>5.04167581715611</v>
+        <v>12.29830566687751</v>
       </c>
       <c r="T12" t="n">
-        <v>1.094049604714632</v>
+        <v>2.668746849553822</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01785717526737703</v>
+        <v>0.04355952420381649</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2275570094181596</v>
+        <v>0.5550863958650273</v>
       </c>
       <c r="H13" t="n">
-        <v>2.023188683736002</v>
+        <v>4.935222683236337</v>
       </c>
       <c r="I13" t="n">
-        <v>6.843259883229748</v>
+        <v>16.6929617956501</v>
       </c>
       <c r="J13" t="n">
-        <v>16.08828056586388</v>
+        <v>39.24460818765743</v>
       </c>
       <c r="K13" t="n">
-        <v>26.4379870942189</v>
+        <v>64.49094671959134</v>
       </c>
       <c r="L13" t="n">
-        <v>33.83152120022348</v>
+        <v>82.52620834524234</v>
       </c>
       <c r="M13" t="n">
-        <v>35.67059557633932</v>
+        <v>87.01231567182423</v>
       </c>
       <c r="N13" t="n">
-        <v>34.8224285412353</v>
+        <v>84.94335728723647</v>
       </c>
       <c r="O13" t="n">
-        <v>32.16414893121406</v>
+        <v>78.45893893554043</v>
       </c>
       <c r="P13" t="n">
-        <v>27.52198593908359</v>
+        <v>67.13517645989383</v>
       </c>
       <c r="Q13" t="n">
-        <v>19.05479648864244</v>
+        <v>46.48091629375242</v>
       </c>
       <c r="R13" t="n">
-        <v>10.2317906234747</v>
+        <v>24.95870285407658</v>
       </c>
       <c r="S13" t="n">
-        <v>3.965698064132835</v>
+        <v>9.6736420079387</v>
       </c>
       <c r="T13" t="n">
-        <v>0.9722890402412272</v>
+        <v>2.371732782332388</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01241220051371781</v>
+        <v>0.03027743977445607</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.507299317478583</v>
+        <v>1.237469900329526</v>
       </c>
       <c r="H14" t="n">
-        <v>5.195379135127539</v>
+        <v>12.67323861674976</v>
       </c>
       <c r="I14" t="n">
-        <v>19.55765693709309</v>
+        <v>47.70755833245408</v>
       </c>
       <c r="J14" t="n">
-        <v>43.05639544684792</v>
+        <v>105.0287109530932</v>
       </c>
       <c r="K14" t="n">
-        <v>64.53037555571636</v>
+        <v>157.410811834042</v>
       </c>
       <c r="L14" t="n">
-        <v>80.05563704300155</v>
+        <v>195.2820312962518</v>
       </c>
       <c r="M14" t="n">
-        <v>89.07732128021131</v>
+        <v>217.288886636237</v>
       </c>
       <c r="N14" t="n">
-        <v>90.51868546599734</v>
+        <v>220.8048479905482</v>
       </c>
       <c r="O14" t="n">
-        <v>85.47422787781967</v>
+        <v>208.4997566691465</v>
       </c>
       <c r="P14" t="n">
-        <v>72.95027597756714</v>
+        <v>177.9497185047613</v>
       </c>
       <c r="Q14" t="n">
-        <v>54.78261917036537</v>
+        <v>133.6328276992101</v>
       </c>
       <c r="R14" t="n">
-        <v>31.86664075156407</v>
+        <v>77.73321862657463</v>
       </c>
       <c r="S14" t="n">
-        <v>11.56008319704322</v>
+        <v>28.19884535375909</v>
       </c>
       <c r="T14" t="n">
-        <v>2.220702762262498</v>
+        <v>5.4170244886925</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04058394539828663</v>
+        <v>0.09899759202636202</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2714290640641308</v>
+        <v>0.6621047678980103</v>
       </c>
       <c r="H15" t="n">
-        <v>2.621433329250947</v>
+        <v>6.394538153120259</v>
       </c>
       <c r="I15" t="n">
-        <v>9.345255056593976</v>
+        <v>22.79615099999729</v>
       </c>
       <c r="J15" t="n">
-        <v>25.64409416230457</v>
+        <v>62.55438072496072</v>
       </c>
       <c r="K15" t="n">
-        <v>43.82984145460132</v>
+        <v>106.9154001741274</v>
       </c>
       <c r="L15" t="n">
-        <v>58.93463077409997</v>
+        <v>143.7609497139956</v>
       </c>
       <c r="M15" t="n">
-        <v>68.7739343464247</v>
+        <v>167.7622475502985</v>
       </c>
       <c r="N15" t="n">
-        <v>70.59417574534601</v>
+        <v>160.2368887416667</v>
       </c>
       <c r="O15" t="n">
-        <v>64.57987911529342</v>
+        <v>157.5315672989621</v>
       </c>
       <c r="P15" t="n">
-        <v>51.83104645273739</v>
+        <v>126.4329709857174</v>
       </c>
       <c r="Q15" t="n">
-        <v>34.64768193211606</v>
+        <v>84.51709282852498</v>
       </c>
       <c r="R15" t="n">
-        <v>16.85241153899928</v>
+        <v>41.10857497528175</v>
       </c>
       <c r="S15" t="n">
-        <v>5.04167581715611</v>
+        <v>12.29830566687751</v>
       </c>
       <c r="T15" t="n">
-        <v>1.094049604714632</v>
+        <v>2.668746849553821</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01785717526737703</v>
+        <v>0.04355952420381649</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2275570094181596</v>
+        <v>0.5550863958650273</v>
       </c>
       <c r="H16" t="n">
-        <v>2.023188683736002</v>
+        <v>4.935222683236337</v>
       </c>
       <c r="I16" t="n">
-        <v>6.843259883229748</v>
+        <v>16.6929617956501</v>
       </c>
       <c r="J16" t="n">
-        <v>16.08828056586388</v>
+        <v>39.24460818765743</v>
       </c>
       <c r="K16" t="n">
-        <v>26.4379870942189</v>
+        <v>64.49094671959134</v>
       </c>
       <c r="L16" t="n">
-        <v>33.83152120022348</v>
+        <v>82.52620834524234</v>
       </c>
       <c r="M16" t="n">
-        <v>35.67059557633932</v>
+        <v>87.01231567182423</v>
       </c>
       <c r="N16" t="n">
-        <v>34.8224285412353</v>
+        <v>84.94335728723647</v>
       </c>
       <c r="O16" t="n">
-        <v>32.16414893121406</v>
+        <v>78.45893893554043</v>
       </c>
       <c r="P16" t="n">
-        <v>27.52198593908359</v>
+        <v>67.13517645989381</v>
       </c>
       <c r="Q16" t="n">
-        <v>19.05479648864244</v>
+        <v>46.48091629375242</v>
       </c>
       <c r="R16" t="n">
-        <v>10.2317906234747</v>
+        <v>24.95870285407658</v>
       </c>
       <c r="S16" t="n">
-        <v>3.965698064132835</v>
+        <v>9.6736420079387</v>
       </c>
       <c r="T16" t="n">
-        <v>0.9722890402412272</v>
+        <v>2.371732782332389</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01241220051371781</v>
+        <v>0.03027743977445607</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.507299317478583</v>
+        <v>1.237469900329525</v>
       </c>
       <c r="H17" t="n">
-        <v>5.195379135127539</v>
+        <v>12.67323861674976</v>
       </c>
       <c r="I17" t="n">
-        <v>19.55765693709309</v>
+        <v>47.70755833245408</v>
       </c>
       <c r="J17" t="n">
-        <v>43.05639544684792</v>
+        <v>105.0287109530932</v>
       </c>
       <c r="K17" t="n">
-        <v>64.53037555571636</v>
+        <v>157.410811834042</v>
       </c>
       <c r="L17" t="n">
-        <v>80.05563704300155</v>
+        <v>195.2820312962518</v>
       </c>
       <c r="M17" t="n">
-        <v>89.07732128021131</v>
+        <v>217.288886636237</v>
       </c>
       <c r="N17" t="n">
-        <v>90.51868546599734</v>
+        <v>220.8048479905482</v>
       </c>
       <c r="O17" t="n">
-        <v>85.47422787781967</v>
+        <v>208.4997566691465</v>
       </c>
       <c r="P17" t="n">
-        <v>72.95027597756714</v>
+        <v>177.9497185047613</v>
       </c>
       <c r="Q17" t="n">
-        <v>54.78261917036537</v>
+        <v>133.6328276992101</v>
       </c>
       <c r="R17" t="n">
-        <v>31.86664075156407</v>
+        <v>77.73321862657463</v>
       </c>
       <c r="S17" t="n">
-        <v>11.56008319704322</v>
+        <v>28.19884535375909</v>
       </c>
       <c r="T17" t="n">
-        <v>2.220702762262498</v>
+        <v>5.417024488692501</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04058394539828663</v>
+        <v>0.09899759202636202</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2714290640641308</v>
+        <v>0.6621047678980103</v>
       </c>
       <c r="H18" t="n">
-        <v>2.621433329250947</v>
+        <v>6.394538153120259</v>
       </c>
       <c r="I18" t="n">
-        <v>9.345255056593976</v>
+        <v>22.79615099999729</v>
       </c>
       <c r="J18" t="n">
-        <v>25.64409416230457</v>
+        <v>62.55438072496072</v>
       </c>
       <c r="K18" t="n">
-        <v>43.82984145460132</v>
+        <v>106.9154001741274</v>
       </c>
       <c r="L18" t="n">
-        <v>58.93463077409997</v>
+        <v>143.7609497139956</v>
       </c>
       <c r="M18" t="n">
-        <v>68.7739343464247</v>
+        <v>167.7622475502985</v>
       </c>
       <c r="N18" t="n">
-        <v>70.59417574534601</v>
+        <v>160.2368887416667</v>
       </c>
       <c r="O18" t="n">
-        <v>64.57987911529342</v>
+        <v>157.5315672989621</v>
       </c>
       <c r="P18" t="n">
-        <v>51.83104645273739</v>
+        <v>126.4329709857174</v>
       </c>
       <c r="Q18" t="n">
-        <v>34.64768193211606</v>
+        <v>84.51709282852497</v>
       </c>
       <c r="R18" t="n">
-        <v>16.85241153899928</v>
+        <v>41.10857497528174</v>
       </c>
       <c r="S18" t="n">
-        <v>5.04167581715611</v>
+        <v>12.29830566687751</v>
       </c>
       <c r="T18" t="n">
-        <v>1.094049604714632</v>
+        <v>2.668746849553822</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01785717526737703</v>
+        <v>0.04355952420381649</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2275570094181596</v>
+        <v>0.5550863958650273</v>
       </c>
       <c r="H19" t="n">
-        <v>2.023188683736002</v>
+        <v>4.935222683236337</v>
       </c>
       <c r="I19" t="n">
-        <v>6.843259883229748</v>
+        <v>16.6929617956501</v>
       </c>
       <c r="J19" t="n">
-        <v>16.08828056586388</v>
+        <v>39.24460818765743</v>
       </c>
       <c r="K19" t="n">
-        <v>26.4379870942189</v>
+        <v>64.49094671959134</v>
       </c>
       <c r="L19" t="n">
-        <v>33.83152120022348</v>
+        <v>82.52620834524234</v>
       </c>
       <c r="M19" t="n">
-        <v>35.67059557633932</v>
+        <v>87.01231567182423</v>
       </c>
       <c r="N19" t="n">
-        <v>34.8224285412353</v>
+        <v>84.94335728723647</v>
       </c>
       <c r="O19" t="n">
-        <v>32.16414893121406</v>
+        <v>78.45893893554043</v>
       </c>
       <c r="P19" t="n">
-        <v>27.52198593908359</v>
+        <v>67.13517645989383</v>
       </c>
       <c r="Q19" t="n">
-        <v>19.05479648864244</v>
+        <v>46.48091629375242</v>
       </c>
       <c r="R19" t="n">
-        <v>10.2317906234747</v>
+        <v>24.95870285407658</v>
       </c>
       <c r="S19" t="n">
-        <v>3.965698064132835</v>
+        <v>9.6736420079387</v>
       </c>
       <c r="T19" t="n">
-        <v>0.9722890402412272</v>
+        <v>2.371732782332388</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01241220051371781</v>
+        <v>0.03027743977445607</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.507299317478583</v>
+        <v>1.237469900329526</v>
       </c>
       <c r="H20" t="n">
-        <v>5.195379135127539</v>
+        <v>12.67323861674976</v>
       </c>
       <c r="I20" t="n">
-        <v>19.55765693709309</v>
+        <v>47.70755833245408</v>
       </c>
       <c r="J20" t="n">
-        <v>43.05639544684792</v>
+        <v>105.0287109530932</v>
       </c>
       <c r="K20" t="n">
-        <v>64.53037555571636</v>
+        <v>157.410811834042</v>
       </c>
       <c r="L20" t="n">
-        <v>80.05563704300155</v>
+        <v>195.2820312962518</v>
       </c>
       <c r="M20" t="n">
-        <v>89.07732128021131</v>
+        <v>217.288886636237</v>
       </c>
       <c r="N20" t="n">
-        <v>90.51868546599734</v>
+        <v>220.8048479905482</v>
       </c>
       <c r="O20" t="n">
-        <v>85.47422787781967</v>
+        <v>208.4997566691465</v>
       </c>
       <c r="P20" t="n">
-        <v>72.95027597756714</v>
+        <v>177.9497185047613</v>
       </c>
       <c r="Q20" t="n">
-        <v>54.78261917036537</v>
+        <v>133.6328276992101</v>
       </c>
       <c r="R20" t="n">
-        <v>31.86664075156407</v>
+        <v>77.73321862657463</v>
       </c>
       <c r="S20" t="n">
-        <v>11.56008319704322</v>
+        <v>28.19884535375909</v>
       </c>
       <c r="T20" t="n">
-        <v>2.220702762262498</v>
+        <v>5.4170244886925</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04058394539828663</v>
+        <v>0.09899759202636202</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2714290640641308</v>
+        <v>0.6621047678980103</v>
       </c>
       <c r="H21" t="n">
-        <v>2.621433329250947</v>
+        <v>6.394538153120259</v>
       </c>
       <c r="I21" t="n">
-        <v>9.345255056593976</v>
+        <v>22.79615099999729</v>
       </c>
       <c r="J21" t="n">
-        <v>25.64409416230457</v>
+        <v>62.55438072496072</v>
       </c>
       <c r="K21" t="n">
-        <v>43.82984145460132</v>
+        <v>106.9154001741274</v>
       </c>
       <c r="L21" t="n">
-        <v>58.93463077409997</v>
+        <v>143.7609497139956</v>
       </c>
       <c r="M21" t="n">
-        <v>68.7739343464247</v>
+        <v>167.7622475502985</v>
       </c>
       <c r="N21" t="n">
-        <v>70.59417574534601</v>
+        <v>160.2368887416667</v>
       </c>
       <c r="O21" t="n">
-        <v>64.57987911529342</v>
+        <v>157.5315672989621</v>
       </c>
       <c r="P21" t="n">
-        <v>51.83104645273739</v>
+        <v>126.4329709857174</v>
       </c>
       <c r="Q21" t="n">
-        <v>34.64768193211606</v>
+        <v>84.51709282852498</v>
       </c>
       <c r="R21" t="n">
-        <v>16.85241153899928</v>
+        <v>41.10857497528175</v>
       </c>
       <c r="S21" t="n">
-        <v>5.04167581715611</v>
+        <v>12.29830566687751</v>
       </c>
       <c r="T21" t="n">
-        <v>1.094049604714632</v>
+        <v>2.668746849553821</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01785717526737703</v>
+        <v>0.04355952420381649</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2275570094181596</v>
+        <v>0.5550863958650273</v>
       </c>
       <c r="H22" t="n">
-        <v>2.023188683736002</v>
+        <v>4.935222683236337</v>
       </c>
       <c r="I22" t="n">
-        <v>6.843259883229748</v>
+        <v>16.6929617956501</v>
       </c>
       <c r="J22" t="n">
-        <v>16.08828056586388</v>
+        <v>39.24460818765743</v>
       </c>
       <c r="K22" t="n">
-        <v>26.4379870942189</v>
+        <v>64.49094671959134</v>
       </c>
       <c r="L22" t="n">
-        <v>33.83152120022348</v>
+        <v>82.52620834524234</v>
       </c>
       <c r="M22" t="n">
-        <v>35.67059557633932</v>
+        <v>87.01231567182423</v>
       </c>
       <c r="N22" t="n">
-        <v>34.8224285412353</v>
+        <v>84.94335728723647</v>
       </c>
       <c r="O22" t="n">
-        <v>32.16414893121406</v>
+        <v>78.45893893554043</v>
       </c>
       <c r="P22" t="n">
-        <v>27.52198593908359</v>
+        <v>67.13517645989381</v>
       </c>
       <c r="Q22" t="n">
-        <v>19.05479648864244</v>
+        <v>46.48091629375242</v>
       </c>
       <c r="R22" t="n">
-        <v>10.2317906234747</v>
+        <v>24.95870285407658</v>
       </c>
       <c r="S22" t="n">
-        <v>3.965698064132835</v>
+        <v>9.6736420079387</v>
       </c>
       <c r="T22" t="n">
-        <v>0.9722890402412272</v>
+        <v>2.371732782332389</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01241220051371781</v>
+        <v>0.03027743977445607</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.507299317478583</v>
+        <v>1.237469900329526</v>
       </c>
       <c r="H23" t="n">
-        <v>5.195379135127539</v>
+        <v>12.67323861674976</v>
       </c>
       <c r="I23" t="n">
-        <v>19.55765693709309</v>
+        <v>47.70755833245408</v>
       </c>
       <c r="J23" t="n">
-        <v>43.05639544684792</v>
+        <v>105.0287109530932</v>
       </c>
       <c r="K23" t="n">
-        <v>64.53037555571636</v>
+        <v>157.410811834042</v>
       </c>
       <c r="L23" t="n">
-        <v>80.05563704300155</v>
+        <v>195.2820312962518</v>
       </c>
       <c r="M23" t="n">
-        <v>89.07732128021131</v>
+        <v>217.288886636237</v>
       </c>
       <c r="N23" t="n">
-        <v>90.51868546599734</v>
+        <v>220.8048479905482</v>
       </c>
       <c r="O23" t="n">
-        <v>85.47422787781967</v>
+        <v>208.4997566691465</v>
       </c>
       <c r="P23" t="n">
-        <v>72.95027597756714</v>
+        <v>177.9497185047613</v>
       </c>
       <c r="Q23" t="n">
-        <v>54.78261917036537</v>
+        <v>133.6328276992101</v>
       </c>
       <c r="R23" t="n">
-        <v>31.86664075156407</v>
+        <v>77.73321862657463</v>
       </c>
       <c r="S23" t="n">
-        <v>11.56008319704322</v>
+        <v>28.19884535375909</v>
       </c>
       <c r="T23" t="n">
-        <v>2.220702762262498</v>
+        <v>5.4170244886925</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04058394539828663</v>
+        <v>0.09899759202636202</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2714290640641308</v>
+        <v>0.6621047678980103</v>
       </c>
       <c r="H24" t="n">
-        <v>2.621433329250947</v>
+        <v>6.394538153120259</v>
       </c>
       <c r="I24" t="n">
-        <v>9.345255056593976</v>
+        <v>22.79615099999729</v>
       </c>
       <c r="J24" t="n">
-        <v>25.64409416230457</v>
+        <v>62.55438072496072</v>
       </c>
       <c r="K24" t="n">
-        <v>43.82984145460132</v>
+        <v>106.9154001741274</v>
       </c>
       <c r="L24" t="n">
-        <v>58.93463077409997</v>
+        <v>143.7609497139956</v>
       </c>
       <c r="M24" t="n">
-        <v>68.7739343464247</v>
+        <v>167.7622475502985</v>
       </c>
       <c r="N24" t="n">
-        <v>70.59417574534601</v>
+        <v>160.2368887416667</v>
       </c>
       <c r="O24" t="n">
-        <v>64.57987911529342</v>
+        <v>157.5315672989621</v>
       </c>
       <c r="P24" t="n">
-        <v>51.83104645273739</v>
+        <v>126.4329709857174</v>
       </c>
       <c r="Q24" t="n">
-        <v>34.64768193211606</v>
+        <v>84.51709282852498</v>
       </c>
       <c r="R24" t="n">
-        <v>16.85241153899928</v>
+        <v>41.10857497528175</v>
       </c>
       <c r="S24" t="n">
-        <v>5.04167581715611</v>
+        <v>12.29830566687751</v>
       </c>
       <c r="T24" t="n">
-        <v>1.094049604714632</v>
+        <v>2.668746849553821</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01785717526737703</v>
+        <v>0.04355952420381649</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2275570094181596</v>
+        <v>0.5550863958650273</v>
       </c>
       <c r="H25" t="n">
-        <v>2.023188683736002</v>
+        <v>4.935222683236337</v>
       </c>
       <c r="I25" t="n">
-        <v>6.843259883229748</v>
+        <v>16.6929617956501</v>
       </c>
       <c r="J25" t="n">
-        <v>16.08828056586388</v>
+        <v>39.24460818765743</v>
       </c>
       <c r="K25" t="n">
-        <v>26.4379870942189</v>
+        <v>64.49094671959134</v>
       </c>
       <c r="L25" t="n">
-        <v>33.83152120022348</v>
+        <v>82.52620834524234</v>
       </c>
       <c r="M25" t="n">
-        <v>35.67059557633932</v>
+        <v>87.01231567182423</v>
       </c>
       <c r="N25" t="n">
-        <v>34.8224285412353</v>
+        <v>84.94335728723647</v>
       </c>
       <c r="O25" t="n">
-        <v>32.16414893121406</v>
+        <v>78.45893893554043</v>
       </c>
       <c r="P25" t="n">
-        <v>27.52198593908359</v>
+        <v>67.13517645989381</v>
       </c>
       <c r="Q25" t="n">
-        <v>19.05479648864244</v>
+        <v>46.48091629375242</v>
       </c>
       <c r="R25" t="n">
-        <v>10.2317906234747</v>
+        <v>24.95870285407658</v>
       </c>
       <c r="S25" t="n">
-        <v>3.965698064132835</v>
+        <v>9.6736420079387</v>
       </c>
       <c r="T25" t="n">
-        <v>0.9722890402412272</v>
+        <v>2.371732782332389</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01241220051371781</v>
+        <v>0.03027743977445607</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.507299317478583</v>
+        <v>1.237469900329526</v>
       </c>
       <c r="H26" t="n">
-        <v>5.195379135127539</v>
+        <v>12.67323861674976</v>
       </c>
       <c r="I26" t="n">
-        <v>19.55765693709309</v>
+        <v>47.70755833245408</v>
       </c>
       <c r="J26" t="n">
-        <v>43.05639544684792</v>
+        <v>105.0287109530932</v>
       </c>
       <c r="K26" t="n">
-        <v>64.53037555571636</v>
+        <v>157.410811834042</v>
       </c>
       <c r="L26" t="n">
-        <v>80.05563704300155</v>
+        <v>195.2820312962518</v>
       </c>
       <c r="M26" t="n">
-        <v>89.07732128021131</v>
+        <v>217.288886636237</v>
       </c>
       <c r="N26" t="n">
-        <v>90.51868546599734</v>
+        <v>220.8048479905482</v>
       </c>
       <c r="O26" t="n">
-        <v>85.47422787781967</v>
+        <v>208.4997566691465</v>
       </c>
       <c r="P26" t="n">
-        <v>72.95027597756714</v>
+        <v>177.9497185047613</v>
       </c>
       <c r="Q26" t="n">
-        <v>54.78261917036537</v>
+        <v>133.6328276992101</v>
       </c>
       <c r="R26" t="n">
-        <v>31.86664075156407</v>
+        <v>77.73321862657463</v>
       </c>
       <c r="S26" t="n">
-        <v>11.56008319704322</v>
+        <v>28.19884535375909</v>
       </c>
       <c r="T26" t="n">
-        <v>2.220702762262498</v>
+        <v>5.4170244886925</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04058394539828663</v>
+        <v>0.09899759202636202</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2714290640641308</v>
+        <v>0.6621047678980103</v>
       </c>
       <c r="H27" t="n">
-        <v>2.621433329250947</v>
+        <v>6.394538153120259</v>
       </c>
       <c r="I27" t="n">
-        <v>9.345255056593976</v>
+        <v>22.79615099999729</v>
       </c>
       <c r="J27" t="n">
-        <v>25.64409416230457</v>
+        <v>62.55438072496072</v>
       </c>
       <c r="K27" t="n">
-        <v>43.82984145460132</v>
+        <v>106.9154001741274</v>
       </c>
       <c r="L27" t="n">
-        <v>58.93463077409997</v>
+        <v>143.7609497139956</v>
       </c>
       <c r="M27" t="n">
-        <v>68.7739343464247</v>
+        <v>167.7622475502985</v>
       </c>
       <c r="N27" t="n">
-        <v>70.59417574534601</v>
+        <v>160.2368887416667</v>
       </c>
       <c r="O27" t="n">
-        <v>64.57987911529342</v>
+        <v>157.5315672989621</v>
       </c>
       <c r="P27" t="n">
-        <v>51.83104645273739</v>
+        <v>126.4329709857174</v>
       </c>
       <c r="Q27" t="n">
-        <v>34.64768193211606</v>
+        <v>84.51709282852498</v>
       </c>
       <c r="R27" t="n">
-        <v>16.85241153899928</v>
+        <v>41.10857497528175</v>
       </c>
       <c r="S27" t="n">
-        <v>5.04167581715611</v>
+        <v>12.29830566687751</v>
       </c>
       <c r="T27" t="n">
-        <v>1.094049604714632</v>
+        <v>2.668746849553821</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01785717526737703</v>
+        <v>0.04355952420381649</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2275570094181596</v>
+        <v>0.5550863958650273</v>
       </c>
       <c r="H28" t="n">
-        <v>2.023188683736002</v>
+        <v>4.935222683236337</v>
       </c>
       <c r="I28" t="n">
-        <v>6.843259883229748</v>
+        <v>16.6929617956501</v>
       </c>
       <c r="J28" t="n">
-        <v>16.08828056586388</v>
+        <v>39.24460818765743</v>
       </c>
       <c r="K28" t="n">
-        <v>26.4379870942189</v>
+        <v>64.49094671959134</v>
       </c>
       <c r="L28" t="n">
-        <v>33.83152120022348</v>
+        <v>82.52620834524234</v>
       </c>
       <c r="M28" t="n">
-        <v>35.67059557633932</v>
+        <v>87.01231567182423</v>
       </c>
       <c r="N28" t="n">
-        <v>34.8224285412353</v>
+        <v>84.94335728723647</v>
       </c>
       <c r="O28" t="n">
-        <v>32.16414893121406</v>
+        <v>78.45893893554043</v>
       </c>
       <c r="P28" t="n">
-        <v>27.52198593908359</v>
+        <v>67.13517645989381</v>
       </c>
       <c r="Q28" t="n">
-        <v>19.05479648864244</v>
+        <v>46.48091629375242</v>
       </c>
       <c r="R28" t="n">
-        <v>10.2317906234747</v>
+        <v>24.95870285407658</v>
       </c>
       <c r="S28" t="n">
-        <v>3.965698064132835</v>
+        <v>9.6736420079387</v>
       </c>
       <c r="T28" t="n">
-        <v>0.9722890402412272</v>
+        <v>2.371732782332389</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01241220051371781</v>
+        <v>0.03027743977445607</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.507299317478583</v>
+        <v>1.237469900329526</v>
       </c>
       <c r="H29" t="n">
-        <v>5.195379135127539</v>
+        <v>12.67323861674976</v>
       </c>
       <c r="I29" t="n">
-        <v>19.55765693709309</v>
+        <v>47.70755833245408</v>
       </c>
       <c r="J29" t="n">
-        <v>43.05639544684792</v>
+        <v>105.0287109530932</v>
       </c>
       <c r="K29" t="n">
-        <v>64.53037555571636</v>
+        <v>157.410811834042</v>
       </c>
       <c r="L29" t="n">
-        <v>80.05563704300155</v>
+        <v>195.2820312962518</v>
       </c>
       <c r="M29" t="n">
-        <v>89.07732128021131</v>
+        <v>217.288886636237</v>
       </c>
       <c r="N29" t="n">
-        <v>90.51868546599734</v>
+        <v>220.8048479905482</v>
       </c>
       <c r="O29" t="n">
-        <v>85.47422787781967</v>
+        <v>208.4997566691465</v>
       </c>
       <c r="P29" t="n">
-        <v>72.95027597756714</v>
+        <v>177.9497185047613</v>
       </c>
       <c r="Q29" t="n">
-        <v>54.78261917036537</v>
+        <v>133.6328276992101</v>
       </c>
       <c r="R29" t="n">
-        <v>31.86664075156407</v>
+        <v>77.73321862657463</v>
       </c>
       <c r="S29" t="n">
-        <v>11.56008319704322</v>
+        <v>28.19884535375909</v>
       </c>
       <c r="T29" t="n">
-        <v>2.220702762262498</v>
+        <v>5.4170244886925</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04058394539828663</v>
+        <v>0.09899759202636202</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2714290640641308</v>
+        <v>0.6621047678980103</v>
       </c>
       <c r="H30" t="n">
-        <v>2.621433329250947</v>
+        <v>6.394538153120259</v>
       </c>
       <c r="I30" t="n">
-        <v>9.345255056593976</v>
+        <v>22.79615099999729</v>
       </c>
       <c r="J30" t="n">
-        <v>25.64409416230457</v>
+        <v>62.55438072496072</v>
       </c>
       <c r="K30" t="n">
-        <v>43.82984145460132</v>
+        <v>106.9154001741274</v>
       </c>
       <c r="L30" t="n">
-        <v>58.93463077409997</v>
+        <v>143.7609497139956</v>
       </c>
       <c r="M30" t="n">
-        <v>68.7739343464247</v>
+        <v>167.7622475502985</v>
       </c>
       <c r="N30" t="n">
-        <v>70.59417574534601</v>
+        <v>160.2368887416667</v>
       </c>
       <c r="O30" t="n">
-        <v>64.57987911529342</v>
+        <v>157.5315672989621</v>
       </c>
       <c r="P30" t="n">
-        <v>51.83104645273739</v>
+        <v>126.4329709857174</v>
       </c>
       <c r="Q30" t="n">
-        <v>34.64768193211606</v>
+        <v>84.51709282852498</v>
       </c>
       <c r="R30" t="n">
-        <v>16.85241153899928</v>
+        <v>41.10857497528175</v>
       </c>
       <c r="S30" t="n">
-        <v>5.04167581715611</v>
+        <v>12.29830566687751</v>
       </c>
       <c r="T30" t="n">
-        <v>1.094049604714632</v>
+        <v>2.668746849553821</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01785717526737703</v>
+        <v>0.04355952420381649</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2275570094181596</v>
+        <v>0.5550863958650273</v>
       </c>
       <c r="H31" t="n">
-        <v>2.023188683736002</v>
+        <v>4.935222683236337</v>
       </c>
       <c r="I31" t="n">
-        <v>6.843259883229748</v>
+        <v>16.6929617956501</v>
       </c>
       <c r="J31" t="n">
-        <v>16.08828056586388</v>
+        <v>39.24460818765743</v>
       </c>
       <c r="K31" t="n">
-        <v>26.4379870942189</v>
+        <v>64.49094671959134</v>
       </c>
       <c r="L31" t="n">
-        <v>33.83152120022348</v>
+        <v>82.52620834524234</v>
       </c>
       <c r="M31" t="n">
-        <v>35.67059557633932</v>
+        <v>87.01231567182423</v>
       </c>
       <c r="N31" t="n">
-        <v>34.8224285412353</v>
+        <v>84.94335728723647</v>
       </c>
       <c r="O31" t="n">
-        <v>32.16414893121406</v>
+        <v>78.45893893554043</v>
       </c>
       <c r="P31" t="n">
-        <v>27.52198593908359</v>
+        <v>67.13517645989381</v>
       </c>
       <c r="Q31" t="n">
-        <v>19.05479648864244</v>
+        <v>46.48091629375242</v>
       </c>
       <c r="R31" t="n">
-        <v>10.2317906234747</v>
+        <v>24.95870285407658</v>
       </c>
       <c r="S31" t="n">
-        <v>3.965698064132835</v>
+        <v>9.6736420079387</v>
       </c>
       <c r="T31" t="n">
-        <v>0.9722890402412272</v>
+        <v>2.371732782332389</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01241220051371781</v>
+        <v>0.03027743977445607</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.507299317478583</v>
+        <v>1.237469900329526</v>
       </c>
       <c r="H32" t="n">
-        <v>5.195379135127539</v>
+        <v>12.67323861674976</v>
       </c>
       <c r="I32" t="n">
-        <v>19.55765693709309</v>
+        <v>47.70755833245408</v>
       </c>
       <c r="J32" t="n">
-        <v>43.05639544684792</v>
+        <v>105.0287109530932</v>
       </c>
       <c r="K32" t="n">
-        <v>64.53037555571636</v>
+        <v>157.410811834042</v>
       </c>
       <c r="L32" t="n">
-        <v>80.05563704300155</v>
+        <v>195.2820312962518</v>
       </c>
       <c r="M32" t="n">
-        <v>89.07732128021131</v>
+        <v>217.288886636237</v>
       </c>
       <c r="N32" t="n">
-        <v>90.51868546599734</v>
+        <v>220.8048479905482</v>
       </c>
       <c r="O32" t="n">
-        <v>85.47422787781967</v>
+        <v>208.4997566691465</v>
       </c>
       <c r="P32" t="n">
-        <v>72.95027597756714</v>
+        <v>177.9497185047613</v>
       </c>
       <c r="Q32" t="n">
-        <v>54.78261917036537</v>
+        <v>133.6328276992101</v>
       </c>
       <c r="R32" t="n">
-        <v>31.86664075156407</v>
+        <v>77.73321862657463</v>
       </c>
       <c r="S32" t="n">
-        <v>11.56008319704322</v>
+        <v>28.19884535375909</v>
       </c>
       <c r="T32" t="n">
-        <v>2.220702762262498</v>
+        <v>5.4170244886925</v>
       </c>
       <c r="U32" t="n">
-        <v>0.04058394539828663</v>
+        <v>0.09899759202636202</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2714290640641308</v>
+        <v>0.6621047678980103</v>
       </c>
       <c r="H33" t="n">
-        <v>2.621433329250947</v>
+        <v>6.394538153120259</v>
       </c>
       <c r="I33" t="n">
-        <v>9.345255056593976</v>
+        <v>22.79615099999729</v>
       </c>
       <c r="J33" t="n">
-        <v>25.64409416230457</v>
+        <v>62.55438072496072</v>
       </c>
       <c r="K33" t="n">
-        <v>43.82984145460132</v>
+        <v>106.9154001741274</v>
       </c>
       <c r="L33" t="n">
-        <v>58.93463077409997</v>
+        <v>143.7609497139956</v>
       </c>
       <c r="M33" t="n">
-        <v>68.7739343464247</v>
+        <v>167.7622475502985</v>
       </c>
       <c r="N33" t="n">
-        <v>70.59417574534601</v>
+        <v>160.2368887416667</v>
       </c>
       <c r="O33" t="n">
-        <v>64.57987911529342</v>
+        <v>157.5315672989621</v>
       </c>
       <c r="P33" t="n">
-        <v>51.83104645273739</v>
+        <v>126.4329709857174</v>
       </c>
       <c r="Q33" t="n">
-        <v>34.64768193211606</v>
+        <v>84.51709282852498</v>
       </c>
       <c r="R33" t="n">
-        <v>16.85241153899928</v>
+        <v>41.10857497528175</v>
       </c>
       <c r="S33" t="n">
-        <v>5.04167581715611</v>
+        <v>12.29830566687751</v>
       </c>
       <c r="T33" t="n">
-        <v>1.094049604714632</v>
+        <v>2.668746849553821</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01785717526737703</v>
+        <v>0.04355952420381649</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2275570094181596</v>
+        <v>0.5550863958650273</v>
       </c>
       <c r="H34" t="n">
-        <v>2.023188683736002</v>
+        <v>4.935222683236337</v>
       </c>
       <c r="I34" t="n">
-        <v>6.843259883229748</v>
+        <v>16.6929617956501</v>
       </c>
       <c r="J34" t="n">
-        <v>16.08828056586388</v>
+        <v>39.24460818765743</v>
       </c>
       <c r="K34" t="n">
-        <v>26.4379870942189</v>
+        <v>64.49094671959134</v>
       </c>
       <c r="L34" t="n">
-        <v>33.83152120022348</v>
+        <v>82.52620834524234</v>
       </c>
       <c r="M34" t="n">
-        <v>35.67059557633932</v>
+        <v>87.01231567182423</v>
       </c>
       <c r="N34" t="n">
-        <v>34.8224285412353</v>
+        <v>84.94335728723647</v>
       </c>
       <c r="O34" t="n">
-        <v>32.16414893121406</v>
+        <v>78.45893893554043</v>
       </c>
       <c r="P34" t="n">
-        <v>27.52198593908359</v>
+        <v>67.13517645989381</v>
       </c>
       <c r="Q34" t="n">
-        <v>19.05479648864244</v>
+        <v>46.48091629375242</v>
       </c>
       <c r="R34" t="n">
-        <v>10.2317906234747</v>
+        <v>24.95870285407658</v>
       </c>
       <c r="S34" t="n">
-        <v>3.965698064132835</v>
+        <v>9.6736420079387</v>
       </c>
       <c r="T34" t="n">
-        <v>0.9722890402412272</v>
+        <v>2.371732782332389</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01241220051371781</v>
+        <v>0.03027743977445607</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.507299317478583</v>
+        <v>1.237469900329526</v>
       </c>
       <c r="H35" t="n">
-        <v>5.195379135127539</v>
+        <v>12.67323861674976</v>
       </c>
       <c r="I35" t="n">
-        <v>19.55765693709309</v>
+        <v>47.70755833245408</v>
       </c>
       <c r="J35" t="n">
-        <v>43.05639544684792</v>
+        <v>105.0287109530932</v>
       </c>
       <c r="K35" t="n">
-        <v>64.53037555571636</v>
+        <v>157.410811834042</v>
       </c>
       <c r="L35" t="n">
-        <v>80.05563704300155</v>
+        <v>195.2820312962518</v>
       </c>
       <c r="M35" t="n">
-        <v>89.07732128021131</v>
+        <v>217.288886636237</v>
       </c>
       <c r="N35" t="n">
-        <v>90.51868546599734</v>
+        <v>220.8048479905482</v>
       </c>
       <c r="O35" t="n">
-        <v>85.47422787781967</v>
+        <v>208.4997566691465</v>
       </c>
       <c r="P35" t="n">
-        <v>72.95027597756714</v>
+        <v>177.9497185047613</v>
       </c>
       <c r="Q35" t="n">
-        <v>54.78261917036537</v>
+        <v>133.6328276992101</v>
       </c>
       <c r="R35" t="n">
-        <v>31.86664075156407</v>
+        <v>77.73321862657463</v>
       </c>
       <c r="S35" t="n">
-        <v>11.56008319704322</v>
+        <v>28.19884535375909</v>
       </c>
       <c r="T35" t="n">
-        <v>2.220702762262498</v>
+        <v>5.4170244886925</v>
       </c>
       <c r="U35" t="n">
-        <v>0.04058394539828663</v>
+        <v>0.09899759202636202</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2714290640641308</v>
+        <v>0.6621047678980103</v>
       </c>
       <c r="H36" t="n">
-        <v>2.621433329250947</v>
+        <v>6.394538153120259</v>
       </c>
       <c r="I36" t="n">
-        <v>9.345255056593976</v>
+        <v>22.79615099999729</v>
       </c>
       <c r="J36" t="n">
-        <v>25.64409416230457</v>
+        <v>62.55438072496072</v>
       </c>
       <c r="K36" t="n">
-        <v>43.82984145460132</v>
+        <v>106.9154001741274</v>
       </c>
       <c r="L36" t="n">
-        <v>58.93463077409997</v>
+        <v>143.7609497139956</v>
       </c>
       <c r="M36" t="n">
-        <v>68.7739343464247</v>
+        <v>167.7622475502985</v>
       </c>
       <c r="N36" t="n">
-        <v>70.59417574534601</v>
+        <v>160.2368887416667</v>
       </c>
       <c r="O36" t="n">
-        <v>64.57987911529342</v>
+        <v>157.5315672989621</v>
       </c>
       <c r="P36" t="n">
-        <v>51.83104645273739</v>
+        <v>126.4329709857174</v>
       </c>
       <c r="Q36" t="n">
-        <v>34.64768193211606</v>
+        <v>84.51709282852498</v>
       </c>
       <c r="R36" t="n">
-        <v>16.85241153899928</v>
+        <v>41.10857497528175</v>
       </c>
       <c r="S36" t="n">
-        <v>5.04167581715611</v>
+        <v>12.29830566687751</v>
       </c>
       <c r="T36" t="n">
-        <v>1.094049604714632</v>
+        <v>2.668746849553821</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01785717526737703</v>
+        <v>0.04355952420381649</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2275570094181596</v>
+        <v>0.5550863958650273</v>
       </c>
       <c r="H37" t="n">
-        <v>2.023188683736002</v>
+        <v>4.935222683236337</v>
       </c>
       <c r="I37" t="n">
-        <v>6.843259883229748</v>
+        <v>16.6929617956501</v>
       </c>
       <c r="J37" t="n">
-        <v>16.08828056586388</v>
+        <v>39.24460818765743</v>
       </c>
       <c r="K37" t="n">
-        <v>26.4379870942189</v>
+        <v>64.49094671959134</v>
       </c>
       <c r="L37" t="n">
-        <v>33.83152120022348</v>
+        <v>82.52620834524234</v>
       </c>
       <c r="M37" t="n">
-        <v>35.67059557633932</v>
+        <v>87.01231567182423</v>
       </c>
       <c r="N37" t="n">
-        <v>34.8224285412353</v>
+        <v>84.94335728723647</v>
       </c>
       <c r="O37" t="n">
-        <v>32.16414893121406</v>
+        <v>78.45893893554043</v>
       </c>
       <c r="P37" t="n">
-        <v>27.52198593908359</v>
+        <v>67.13517645989381</v>
       </c>
       <c r="Q37" t="n">
-        <v>19.05479648864244</v>
+        <v>46.48091629375242</v>
       </c>
       <c r="R37" t="n">
-        <v>10.2317906234747</v>
+        <v>24.95870285407658</v>
       </c>
       <c r="S37" t="n">
-        <v>3.965698064132835</v>
+        <v>9.6736420079387</v>
       </c>
       <c r="T37" t="n">
-        <v>0.9722890402412272</v>
+        <v>2.371732782332389</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01241220051371781</v>
+        <v>0.03027743977445607</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.507299317478583</v>
+        <v>1.237469900329526</v>
       </c>
       <c r="H38" t="n">
-        <v>5.195379135127539</v>
+        <v>12.67323861674976</v>
       </c>
       <c r="I38" t="n">
-        <v>19.55765693709309</v>
+        <v>47.70755833245408</v>
       </c>
       <c r="J38" t="n">
-        <v>43.05639544684792</v>
+        <v>105.0287109530932</v>
       </c>
       <c r="K38" t="n">
-        <v>64.53037555571636</v>
+        <v>157.410811834042</v>
       </c>
       <c r="L38" t="n">
-        <v>80.05563704300155</v>
+        <v>195.2820312962518</v>
       </c>
       <c r="M38" t="n">
-        <v>89.07732128021131</v>
+        <v>217.288886636237</v>
       </c>
       <c r="N38" t="n">
-        <v>90.51868546599734</v>
+        <v>220.8048479905482</v>
       </c>
       <c r="O38" t="n">
-        <v>85.47422787781967</v>
+        <v>208.4997566691465</v>
       </c>
       <c r="P38" t="n">
-        <v>72.95027597756714</v>
+        <v>177.9497185047613</v>
       </c>
       <c r="Q38" t="n">
-        <v>54.78261917036537</v>
+        <v>133.6328276992101</v>
       </c>
       <c r="R38" t="n">
-        <v>31.86664075156407</v>
+        <v>77.73321862657463</v>
       </c>
       <c r="S38" t="n">
-        <v>11.56008319704322</v>
+        <v>28.19884535375909</v>
       </c>
       <c r="T38" t="n">
-        <v>2.220702762262498</v>
+        <v>5.4170244886925</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04058394539828663</v>
+        <v>0.09899759202636202</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2714290640641308</v>
+        <v>0.6621047678980103</v>
       </c>
       <c r="H39" t="n">
-        <v>2.621433329250947</v>
+        <v>6.394538153120259</v>
       </c>
       <c r="I39" t="n">
-        <v>9.345255056593976</v>
+        <v>22.79615099999729</v>
       </c>
       <c r="J39" t="n">
-        <v>25.64409416230457</v>
+        <v>62.55438072496072</v>
       </c>
       <c r="K39" t="n">
-        <v>43.82984145460132</v>
+        <v>106.9154001741274</v>
       </c>
       <c r="L39" t="n">
-        <v>58.93463077409997</v>
+        <v>143.7609497139956</v>
       </c>
       <c r="M39" t="n">
-        <v>68.7739343464247</v>
+        <v>167.7622475502985</v>
       </c>
       <c r="N39" t="n">
-        <v>70.59417574534601</v>
+        <v>160.2368887416667</v>
       </c>
       <c r="O39" t="n">
-        <v>64.57987911529342</v>
+        <v>157.5315672989621</v>
       </c>
       <c r="P39" t="n">
-        <v>51.83104645273739</v>
+        <v>126.4329709857174</v>
       </c>
       <c r="Q39" t="n">
-        <v>34.64768193211606</v>
+        <v>84.51709282852498</v>
       </c>
       <c r="R39" t="n">
-        <v>16.85241153899928</v>
+        <v>41.10857497528175</v>
       </c>
       <c r="S39" t="n">
-        <v>5.04167581715611</v>
+        <v>12.29830566687751</v>
       </c>
       <c r="T39" t="n">
-        <v>1.094049604714632</v>
+        <v>2.668746849553821</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01785717526737703</v>
+        <v>0.04355952420381649</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2275570094181596</v>
+        <v>0.5550863958650273</v>
       </c>
       <c r="H40" t="n">
-        <v>2.023188683736002</v>
+        <v>4.935222683236337</v>
       </c>
       <c r="I40" t="n">
-        <v>6.843259883229748</v>
+        <v>16.6929617956501</v>
       </c>
       <c r="J40" t="n">
-        <v>16.08828056586388</v>
+        <v>39.24460818765743</v>
       </c>
       <c r="K40" t="n">
-        <v>26.4379870942189</v>
+        <v>64.49094671959134</v>
       </c>
       <c r="L40" t="n">
-        <v>33.83152120022348</v>
+        <v>82.52620834524234</v>
       </c>
       <c r="M40" t="n">
-        <v>35.67059557633932</v>
+        <v>87.01231567182423</v>
       </c>
       <c r="N40" t="n">
-        <v>34.8224285412353</v>
+        <v>84.94335728723647</v>
       </c>
       <c r="O40" t="n">
-        <v>32.16414893121406</v>
+        <v>78.45893893554043</v>
       </c>
       <c r="P40" t="n">
-        <v>27.52198593908359</v>
+        <v>67.13517645989381</v>
       </c>
       <c r="Q40" t="n">
-        <v>19.05479648864244</v>
+        <v>46.48091629375242</v>
       </c>
       <c r="R40" t="n">
-        <v>10.2317906234747</v>
+        <v>24.95870285407658</v>
       </c>
       <c r="S40" t="n">
-        <v>3.965698064132835</v>
+        <v>9.6736420079387</v>
       </c>
       <c r="T40" t="n">
-        <v>0.9722890402412272</v>
+        <v>2.371732782332389</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01241220051371781</v>
+        <v>0.03027743977445607</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.507299317478583</v>
+        <v>1.237469900329526</v>
       </c>
       <c r="H41" t="n">
-        <v>5.195379135127539</v>
+        <v>12.67323861674976</v>
       </c>
       <c r="I41" t="n">
-        <v>19.55765693709309</v>
+        <v>47.70755833245408</v>
       </c>
       <c r="J41" t="n">
-        <v>43.05639544684792</v>
+        <v>105.0287109530932</v>
       </c>
       <c r="K41" t="n">
-        <v>64.53037555571636</v>
+        <v>157.410811834042</v>
       </c>
       <c r="L41" t="n">
-        <v>80.05563704300155</v>
+        <v>195.2820312962518</v>
       </c>
       <c r="M41" t="n">
-        <v>89.07732128021131</v>
+        <v>217.288886636237</v>
       </c>
       <c r="N41" t="n">
-        <v>90.51868546599734</v>
+        <v>220.8048479905482</v>
       </c>
       <c r="O41" t="n">
-        <v>85.47422787781967</v>
+        <v>208.4997566691465</v>
       </c>
       <c r="P41" t="n">
-        <v>72.95027597756714</v>
+        <v>177.9497185047613</v>
       </c>
       <c r="Q41" t="n">
-        <v>54.78261917036537</v>
+        <v>133.6328276992101</v>
       </c>
       <c r="R41" t="n">
-        <v>31.86664075156407</v>
+        <v>77.73321862657463</v>
       </c>
       <c r="S41" t="n">
-        <v>11.56008319704322</v>
+        <v>28.19884535375909</v>
       </c>
       <c r="T41" t="n">
-        <v>2.220702762262498</v>
+        <v>5.4170244886925</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04058394539828663</v>
+        <v>0.09899759202636202</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2714290640641308</v>
+        <v>0.6621047678980103</v>
       </c>
       <c r="H42" t="n">
-        <v>2.621433329250947</v>
+        <v>6.394538153120259</v>
       </c>
       <c r="I42" t="n">
-        <v>9.345255056593976</v>
+        <v>22.79615099999729</v>
       </c>
       <c r="J42" t="n">
-        <v>25.64409416230457</v>
+        <v>62.55438072496072</v>
       </c>
       <c r="K42" t="n">
-        <v>43.82984145460132</v>
+        <v>106.9154001741274</v>
       </c>
       <c r="L42" t="n">
-        <v>58.93463077409997</v>
+        <v>143.7609497139956</v>
       </c>
       <c r="M42" t="n">
-        <v>68.7739343464247</v>
+        <v>167.7622475502985</v>
       </c>
       <c r="N42" t="n">
-        <v>70.59417574534601</v>
+        <v>160.2368887416667</v>
       </c>
       <c r="O42" t="n">
-        <v>64.57987911529342</v>
+        <v>157.5315672989621</v>
       </c>
       <c r="P42" t="n">
-        <v>51.83104645273739</v>
+        <v>126.4329709857174</v>
       </c>
       <c r="Q42" t="n">
-        <v>34.64768193211606</v>
+        <v>84.51709282852498</v>
       </c>
       <c r="R42" t="n">
-        <v>16.85241153899928</v>
+        <v>41.10857497528175</v>
       </c>
       <c r="S42" t="n">
-        <v>5.04167581715611</v>
+        <v>12.29830566687751</v>
       </c>
       <c r="T42" t="n">
-        <v>1.094049604714632</v>
+        <v>2.668746849553821</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01785717526737703</v>
+        <v>0.04355952420381649</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2275570094181596</v>
+        <v>0.5550863958650273</v>
       </c>
       <c r="H43" t="n">
-        <v>2.023188683736002</v>
+        <v>4.935222683236337</v>
       </c>
       <c r="I43" t="n">
-        <v>6.843259883229748</v>
+        <v>16.6929617956501</v>
       </c>
       <c r="J43" t="n">
-        <v>16.08828056586388</v>
+        <v>39.24460818765743</v>
       </c>
       <c r="K43" t="n">
-        <v>26.4379870942189</v>
+        <v>64.49094671959134</v>
       </c>
       <c r="L43" t="n">
-        <v>33.83152120022348</v>
+        <v>82.52620834524234</v>
       </c>
       <c r="M43" t="n">
-        <v>35.67059557633932</v>
+        <v>87.01231567182423</v>
       </c>
       <c r="N43" t="n">
-        <v>34.8224285412353</v>
+        <v>84.94335728723647</v>
       </c>
       <c r="O43" t="n">
-        <v>32.16414893121406</v>
+        <v>78.45893893554043</v>
       </c>
       <c r="P43" t="n">
-        <v>27.52198593908359</v>
+        <v>67.13517645989381</v>
       </c>
       <c r="Q43" t="n">
-        <v>19.05479648864244</v>
+        <v>46.48091629375242</v>
       </c>
       <c r="R43" t="n">
-        <v>10.2317906234747</v>
+        <v>24.95870285407658</v>
       </c>
       <c r="S43" t="n">
-        <v>3.965698064132835</v>
+        <v>9.6736420079387</v>
       </c>
       <c r="T43" t="n">
-        <v>0.9722890402412272</v>
+        <v>2.371732782332389</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01241220051371781</v>
+        <v>0.03027743977445607</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.507299317478583</v>
+        <v>1.36657971084286</v>
       </c>
       <c r="H44" t="n">
-        <v>5.195379135127538</v>
+        <v>13.99548446366944</v>
       </c>
       <c r="I44" t="n">
-        <v>19.55765693709309</v>
+        <v>52.68506430226941</v>
       </c>
       <c r="J44" t="n">
-        <v>43.05639544684792</v>
+        <v>115.9867447331493</v>
       </c>
       <c r="K44" t="n">
-        <v>64.53037555571635</v>
+        <v>173.8340638931276</v>
       </c>
       <c r="L44" t="n">
-        <v>80.05563704300155</v>
+        <v>215.6565277188348</v>
       </c>
       <c r="M44" t="n">
-        <v>89.07732128021129</v>
+        <v>239.9594396515365</v>
       </c>
       <c r="N44" t="n">
-        <v>90.51868546599734</v>
+        <v>243.8422342549688</v>
       </c>
       <c r="O44" t="n">
-        <v>85.47422787781967</v>
+        <v>230.2533072552751</v>
       </c>
       <c r="P44" t="n">
-        <v>72.95027597756713</v>
+        <v>196.5158706438419</v>
       </c>
       <c r="Q44" t="n">
-        <v>54.78261917036536</v>
+        <v>147.575234749282</v>
       </c>
       <c r="R44" t="n">
-        <v>31.86664075156407</v>
+        <v>85.84341276123287</v>
       </c>
       <c r="S44" t="n">
-        <v>11.56008319704322</v>
+        <v>31.1409351608317</v>
       </c>
       <c r="T44" t="n">
-        <v>2.220702762262498</v>
+        <v>5.982202684214622</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04058394539828663</v>
+        <v>0.1093263768674288</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2714290640641308</v>
+        <v>0.7311846066080457</v>
       </c>
       <c r="H45" t="n">
-        <v>2.621433329250947</v>
+        <v>7.061703963819812</v>
       </c>
       <c r="I45" t="n">
-        <v>9.345255056593976</v>
+        <v>25.17455772751386</v>
       </c>
       <c r="J45" t="n">
-        <v>25.64409416230456</v>
+        <v>69.08091057431542</v>
       </c>
       <c r="K45" t="n">
-        <v>43.82984145460132</v>
+        <v>118.0702792170545</v>
       </c>
       <c r="L45" t="n">
-        <v>58.93463077409996</v>
+        <v>158.7600611847865</v>
       </c>
       <c r="M45" t="n">
-        <v>68.7739343464247</v>
+        <v>173.4035213848624</v>
       </c>
       <c r="N45" t="n">
-        <v>70.59417574534601</v>
+        <v>160.2368887416667</v>
       </c>
       <c r="O45" t="n">
-        <v>64.57987911529341</v>
+        <v>173.9674182222222</v>
       </c>
       <c r="P45" t="n">
-        <v>51.83104645273739</v>
+        <v>139.6241903618469</v>
       </c>
       <c r="Q45" t="n">
-        <v>34.64768193211606</v>
+        <v>93.33507364351127</v>
       </c>
       <c r="R45" t="n">
-        <v>16.85241153899928</v>
+        <v>45.39758461027851</v>
       </c>
       <c r="S45" t="n">
-        <v>5.041675817156109</v>
+        <v>13.58143337274154</v>
       </c>
       <c r="T45" t="n">
-        <v>1.094049604714632</v>
+        <v>2.947187076635061</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01785717526737703</v>
+        <v>0.04810425043473988</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2275570094181596</v>
+        <v>0.6130006120973406</v>
       </c>
       <c r="H46" t="n">
-        <v>2.023188683736002</v>
+        <v>5.450132714829087</v>
       </c>
       <c r="I46" t="n">
-        <v>6.843259883229747</v>
+        <v>18.43460022561821</v>
       </c>
       <c r="J46" t="n">
-        <v>16.08828056586388</v>
+        <v>43.33914327528198</v>
       </c>
       <c r="K46" t="n">
-        <v>26.4379870942189</v>
+        <v>71.21952566003647</v>
       </c>
       <c r="L46" t="n">
-        <v>33.83152120022348</v>
+        <v>91.13647282036283</v>
       </c>
       <c r="M46" t="n">
-        <v>35.67059557633932</v>
+        <v>96.09063231267676</v>
       </c>
       <c r="N46" t="n">
-        <v>34.8224285412353</v>
+        <v>93.80581184940493</v>
       </c>
       <c r="O46" t="n">
-        <v>32.16414893121406</v>
+        <v>86.6448501535405</v>
       </c>
       <c r="P46" t="n">
-        <v>27.52198593908358</v>
+        <v>74.13963766675469</v>
       </c>
       <c r="Q46" t="n">
-        <v>19.05479648864244</v>
+        <v>51.33044216389641</v>
       </c>
       <c r="R46" t="n">
-        <v>10.2317906234747</v>
+        <v>27.56273661303132</v>
       </c>
       <c r="S46" t="n">
-        <v>3.965698064132834</v>
+        <v>10.68292884900547</v>
       </c>
       <c r="T46" t="n">
-        <v>0.9722890402412272</v>
+        <v>2.619184433506818</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01241220051371781</v>
+        <v>0.03343639702349135</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_7_11.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_7_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>109535.1894461157</v>
+        <v>-22009.72821673988</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4453576.274210435</v>
+        <v>4562880.44296944</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>23187179.77914629</v>
+        <v>23160015.14962179</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4712329.818903973</v>
+        <v>4718708.011355808</v>
       </c>
     </row>
     <row r="11">
@@ -8692,25 +8692,25 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K11" t="n">
-        <v>111.0988064408343</v>
+        <v>105.8056161847214</v>
       </c>
       <c r="L11" t="n">
-        <v>92.35299496713264</v>
+        <v>85.7863243985249</v>
       </c>
       <c r="M11" t="n">
-        <v>63.73351790103578</v>
+        <v>56.42683163149823</v>
       </c>
       <c r="N11" t="n">
-        <v>59.07908959729269</v>
+        <v>51.65417350500871</v>
       </c>
       <c r="O11" t="n">
-        <v>72.2200612653113</v>
+        <v>65.2089235451997</v>
       </c>
       <c r="P11" t="n">
-        <v>104.1545363166676</v>
+        <v>98.17069248095629</v>
       </c>
       <c r="Q11" t="n">
-        <v>137.5801139476182</v>
+        <v>133.0864964302902</v>
       </c>
       <c r="R11" t="n">
         <v>42.58424007769262</v>
@@ -8771,25 +8771,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K12" t="n">
-        <v>61.25115537459055</v>
+        <v>57.65595408036968</v>
       </c>
       <c r="L12" t="n">
-        <v>25.27539361745087</v>
+        <v>20.44120180197424</v>
       </c>
       <c r="M12" t="n">
-        <v>5.64127383456389</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>16.43585092326006</v>
+        <v>11.13860007154486</v>
       </c>
       <c r="P12" t="n">
-        <v>37.01580605976547</v>
+        <v>32.7642952373794</v>
       </c>
       <c r="Q12" t="n">
-        <v>86.2606715564213</v>
+        <v>83.41864916277152</v>
       </c>
       <c r="R12" t="n">
         <v>29.49804203773589</v>
@@ -8853,16 +8853,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L13" t="n">
-        <v>82.03309671786837</v>
+        <v>79.2580209984983</v>
       </c>
       <c r="M13" t="n">
-        <v>82.47714074425393</v>
+        <v>79.55121249250524</v>
       </c>
       <c r="N13" t="n">
-        <v>70.83300696034803</v>
+        <v>67.97665074265473</v>
       </c>
       <c r="O13" t="n">
-        <v>90.45803797570775</v>
+        <v>87.81973069401728</v>
       </c>
       <c r="P13" t="n">
         <v>87.48425302749862</v>
@@ -8929,25 +8929,25 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K14" t="n">
-        <v>111.0988064408343</v>
+        <v>105.8056161847214</v>
       </c>
       <c r="L14" t="n">
-        <v>92.35299496713264</v>
+        <v>85.7863243985249</v>
       </c>
       <c r="M14" t="n">
-        <v>63.73351790103578</v>
+        <v>56.42683163149823</v>
       </c>
       <c r="N14" t="n">
-        <v>59.07908959729269</v>
+        <v>51.65417350500871</v>
       </c>
       <c r="O14" t="n">
-        <v>72.2200612653113</v>
+        <v>65.2089235451997</v>
       </c>
       <c r="P14" t="n">
-        <v>104.1545363166676</v>
+        <v>98.17069248095629</v>
       </c>
       <c r="Q14" t="n">
-        <v>137.5801139476182</v>
+        <v>133.0864964302902</v>
       </c>
       <c r="R14" t="n">
         <v>42.58424007769262</v>
@@ -9008,25 +9008,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K15" t="n">
-        <v>61.25115537459055</v>
+        <v>57.65595408036968</v>
       </c>
       <c r="L15" t="n">
-        <v>25.27539361745087</v>
+        <v>20.44120180197424</v>
       </c>
       <c r="M15" t="n">
-        <v>5.64127383456389</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>16.43585092326006</v>
+        <v>11.13860007154486</v>
       </c>
       <c r="P15" t="n">
-        <v>37.01580605976547</v>
+        <v>32.7642952373794</v>
       </c>
       <c r="Q15" t="n">
-        <v>86.26067155642129</v>
+        <v>83.41864916277152</v>
       </c>
       <c r="R15" t="n">
         <v>29.49804203773589</v>
@@ -9090,16 +9090,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L16" t="n">
-        <v>82.03309671786837</v>
+        <v>79.2580209984983</v>
       </c>
       <c r="M16" t="n">
-        <v>82.47714074425393</v>
+        <v>79.55121249250524</v>
       </c>
       <c r="N16" t="n">
-        <v>70.83300696034803</v>
+        <v>67.97665074265473</v>
       </c>
       <c r="O16" t="n">
-        <v>90.45803797570775</v>
+        <v>87.81973069401728</v>
       </c>
       <c r="P16" t="n">
         <v>87.48425302749862</v>
@@ -9166,25 +9166,25 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K17" t="n">
-        <v>111.0988064408343</v>
+        <v>105.8056161847214</v>
       </c>
       <c r="L17" t="n">
-        <v>92.35299496713264</v>
+        <v>85.7863243985249</v>
       </c>
       <c r="M17" t="n">
-        <v>63.73351790103578</v>
+        <v>56.42683163149823</v>
       </c>
       <c r="N17" t="n">
-        <v>59.07908959729269</v>
+        <v>51.65417350500871</v>
       </c>
       <c r="O17" t="n">
-        <v>72.2200612653113</v>
+        <v>65.2089235451997</v>
       </c>
       <c r="P17" t="n">
-        <v>104.1545363166676</v>
+        <v>98.17069248095629</v>
       </c>
       <c r="Q17" t="n">
-        <v>137.5801139476182</v>
+        <v>133.0864964302902</v>
       </c>
       <c r="R17" t="n">
         <v>42.58424007769262</v>
@@ -9245,25 +9245,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K18" t="n">
-        <v>61.25115537459055</v>
+        <v>57.65595408036968</v>
       </c>
       <c r="L18" t="n">
-        <v>25.27539361745087</v>
+        <v>20.44120180197424</v>
       </c>
       <c r="M18" t="n">
-        <v>5.64127383456389</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>16.43585092326006</v>
+        <v>11.13860007154486</v>
       </c>
       <c r="P18" t="n">
-        <v>37.01580605976547</v>
+        <v>32.7642952373794</v>
       </c>
       <c r="Q18" t="n">
-        <v>86.2606715564213</v>
+        <v>83.41864916277152</v>
       </c>
       <c r="R18" t="n">
         <v>29.49804203773589</v>
@@ -9327,16 +9327,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L19" t="n">
-        <v>82.03309671786837</v>
+        <v>79.2580209984983</v>
       </c>
       <c r="M19" t="n">
-        <v>82.47714074425393</v>
+        <v>79.55121249250524</v>
       </c>
       <c r="N19" t="n">
-        <v>70.83300696034803</v>
+        <v>67.97665074265473</v>
       </c>
       <c r="O19" t="n">
-        <v>90.45803797570775</v>
+        <v>87.81973069401728</v>
       </c>
       <c r="P19" t="n">
         <v>87.48425302749862</v>
@@ -9403,25 +9403,25 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K20" t="n">
-        <v>111.0988064408343</v>
+        <v>105.8056161847214</v>
       </c>
       <c r="L20" t="n">
-        <v>92.35299496713264</v>
+        <v>85.7863243985249</v>
       </c>
       <c r="M20" t="n">
-        <v>63.73351790103578</v>
+        <v>56.42683163149823</v>
       </c>
       <c r="N20" t="n">
-        <v>59.07908959729269</v>
+        <v>51.65417350500871</v>
       </c>
       <c r="O20" t="n">
-        <v>72.2200612653113</v>
+        <v>65.2089235451997</v>
       </c>
       <c r="P20" t="n">
-        <v>104.1545363166676</v>
+        <v>98.17069248095629</v>
       </c>
       <c r="Q20" t="n">
-        <v>137.5801139476182</v>
+        <v>133.0864964302902</v>
       </c>
       <c r="R20" t="n">
         <v>42.58424007769262</v>
@@ -9482,25 +9482,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K21" t="n">
-        <v>61.25115537459055</v>
+        <v>57.65595408036968</v>
       </c>
       <c r="L21" t="n">
-        <v>25.27539361745087</v>
+        <v>20.44120180197424</v>
       </c>
       <c r="M21" t="n">
-        <v>5.64127383456389</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>16.43585092326006</v>
+        <v>11.13860007154486</v>
       </c>
       <c r="P21" t="n">
-        <v>37.01580605976547</v>
+        <v>32.7642952373794</v>
       </c>
       <c r="Q21" t="n">
-        <v>86.26067155642129</v>
+        <v>83.41864916277152</v>
       </c>
       <c r="R21" t="n">
         <v>29.49804203773589</v>
@@ -9564,16 +9564,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L22" t="n">
-        <v>82.03309671786837</v>
+        <v>79.2580209984983</v>
       </c>
       <c r="M22" t="n">
-        <v>82.47714074425393</v>
+        <v>79.55121249250524</v>
       </c>
       <c r="N22" t="n">
-        <v>70.83300696034803</v>
+        <v>67.97665074265473</v>
       </c>
       <c r="O22" t="n">
-        <v>90.45803797570775</v>
+        <v>87.81973069401728</v>
       </c>
       <c r="P22" t="n">
         <v>87.48425302749862</v>
@@ -9640,25 +9640,25 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K23" t="n">
-        <v>111.0988064408343</v>
+        <v>105.8056161847214</v>
       </c>
       <c r="L23" t="n">
-        <v>92.35299496713264</v>
+        <v>85.7863243985249</v>
       </c>
       <c r="M23" t="n">
-        <v>63.73351790103578</v>
+        <v>56.42683163149823</v>
       </c>
       <c r="N23" t="n">
-        <v>59.07908959729269</v>
+        <v>51.65417350500871</v>
       </c>
       <c r="O23" t="n">
-        <v>72.2200612653113</v>
+        <v>65.2089235451997</v>
       </c>
       <c r="P23" t="n">
-        <v>104.1545363166676</v>
+        <v>98.17069248095629</v>
       </c>
       <c r="Q23" t="n">
-        <v>137.5801139476182</v>
+        <v>133.0864964302902</v>
       </c>
       <c r="R23" t="n">
         <v>42.58424007769262</v>
@@ -9719,25 +9719,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K24" t="n">
-        <v>61.25115537459055</v>
+        <v>57.65595408036968</v>
       </c>
       <c r="L24" t="n">
-        <v>25.27539361745087</v>
+        <v>20.44120180197424</v>
       </c>
       <c r="M24" t="n">
-        <v>5.64127383456389</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>16.43585092326006</v>
+        <v>11.13860007154486</v>
       </c>
       <c r="P24" t="n">
-        <v>37.01580605976547</v>
+        <v>32.7642952373794</v>
       </c>
       <c r="Q24" t="n">
-        <v>86.26067155642129</v>
+        <v>83.41864916277152</v>
       </c>
       <c r="R24" t="n">
         <v>29.49804203773589</v>
@@ -9801,16 +9801,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L25" t="n">
-        <v>82.03309671786837</v>
+        <v>79.2580209984983</v>
       </c>
       <c r="M25" t="n">
-        <v>82.47714074425393</v>
+        <v>79.55121249250524</v>
       </c>
       <c r="N25" t="n">
-        <v>70.83300696034803</v>
+        <v>67.97665074265473</v>
       </c>
       <c r="O25" t="n">
-        <v>90.45803797570775</v>
+        <v>87.81973069401728</v>
       </c>
       <c r="P25" t="n">
         <v>87.48425302749862</v>
@@ -9877,25 +9877,25 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K26" t="n">
-        <v>111.0988064408343</v>
+        <v>105.8056161847214</v>
       </c>
       <c r="L26" t="n">
-        <v>92.35299496713264</v>
+        <v>85.7863243985249</v>
       </c>
       <c r="M26" t="n">
-        <v>63.73351790103578</v>
+        <v>56.42683163149823</v>
       </c>
       <c r="N26" t="n">
-        <v>59.07908959729269</v>
+        <v>51.65417350500871</v>
       </c>
       <c r="O26" t="n">
-        <v>72.2200612653113</v>
+        <v>65.2089235451997</v>
       </c>
       <c r="P26" t="n">
-        <v>104.1545363166676</v>
+        <v>98.17069248095629</v>
       </c>
       <c r="Q26" t="n">
-        <v>137.5801139476182</v>
+        <v>133.0864964302902</v>
       </c>
       <c r="R26" t="n">
         <v>42.58424007769262</v>
@@ -9956,25 +9956,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K27" t="n">
-        <v>61.25115537459055</v>
+        <v>57.65595408036968</v>
       </c>
       <c r="L27" t="n">
-        <v>25.27539361745087</v>
+        <v>20.44120180197424</v>
       </c>
       <c r="M27" t="n">
-        <v>5.64127383456389</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>16.43585092326006</v>
+        <v>11.13860007154486</v>
       </c>
       <c r="P27" t="n">
-        <v>37.01580605976547</v>
+        <v>32.7642952373794</v>
       </c>
       <c r="Q27" t="n">
-        <v>86.26067155642129</v>
+        <v>83.41864916277152</v>
       </c>
       <c r="R27" t="n">
         <v>29.49804203773589</v>
@@ -10038,16 +10038,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L28" t="n">
-        <v>82.03309671786837</v>
+        <v>79.2580209984983</v>
       </c>
       <c r="M28" t="n">
-        <v>82.47714074425393</v>
+        <v>79.55121249250524</v>
       </c>
       <c r="N28" t="n">
-        <v>70.83300696034803</v>
+        <v>67.97665074265473</v>
       </c>
       <c r="O28" t="n">
-        <v>90.45803797570775</v>
+        <v>87.81973069401728</v>
       </c>
       <c r="P28" t="n">
         <v>87.48425302749862</v>
@@ -10114,25 +10114,25 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K29" t="n">
-        <v>111.0988064408343</v>
+        <v>105.8056161847214</v>
       </c>
       <c r="L29" t="n">
-        <v>92.35299496713264</v>
+        <v>85.7863243985249</v>
       </c>
       <c r="M29" t="n">
-        <v>63.73351790103578</v>
+        <v>56.42683163149823</v>
       </c>
       <c r="N29" t="n">
-        <v>59.07908959729269</v>
+        <v>51.65417350500871</v>
       </c>
       <c r="O29" t="n">
-        <v>72.2200612653113</v>
+        <v>65.2089235451997</v>
       </c>
       <c r="P29" t="n">
-        <v>104.1545363166676</v>
+        <v>98.17069248095629</v>
       </c>
       <c r="Q29" t="n">
-        <v>137.5801139476182</v>
+        <v>133.0864964302902</v>
       </c>
       <c r="R29" t="n">
         <v>42.58424007769262</v>
@@ -10193,25 +10193,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K30" t="n">
-        <v>61.25115537459055</v>
+        <v>57.65595408036968</v>
       </c>
       <c r="L30" t="n">
-        <v>25.27539361745087</v>
+        <v>20.44120180197424</v>
       </c>
       <c r="M30" t="n">
-        <v>5.64127383456389</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>16.43585092326006</v>
+        <v>11.13860007154486</v>
       </c>
       <c r="P30" t="n">
-        <v>37.01580605976547</v>
+        <v>32.7642952373794</v>
       </c>
       <c r="Q30" t="n">
-        <v>86.26067155642129</v>
+        <v>83.41864916277152</v>
       </c>
       <c r="R30" t="n">
         <v>29.49804203773589</v>
@@ -10275,16 +10275,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L31" t="n">
-        <v>82.03309671786837</v>
+        <v>79.2580209984983</v>
       </c>
       <c r="M31" t="n">
-        <v>82.47714074425393</v>
+        <v>79.55121249250524</v>
       </c>
       <c r="N31" t="n">
-        <v>70.83300696034803</v>
+        <v>67.97665074265473</v>
       </c>
       <c r="O31" t="n">
-        <v>90.45803797570775</v>
+        <v>87.81973069401728</v>
       </c>
       <c r="P31" t="n">
         <v>87.48425302749862</v>
@@ -10351,25 +10351,25 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K32" t="n">
-        <v>111.0988064408343</v>
+        <v>105.8056161847214</v>
       </c>
       <c r="L32" t="n">
-        <v>92.35299496713264</v>
+        <v>85.7863243985249</v>
       </c>
       <c r="M32" t="n">
-        <v>63.73351790103578</v>
+        <v>56.42683163149823</v>
       </c>
       <c r="N32" t="n">
-        <v>59.07908959729269</v>
+        <v>51.65417350500871</v>
       </c>
       <c r="O32" t="n">
-        <v>72.2200612653113</v>
+        <v>65.2089235451997</v>
       </c>
       <c r="P32" t="n">
-        <v>104.1545363166676</v>
+        <v>98.17069248095629</v>
       </c>
       <c r="Q32" t="n">
-        <v>137.5801139476182</v>
+        <v>133.0864964302902</v>
       </c>
       <c r="R32" t="n">
         <v>42.58424007769262</v>
@@ -10430,25 +10430,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K33" t="n">
-        <v>61.25115537459055</v>
+        <v>57.65595408036968</v>
       </c>
       <c r="L33" t="n">
-        <v>25.27539361745087</v>
+        <v>20.44120180197424</v>
       </c>
       <c r="M33" t="n">
-        <v>5.64127383456389</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>16.43585092326006</v>
+        <v>11.13860007154486</v>
       </c>
       <c r="P33" t="n">
-        <v>37.01580605976547</v>
+        <v>32.7642952373794</v>
       </c>
       <c r="Q33" t="n">
-        <v>86.26067155642129</v>
+        <v>83.41864916277152</v>
       </c>
       <c r="R33" t="n">
         <v>29.49804203773589</v>
@@ -10512,16 +10512,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L34" t="n">
-        <v>82.03309671786837</v>
+        <v>79.2580209984983</v>
       </c>
       <c r="M34" t="n">
-        <v>82.47714074425393</v>
+        <v>79.55121249250524</v>
       </c>
       <c r="N34" t="n">
-        <v>70.83300696034803</v>
+        <v>67.97665074265473</v>
       </c>
       <c r="O34" t="n">
-        <v>90.45803797570775</v>
+        <v>87.81973069401728</v>
       </c>
       <c r="P34" t="n">
         <v>87.48425302749862</v>
@@ -10588,25 +10588,25 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K35" t="n">
-        <v>111.0988064408343</v>
+        <v>105.8056161847214</v>
       </c>
       <c r="L35" t="n">
-        <v>92.35299496713264</v>
+        <v>85.7863243985249</v>
       </c>
       <c r="M35" t="n">
-        <v>63.73351790103578</v>
+        <v>56.42683163149823</v>
       </c>
       <c r="N35" t="n">
-        <v>59.07908959729269</v>
+        <v>51.65417350500871</v>
       </c>
       <c r="O35" t="n">
-        <v>72.2200612653113</v>
+        <v>65.2089235451997</v>
       </c>
       <c r="P35" t="n">
-        <v>104.1545363166676</v>
+        <v>98.17069248095629</v>
       </c>
       <c r="Q35" t="n">
-        <v>137.5801139476182</v>
+        <v>133.0864964302902</v>
       </c>
       <c r="R35" t="n">
         <v>42.58424007769262</v>
@@ -10667,25 +10667,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K36" t="n">
-        <v>61.25115537459055</v>
+        <v>57.65595408036968</v>
       </c>
       <c r="L36" t="n">
-        <v>25.27539361745087</v>
+        <v>20.44120180197424</v>
       </c>
       <c r="M36" t="n">
-        <v>5.64127383456389</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>16.43585092326006</v>
+        <v>11.13860007154486</v>
       </c>
       <c r="P36" t="n">
-        <v>37.01580605976547</v>
+        <v>32.7642952373794</v>
       </c>
       <c r="Q36" t="n">
-        <v>86.26067155642129</v>
+        <v>83.41864916277152</v>
       </c>
       <c r="R36" t="n">
         <v>29.49804203773589</v>
@@ -10749,16 +10749,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L37" t="n">
-        <v>82.03309671786837</v>
+        <v>79.2580209984983</v>
       </c>
       <c r="M37" t="n">
-        <v>82.47714074425393</v>
+        <v>79.55121249250524</v>
       </c>
       <c r="N37" t="n">
-        <v>70.83300696034803</v>
+        <v>67.97665074265473</v>
       </c>
       <c r="O37" t="n">
-        <v>90.45803797570775</v>
+        <v>87.81973069401728</v>
       </c>
       <c r="P37" t="n">
         <v>87.48425302749862</v>
@@ -10825,25 +10825,25 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K38" t="n">
-        <v>111.0988064408343</v>
+        <v>105.8056161847214</v>
       </c>
       <c r="L38" t="n">
-        <v>92.35299496713264</v>
+        <v>85.7863243985249</v>
       </c>
       <c r="M38" t="n">
-        <v>63.73351790103578</v>
+        <v>56.42683163149823</v>
       </c>
       <c r="N38" t="n">
-        <v>59.07908959729269</v>
+        <v>51.65417350500871</v>
       </c>
       <c r="O38" t="n">
-        <v>72.2200612653113</v>
+        <v>65.2089235451997</v>
       </c>
       <c r="P38" t="n">
-        <v>104.1545363166676</v>
+        <v>98.17069248095629</v>
       </c>
       <c r="Q38" t="n">
-        <v>137.5801139476182</v>
+        <v>133.0864964302902</v>
       </c>
       <c r="R38" t="n">
         <v>42.58424007769262</v>
@@ -10904,25 +10904,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K39" t="n">
-        <v>61.25115537459055</v>
+        <v>57.65595408036968</v>
       </c>
       <c r="L39" t="n">
-        <v>25.27539361745087</v>
+        <v>20.44120180197424</v>
       </c>
       <c r="M39" t="n">
-        <v>5.64127383456389</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>16.43585092326006</v>
+        <v>11.13860007154486</v>
       </c>
       <c r="P39" t="n">
-        <v>37.01580605976547</v>
+        <v>32.7642952373794</v>
       </c>
       <c r="Q39" t="n">
-        <v>86.26067155642129</v>
+        <v>83.41864916277152</v>
       </c>
       <c r="R39" t="n">
         <v>29.49804203773589</v>
@@ -10986,16 +10986,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L40" t="n">
-        <v>82.03309671786837</v>
+        <v>79.2580209984983</v>
       </c>
       <c r="M40" t="n">
-        <v>82.47714074425393</v>
+        <v>79.55121249250524</v>
       </c>
       <c r="N40" t="n">
-        <v>70.83300696034803</v>
+        <v>67.97665074265473</v>
       </c>
       <c r="O40" t="n">
-        <v>90.45803797570775</v>
+        <v>87.81973069401728</v>
       </c>
       <c r="P40" t="n">
         <v>87.48425302749862</v>
@@ -11062,25 +11062,25 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K41" t="n">
-        <v>111.0988064408343</v>
+        <v>105.8056161847214</v>
       </c>
       <c r="L41" t="n">
-        <v>92.35299496713264</v>
+        <v>85.7863243985249</v>
       </c>
       <c r="M41" t="n">
-        <v>63.73351790103578</v>
+        <v>56.42683163149823</v>
       </c>
       <c r="N41" t="n">
-        <v>59.07908959729269</v>
+        <v>51.65417350500871</v>
       </c>
       <c r="O41" t="n">
-        <v>72.2200612653113</v>
+        <v>65.2089235451997</v>
       </c>
       <c r="P41" t="n">
-        <v>104.1545363166676</v>
+        <v>98.17069248095629</v>
       </c>
       <c r="Q41" t="n">
-        <v>137.5801139476182</v>
+        <v>133.0864964302902</v>
       </c>
       <c r="R41" t="n">
         <v>42.58424007769262</v>
@@ -11141,25 +11141,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K42" t="n">
-        <v>61.25115537459055</v>
+        <v>57.65595408036968</v>
       </c>
       <c r="L42" t="n">
-        <v>25.27539361745087</v>
+        <v>20.44120180197424</v>
       </c>
       <c r="M42" t="n">
-        <v>5.64127383456389</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>16.43585092326006</v>
+        <v>11.13860007154486</v>
       </c>
       <c r="P42" t="n">
-        <v>37.01580605976547</v>
+        <v>32.7642952373794</v>
       </c>
       <c r="Q42" t="n">
-        <v>86.26067155642129</v>
+        <v>83.41864916277152</v>
       </c>
       <c r="R42" t="n">
         <v>29.49804203773589</v>
@@ -11223,16 +11223,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L43" t="n">
-        <v>82.03309671786837</v>
+        <v>79.2580209984983</v>
       </c>
       <c r="M43" t="n">
-        <v>82.47714074425393</v>
+        <v>79.55121249250524</v>
       </c>
       <c r="N43" t="n">
-        <v>70.83300696034803</v>
+        <v>67.97665074265473</v>
       </c>
       <c r="O43" t="n">
-        <v>90.45803797570775</v>
+        <v>87.81973069401728</v>
       </c>
       <c r="P43" t="n">
         <v>87.48425302749862</v>
@@ -11296,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>104.889258789408</v>
+        <v>109.5746066315038</v>
       </c>
       <c r="K44" t="n">
-        <v>94.6755543817487</v>
+        <v>105.8056161847214</v>
       </c>
       <c r="L44" t="n">
-        <v>71.97849854454964</v>
+        <v>85.7863243985249</v>
       </c>
       <c r="M44" t="n">
-        <v>41.06296488573625</v>
+        <v>56.42683163149823</v>
       </c>
       <c r="N44" t="n">
-        <v>36.04170333287215</v>
+        <v>51.65417350500871</v>
       </c>
       <c r="O44" t="n">
-        <v>50.46651067918273</v>
+        <v>65.2089235451997</v>
       </c>
       <c r="P44" t="n">
-        <v>85.58838417758693</v>
+        <v>98.17069248095629</v>
       </c>
       <c r="Q44" t="n">
-        <v>123.6377068975464</v>
+        <v>133.0864964302902</v>
       </c>
       <c r="R44" t="n">
         <v>42.58424007769262</v>
@@ -11378,10 +11378,10 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K45" t="n">
-        <v>50.09627633166346</v>
+        <v>57.65595408036968</v>
       </c>
       <c r="L45" t="n">
-        <v>10.27628214666007</v>
+        <v>20.44120180197424</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11390,13 +11390,13 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>11.13860007154486</v>
       </c>
       <c r="P45" t="n">
-        <v>23.82458668363597</v>
+        <v>32.7642952373794</v>
       </c>
       <c r="Q45" t="n">
-        <v>77.442690741435</v>
+        <v>83.41864916277152</v>
       </c>
       <c r="R45" t="n">
         <v>29.49804203773589</v>
@@ -11460,16 +11460,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L46" t="n">
-        <v>73.42283224274789</v>
+        <v>79.2580209984983</v>
       </c>
       <c r="M46" t="n">
-        <v>73.3988241034014</v>
+        <v>79.55121249250524</v>
       </c>
       <c r="N46" t="n">
-        <v>61.97055239817956</v>
+        <v>67.97665074265473</v>
       </c>
       <c r="O46" t="n">
-        <v>82.27212675770768</v>
+        <v>87.81973069401728</v>
       </c>
       <c r="P46" t="n">
         <v>87.48425302749862</v>
@@ -23272,16 +23272,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G11" t="n">
-        <v>418.0074221942822</v>
+        <v>417.9658102901039</v>
       </c>
       <c r="H11" t="n">
-        <v>338.5134723020187</v>
+        <v>338.0873143883533</v>
       </c>
       <c r="I11" t="n">
-        <v>208.9822502180322</v>
+        <v>207.3780072822006</v>
       </c>
       <c r="J11" t="n">
-        <v>6.272685937960304</v>
+        <v>2.740927585712328</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23305,16 +23305,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>142.6968974289739</v>
+        <v>140.0829936531375</v>
       </c>
       <c r="S11" t="n">
-        <v>208.5862614242999</v>
+        <v>207.6380301578382</v>
       </c>
       <c r="T11" t="n">
-        <v>218.8292699112955</v>
+        <v>218.6471138007553</v>
       </c>
       <c r="U11" t="n">
-        <v>250.0840814311804</v>
+        <v>250.0807524788462</v>
       </c>
       <c r="V11" t="n">
         <v>320.879783609152</v>
@@ -23351,16 +23351,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G12" t="n">
-        <v>148.3001136271938</v>
+        <v>148.2778492956328</v>
       </c>
       <c r="H12" t="n">
-        <v>121.4426787697765</v>
+        <v>121.2276521991739</v>
       </c>
       <c r="I12" t="n">
-        <v>92.05966844771967</v>
+        <v>91.29311141809657</v>
       </c>
       <c r="J12" t="n">
-        <v>10.48053290778771</v>
+        <v>8.377041828155711</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23384,16 +23384,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>107.1223778230184</v>
+        <v>105.7400362546942</v>
       </c>
       <c r="S12" t="n">
-        <v>183.3345687810625</v>
+        <v>182.9210185873741</v>
       </c>
       <c r="T12" t="n">
-        <v>213.1793135669336</v>
+        <v>213.0895726866503</v>
       </c>
       <c r="U12" t="n">
-        <v>237.1988266779785</v>
+        <v>237.1973619193232</v>
       </c>
       <c r="V12" t="n">
         <v>240.6489209154022</v>
@@ -23430,19 +23430,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G13" t="n">
-        <v>168.3281287320799</v>
+        <v>168.3094630644065</v>
       </c>
       <c r="H13" t="n">
-        <v>162.5112342112035</v>
+        <v>162.3452794567983</v>
       </c>
       <c r="I13" t="n">
-        <v>153.6464806743293</v>
+        <v>153.0851531410239</v>
       </c>
       <c r="J13" t="n">
-        <v>93.89352159128109</v>
+        <v>92.57385888677204</v>
       </c>
       <c r="K13" t="n">
-        <v>23.73526765712697</v>
+        <v>21.56665644925431</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23457,22 +23457,22 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>13.40873545256763</v>
+        <v>11.15120779141444</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.01294866538856</v>
+        <v>94.44995352957361</v>
       </c>
       <c r="R13" t="n">
-        <v>186.6744331481002</v>
+        <v>185.8351568543492</v>
       </c>
       <c r="S13" t="n">
-        <v>228.9438374938711</v>
+        <v>228.6185458126902</v>
       </c>
       <c r="T13" t="n">
-        <v>222.1693428895585</v>
+        <v>222.0895895822268</v>
       </c>
       <c r="U13" t="n">
-        <v>288.6362308124707</v>
+        <v>288.6352126851431</v>
       </c>
       <c r="V13" t="n">
         <v>245.1090151844499</v>
@@ -23509,16 +23509,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G14" t="n">
-        <v>418.0074221942822</v>
+        <v>417.9658102901039</v>
       </c>
       <c r="H14" t="n">
-        <v>338.5134723020187</v>
+        <v>338.0873143883533</v>
       </c>
       <c r="I14" t="n">
-        <v>208.9822502180322</v>
+        <v>207.3780072822006</v>
       </c>
       <c r="J14" t="n">
-        <v>6.272685937960304</v>
+        <v>2.740927585712328</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23542,16 +23542,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>142.6968974289739</v>
+        <v>140.0829936531375</v>
       </c>
       <c r="S14" t="n">
-        <v>208.5862614242999</v>
+        <v>207.6380301578382</v>
       </c>
       <c r="T14" t="n">
-        <v>218.8292699112955</v>
+        <v>218.6471138007553</v>
       </c>
       <c r="U14" t="n">
-        <v>250.0840814311804</v>
+        <v>250.0807524788462</v>
       </c>
       <c r="V14" t="n">
         <v>320.879783609152</v>
@@ -23588,16 +23588,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G15" t="n">
-        <v>148.3001136271938</v>
+        <v>148.2778492956328</v>
       </c>
       <c r="H15" t="n">
-        <v>121.4426787697765</v>
+        <v>121.2276521991739</v>
       </c>
       <c r="I15" t="n">
-        <v>92.05966844771967</v>
+        <v>91.29311141809657</v>
       </c>
       <c r="J15" t="n">
-        <v>10.48053290778771</v>
+        <v>8.377041828155711</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23621,16 +23621,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>107.1223778230184</v>
+        <v>105.7400362546942</v>
       </c>
       <c r="S15" t="n">
-        <v>183.3345687810625</v>
+        <v>182.9210185873741</v>
       </c>
       <c r="T15" t="n">
-        <v>213.1793135669336</v>
+        <v>213.0895726866503</v>
       </c>
       <c r="U15" t="n">
-        <v>237.1988266779785</v>
+        <v>237.1973619193232</v>
       </c>
       <c r="V15" t="n">
         <v>240.6489209154022</v>
@@ -23667,19 +23667,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G16" t="n">
-        <v>168.3281287320799</v>
+        <v>168.3094630644065</v>
       </c>
       <c r="H16" t="n">
-        <v>162.5112342112035</v>
+        <v>162.3452794567983</v>
       </c>
       <c r="I16" t="n">
-        <v>153.6464806743293</v>
+        <v>153.0851531410239</v>
       </c>
       <c r="J16" t="n">
-        <v>93.89352159128109</v>
+        <v>92.57385888677204</v>
       </c>
       <c r="K16" t="n">
-        <v>23.73526765712697</v>
+        <v>21.56665644925431</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23694,22 +23694,22 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>13.40873545256764</v>
+        <v>11.15120779141444</v>
       </c>
       <c r="Q16" t="n">
-        <v>96.01294866538856</v>
+        <v>94.44995352957361</v>
       </c>
       <c r="R16" t="n">
-        <v>186.6744331481002</v>
+        <v>185.8351568543492</v>
       </c>
       <c r="S16" t="n">
-        <v>228.9438374938711</v>
+        <v>228.6185458126902</v>
       </c>
       <c r="T16" t="n">
-        <v>222.1693428895585</v>
+        <v>222.0895895822268</v>
       </c>
       <c r="U16" t="n">
-        <v>288.6362308124707</v>
+        <v>288.6352126851431</v>
       </c>
       <c r="V16" t="n">
         <v>245.1090151844499</v>
@@ -23746,16 +23746,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G17" t="n">
-        <v>418.0074221942822</v>
+        <v>417.9658102901039</v>
       </c>
       <c r="H17" t="n">
-        <v>338.5134723020187</v>
+        <v>338.0873143883533</v>
       </c>
       <c r="I17" t="n">
-        <v>208.9822502180322</v>
+        <v>207.3780072822006</v>
       </c>
       <c r="J17" t="n">
-        <v>6.272685937960304</v>
+        <v>2.740927585712328</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23779,16 +23779,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>142.6968974289739</v>
+        <v>140.0829936531375</v>
       </c>
       <c r="S17" t="n">
-        <v>208.5862614242999</v>
+        <v>207.6380301578382</v>
       </c>
       <c r="T17" t="n">
-        <v>218.8292699112955</v>
+        <v>218.6471138007553</v>
       </c>
       <c r="U17" t="n">
-        <v>250.0840814311804</v>
+        <v>250.0807524788462</v>
       </c>
       <c r="V17" t="n">
         <v>320.879783609152</v>
@@ -23825,16 +23825,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
-        <v>148.3001136271938</v>
+        <v>148.2778492956328</v>
       </c>
       <c r="H18" t="n">
-        <v>121.4426787697765</v>
+        <v>121.2276521991739</v>
       </c>
       <c r="I18" t="n">
-        <v>92.05966844771967</v>
+        <v>91.29311141809657</v>
       </c>
       <c r="J18" t="n">
-        <v>10.48053290778771</v>
+        <v>8.377041828155711</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23858,16 +23858,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>107.1223778230184</v>
+        <v>105.7400362546942</v>
       </c>
       <c r="S18" t="n">
-        <v>183.3345687810625</v>
+        <v>182.9210185873741</v>
       </c>
       <c r="T18" t="n">
-        <v>213.1793135669336</v>
+        <v>213.0895726866503</v>
       </c>
       <c r="U18" t="n">
-        <v>237.1988266779785</v>
+        <v>237.1973619193232</v>
       </c>
       <c r="V18" t="n">
         <v>240.6489209154022</v>
@@ -23904,19 +23904,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G19" t="n">
-        <v>168.3281287320799</v>
+        <v>168.3094630644065</v>
       </c>
       <c r="H19" t="n">
-        <v>162.5112342112035</v>
+        <v>162.3452794567983</v>
       </c>
       <c r="I19" t="n">
-        <v>153.6464806743293</v>
+        <v>153.0851531410239</v>
       </c>
       <c r="J19" t="n">
-        <v>93.89352159128109</v>
+        <v>92.57385888677204</v>
       </c>
       <c r="K19" t="n">
-        <v>23.73526765712697</v>
+        <v>21.56665644925431</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -23931,22 +23931,22 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>13.40873545256763</v>
+        <v>11.15120779141444</v>
       </c>
       <c r="Q19" t="n">
-        <v>96.01294866538856</v>
+        <v>94.44995352957361</v>
       </c>
       <c r="R19" t="n">
-        <v>186.6744331481002</v>
+        <v>185.8351568543492</v>
       </c>
       <c r="S19" t="n">
-        <v>228.9438374938711</v>
+        <v>228.6185458126902</v>
       </c>
       <c r="T19" t="n">
-        <v>222.1693428895585</v>
+        <v>222.0895895822268</v>
       </c>
       <c r="U19" t="n">
-        <v>288.6362308124707</v>
+        <v>288.6352126851431</v>
       </c>
       <c r="V19" t="n">
         <v>245.1090151844499</v>
@@ -23983,16 +23983,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G20" t="n">
-        <v>418.0074221942822</v>
+        <v>417.9658102901039</v>
       </c>
       <c r="H20" t="n">
-        <v>338.5134723020187</v>
+        <v>338.0873143883533</v>
       </c>
       <c r="I20" t="n">
-        <v>208.9822502180322</v>
+        <v>207.3780072822006</v>
       </c>
       <c r="J20" t="n">
-        <v>6.272685937960304</v>
+        <v>2.740927585712328</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24016,16 +24016,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>142.6968974289739</v>
+        <v>140.0829936531375</v>
       </c>
       <c r="S20" t="n">
-        <v>208.5862614242999</v>
+        <v>207.6380301578382</v>
       </c>
       <c r="T20" t="n">
-        <v>218.8292699112955</v>
+        <v>218.6471138007553</v>
       </c>
       <c r="U20" t="n">
-        <v>250.0840814311804</v>
+        <v>250.0807524788462</v>
       </c>
       <c r="V20" t="n">
         <v>320.879783609152</v>
@@ -24062,16 +24062,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
-        <v>148.3001136271938</v>
+        <v>148.2778492956328</v>
       </c>
       <c r="H21" t="n">
-        <v>121.4426787697765</v>
+        <v>121.2276521991739</v>
       </c>
       <c r="I21" t="n">
-        <v>92.05966844771967</v>
+        <v>91.29311141809657</v>
       </c>
       <c r="J21" t="n">
-        <v>10.48053290778771</v>
+        <v>8.377041828155711</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24095,16 +24095,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>107.1223778230184</v>
+        <v>105.7400362546942</v>
       </c>
       <c r="S21" t="n">
-        <v>183.3345687810625</v>
+        <v>182.9210185873741</v>
       </c>
       <c r="T21" t="n">
-        <v>213.1793135669336</v>
+        <v>213.0895726866503</v>
       </c>
       <c r="U21" t="n">
-        <v>237.1988266779785</v>
+        <v>237.1973619193232</v>
       </c>
       <c r="V21" t="n">
         <v>240.6489209154022</v>
@@ -24141,19 +24141,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G22" t="n">
-        <v>168.3281287320799</v>
+        <v>168.3094630644065</v>
       </c>
       <c r="H22" t="n">
-        <v>162.5112342112035</v>
+        <v>162.3452794567983</v>
       </c>
       <c r="I22" t="n">
-        <v>153.6464806743293</v>
+        <v>153.0851531410239</v>
       </c>
       <c r="J22" t="n">
-        <v>93.89352159128109</v>
+        <v>92.57385888677204</v>
       </c>
       <c r="K22" t="n">
-        <v>23.73526765712697</v>
+        <v>21.56665644925431</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -24168,22 +24168,22 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>13.40873545256764</v>
+        <v>11.15120779141444</v>
       </c>
       <c r="Q22" t="n">
-        <v>96.01294866538856</v>
+        <v>94.44995352957361</v>
       </c>
       <c r="R22" t="n">
-        <v>186.6744331481002</v>
+        <v>185.8351568543492</v>
       </c>
       <c r="S22" t="n">
-        <v>228.9438374938711</v>
+        <v>228.6185458126902</v>
       </c>
       <c r="T22" t="n">
-        <v>222.1693428895585</v>
+        <v>222.0895895822268</v>
       </c>
       <c r="U22" t="n">
-        <v>288.6362308124707</v>
+        <v>288.6352126851431</v>
       </c>
       <c r="V22" t="n">
         <v>245.1090151844499</v>
@@ -24220,16 +24220,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G23" t="n">
-        <v>418.0074221942822</v>
+        <v>417.9658102901039</v>
       </c>
       <c r="H23" t="n">
-        <v>338.5134723020187</v>
+        <v>338.0873143883533</v>
       </c>
       <c r="I23" t="n">
-        <v>208.9822502180322</v>
+        <v>207.3780072822006</v>
       </c>
       <c r="J23" t="n">
-        <v>6.272685937960304</v>
+        <v>2.740927585712328</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24253,16 +24253,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>142.6968974289739</v>
+        <v>140.0829936531375</v>
       </c>
       <c r="S23" t="n">
-        <v>208.5862614242999</v>
+        <v>207.6380301578382</v>
       </c>
       <c r="T23" t="n">
-        <v>218.8292699112955</v>
+        <v>218.6471138007553</v>
       </c>
       <c r="U23" t="n">
-        <v>250.0840814311804</v>
+        <v>250.0807524788462</v>
       </c>
       <c r="V23" t="n">
         <v>320.879783609152</v>
@@ -24299,16 +24299,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
-        <v>148.3001136271938</v>
+        <v>148.2778492956328</v>
       </c>
       <c r="H24" t="n">
-        <v>121.4426787697765</v>
+        <v>121.2276521991739</v>
       </c>
       <c r="I24" t="n">
-        <v>92.05966844771967</v>
+        <v>91.29311141809657</v>
       </c>
       <c r="J24" t="n">
-        <v>10.48053290778771</v>
+        <v>8.377041828155711</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24332,16 +24332,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>107.1223778230184</v>
+        <v>105.7400362546942</v>
       </c>
       <c r="S24" t="n">
-        <v>183.3345687810625</v>
+        <v>182.9210185873741</v>
       </c>
       <c r="T24" t="n">
-        <v>213.1793135669336</v>
+        <v>213.0895726866503</v>
       </c>
       <c r="U24" t="n">
-        <v>237.1988266779785</v>
+        <v>237.1973619193232</v>
       </c>
       <c r="V24" t="n">
         <v>240.6489209154022</v>
@@ -24378,19 +24378,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G25" t="n">
-        <v>168.3281287320799</v>
+        <v>168.3094630644065</v>
       </c>
       <c r="H25" t="n">
-        <v>162.5112342112035</v>
+        <v>162.3452794567983</v>
       </c>
       <c r="I25" t="n">
-        <v>153.6464806743293</v>
+        <v>153.0851531410239</v>
       </c>
       <c r="J25" t="n">
-        <v>93.89352159128109</v>
+        <v>92.57385888677204</v>
       </c>
       <c r="K25" t="n">
-        <v>23.73526765712697</v>
+        <v>21.56665644925431</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -24405,22 +24405,22 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>13.40873545256764</v>
+        <v>11.15120779141444</v>
       </c>
       <c r="Q25" t="n">
-        <v>96.01294866538856</v>
+        <v>94.44995352957361</v>
       </c>
       <c r="R25" t="n">
-        <v>186.6744331481002</v>
+        <v>185.8351568543492</v>
       </c>
       <c r="S25" t="n">
-        <v>228.9438374938711</v>
+        <v>228.6185458126902</v>
       </c>
       <c r="T25" t="n">
-        <v>222.1693428895585</v>
+        <v>222.0895895822268</v>
       </c>
       <c r="U25" t="n">
-        <v>288.6362308124707</v>
+        <v>288.6352126851431</v>
       </c>
       <c r="V25" t="n">
         <v>245.1090151844499</v>
@@ -24457,16 +24457,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G26" t="n">
-        <v>418.0074221942822</v>
+        <v>417.9658102901039</v>
       </c>
       <c r="H26" t="n">
-        <v>338.5134723020187</v>
+        <v>338.0873143883533</v>
       </c>
       <c r="I26" t="n">
-        <v>208.9822502180322</v>
+        <v>207.3780072822006</v>
       </c>
       <c r="J26" t="n">
-        <v>6.272685937960304</v>
+        <v>2.740927585712328</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24490,16 +24490,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>142.6968974289739</v>
+        <v>140.0829936531375</v>
       </c>
       <c r="S26" t="n">
-        <v>208.5862614242999</v>
+        <v>207.6380301578382</v>
       </c>
       <c r="T26" t="n">
-        <v>218.8292699112955</v>
+        <v>218.6471138007553</v>
       </c>
       <c r="U26" t="n">
-        <v>250.0840814311804</v>
+        <v>250.0807524788462</v>
       </c>
       <c r="V26" t="n">
         <v>320.879783609152</v>
@@ -24536,16 +24536,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
-        <v>148.3001136271938</v>
+        <v>148.2778492956328</v>
       </c>
       <c r="H27" t="n">
-        <v>121.4426787697765</v>
+        <v>121.2276521991739</v>
       </c>
       <c r="I27" t="n">
-        <v>92.05966844771967</v>
+        <v>91.29311141809657</v>
       </c>
       <c r="J27" t="n">
-        <v>10.48053290778771</v>
+        <v>8.377041828155711</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24569,16 +24569,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>107.1223778230184</v>
+        <v>105.7400362546942</v>
       </c>
       <c r="S27" t="n">
-        <v>183.3345687810625</v>
+        <v>182.9210185873741</v>
       </c>
       <c r="T27" t="n">
-        <v>213.1793135669336</v>
+        <v>213.0895726866503</v>
       </c>
       <c r="U27" t="n">
-        <v>237.1988266779785</v>
+        <v>237.1973619193232</v>
       </c>
       <c r="V27" t="n">
         <v>240.6489209154022</v>
@@ -24615,19 +24615,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G28" t="n">
-        <v>168.3281287320799</v>
+        <v>168.3094630644065</v>
       </c>
       <c r="H28" t="n">
-        <v>162.5112342112035</v>
+        <v>162.3452794567983</v>
       </c>
       <c r="I28" t="n">
-        <v>153.6464806743293</v>
+        <v>153.0851531410239</v>
       </c>
       <c r="J28" t="n">
-        <v>93.89352159128109</v>
+        <v>92.57385888677204</v>
       </c>
       <c r="K28" t="n">
-        <v>23.73526765712697</v>
+        <v>21.56665644925431</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -24642,22 +24642,22 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>13.40873545256764</v>
+        <v>11.15120779141444</v>
       </c>
       <c r="Q28" t="n">
-        <v>96.01294866538856</v>
+        <v>94.44995352957361</v>
       </c>
       <c r="R28" t="n">
-        <v>186.6744331481002</v>
+        <v>185.8351568543492</v>
       </c>
       <c r="S28" t="n">
-        <v>228.9438374938711</v>
+        <v>228.6185458126902</v>
       </c>
       <c r="T28" t="n">
-        <v>222.1693428895585</v>
+        <v>222.0895895822268</v>
       </c>
       <c r="U28" t="n">
-        <v>288.6362308124707</v>
+        <v>288.6352126851431</v>
       </c>
       <c r="V28" t="n">
         <v>245.1090151844499</v>
@@ -24694,16 +24694,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G29" t="n">
-        <v>418.0074221942822</v>
+        <v>417.9658102901039</v>
       </c>
       <c r="H29" t="n">
-        <v>338.5134723020187</v>
+        <v>338.0873143883533</v>
       </c>
       <c r="I29" t="n">
-        <v>208.9822502180322</v>
+        <v>207.3780072822006</v>
       </c>
       <c r="J29" t="n">
-        <v>6.272685937960304</v>
+        <v>2.740927585712328</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24727,16 +24727,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>142.6968974289739</v>
+        <v>140.0829936531375</v>
       </c>
       <c r="S29" t="n">
-        <v>208.5862614242999</v>
+        <v>207.6380301578382</v>
       </c>
       <c r="T29" t="n">
-        <v>218.8292699112955</v>
+        <v>218.6471138007553</v>
       </c>
       <c r="U29" t="n">
-        <v>250.0840814311804</v>
+        <v>250.0807524788462</v>
       </c>
       <c r="V29" t="n">
         <v>320.879783609152</v>
@@ -24773,16 +24773,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
-        <v>148.3001136271938</v>
+        <v>148.2778492956328</v>
       </c>
       <c r="H30" t="n">
-        <v>121.4426787697765</v>
+        <v>121.2276521991739</v>
       </c>
       <c r="I30" t="n">
-        <v>92.05966844771967</v>
+        <v>91.29311141809657</v>
       </c>
       <c r="J30" t="n">
-        <v>10.48053290778771</v>
+        <v>8.377041828155711</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24806,16 +24806,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>107.1223778230184</v>
+        <v>105.7400362546942</v>
       </c>
       <c r="S30" t="n">
-        <v>183.3345687810625</v>
+        <v>182.9210185873741</v>
       </c>
       <c r="T30" t="n">
-        <v>213.1793135669336</v>
+        <v>213.0895726866503</v>
       </c>
       <c r="U30" t="n">
-        <v>237.1988266779785</v>
+        <v>237.1973619193232</v>
       </c>
       <c r="V30" t="n">
         <v>240.6489209154022</v>
@@ -24852,19 +24852,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G31" t="n">
-        <v>168.3281287320799</v>
+        <v>168.3094630644065</v>
       </c>
       <c r="H31" t="n">
-        <v>162.5112342112035</v>
+        <v>162.3452794567983</v>
       </c>
       <c r="I31" t="n">
-        <v>153.6464806743293</v>
+        <v>153.0851531410239</v>
       </c>
       <c r="J31" t="n">
-        <v>93.89352159128109</v>
+        <v>92.57385888677204</v>
       </c>
       <c r="K31" t="n">
-        <v>23.73526765712697</v>
+        <v>21.56665644925431</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -24879,22 +24879,22 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>13.40873545256764</v>
+        <v>11.15120779141444</v>
       </c>
       <c r="Q31" t="n">
-        <v>96.01294866538856</v>
+        <v>94.44995352957361</v>
       </c>
       <c r="R31" t="n">
-        <v>186.6744331481002</v>
+        <v>185.8351568543492</v>
       </c>
       <c r="S31" t="n">
-        <v>228.9438374938711</v>
+        <v>228.6185458126902</v>
       </c>
       <c r="T31" t="n">
-        <v>222.1693428895585</v>
+        <v>222.0895895822268</v>
       </c>
       <c r="U31" t="n">
-        <v>288.6362308124707</v>
+        <v>288.6352126851431</v>
       </c>
       <c r="V31" t="n">
         <v>245.1090151844499</v>
@@ -24931,16 +24931,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G32" t="n">
-        <v>418.0074221942822</v>
+        <v>417.9658102901039</v>
       </c>
       <c r="H32" t="n">
-        <v>338.5134723020187</v>
+        <v>338.0873143883533</v>
       </c>
       <c r="I32" t="n">
-        <v>208.9822502180322</v>
+        <v>207.3780072822006</v>
       </c>
       <c r="J32" t="n">
-        <v>6.272685937960304</v>
+        <v>2.740927585712328</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24964,16 +24964,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>142.6968974289739</v>
+        <v>140.0829936531375</v>
       </c>
       <c r="S32" t="n">
-        <v>208.5862614242999</v>
+        <v>207.6380301578382</v>
       </c>
       <c r="T32" t="n">
-        <v>218.8292699112955</v>
+        <v>218.6471138007553</v>
       </c>
       <c r="U32" t="n">
-        <v>250.0840814311804</v>
+        <v>250.0807524788462</v>
       </c>
       <c r="V32" t="n">
         <v>320.879783609152</v>
@@ -25010,16 +25010,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
-        <v>148.3001136271938</v>
+        <v>148.2778492956328</v>
       </c>
       <c r="H33" t="n">
-        <v>121.4426787697765</v>
+        <v>121.2276521991739</v>
       </c>
       <c r="I33" t="n">
-        <v>92.05966844771967</v>
+        <v>91.29311141809657</v>
       </c>
       <c r="J33" t="n">
-        <v>10.48053290778771</v>
+        <v>8.377041828155711</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25043,16 +25043,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>107.1223778230184</v>
+        <v>105.7400362546942</v>
       </c>
       <c r="S33" t="n">
-        <v>183.3345687810625</v>
+        <v>182.9210185873741</v>
       </c>
       <c r="T33" t="n">
-        <v>213.1793135669336</v>
+        <v>213.0895726866503</v>
       </c>
       <c r="U33" t="n">
-        <v>237.1988266779785</v>
+        <v>237.1973619193232</v>
       </c>
       <c r="V33" t="n">
         <v>240.6489209154022</v>
@@ -25089,19 +25089,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G34" t="n">
-        <v>168.3281287320799</v>
+        <v>168.3094630644065</v>
       </c>
       <c r="H34" t="n">
-        <v>162.5112342112035</v>
+        <v>162.3452794567983</v>
       </c>
       <c r="I34" t="n">
-        <v>153.6464806743293</v>
+        <v>153.0851531410239</v>
       </c>
       <c r="J34" t="n">
-        <v>93.89352159128109</v>
+        <v>92.57385888677204</v>
       </c>
       <c r="K34" t="n">
-        <v>23.73526765712697</v>
+        <v>21.56665644925431</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -25116,22 +25116,22 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>13.40873545256764</v>
+        <v>11.15120779141444</v>
       </c>
       <c r="Q34" t="n">
-        <v>96.01294866538856</v>
+        <v>94.44995352957361</v>
       </c>
       <c r="R34" t="n">
-        <v>186.6744331481002</v>
+        <v>185.8351568543492</v>
       </c>
       <c r="S34" t="n">
-        <v>228.9438374938711</v>
+        <v>228.6185458126902</v>
       </c>
       <c r="T34" t="n">
-        <v>222.1693428895585</v>
+        <v>222.0895895822268</v>
       </c>
       <c r="U34" t="n">
-        <v>288.6362308124707</v>
+        <v>288.6352126851431</v>
       </c>
       <c r="V34" t="n">
         <v>245.1090151844499</v>
@@ -25168,16 +25168,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G35" t="n">
-        <v>418.0074221942822</v>
+        <v>417.9658102901039</v>
       </c>
       <c r="H35" t="n">
-        <v>338.5134723020187</v>
+        <v>338.0873143883533</v>
       </c>
       <c r="I35" t="n">
-        <v>208.9822502180322</v>
+        <v>207.3780072822006</v>
       </c>
       <c r="J35" t="n">
-        <v>6.272685937960304</v>
+        <v>2.740927585712328</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25201,16 +25201,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>142.6968974289739</v>
+        <v>140.0829936531375</v>
       </c>
       <c r="S35" t="n">
-        <v>208.5862614242999</v>
+        <v>207.6380301578382</v>
       </c>
       <c r="T35" t="n">
-        <v>218.8292699112955</v>
+        <v>218.6471138007553</v>
       </c>
       <c r="U35" t="n">
-        <v>250.0840814311804</v>
+        <v>250.0807524788462</v>
       </c>
       <c r="V35" t="n">
         <v>320.879783609152</v>
@@ -25247,16 +25247,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
-        <v>148.3001136271938</v>
+        <v>148.2778492956328</v>
       </c>
       <c r="H36" t="n">
-        <v>121.4426787697765</v>
+        <v>121.2276521991739</v>
       </c>
       <c r="I36" t="n">
-        <v>92.05966844771967</v>
+        <v>91.29311141809657</v>
       </c>
       <c r="J36" t="n">
-        <v>10.48053290778771</v>
+        <v>8.377041828155711</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25280,16 +25280,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>107.1223778230184</v>
+        <v>105.7400362546942</v>
       </c>
       <c r="S36" t="n">
-        <v>183.3345687810625</v>
+        <v>182.9210185873741</v>
       </c>
       <c r="T36" t="n">
-        <v>213.1793135669336</v>
+        <v>213.0895726866503</v>
       </c>
       <c r="U36" t="n">
-        <v>237.1988266779785</v>
+        <v>237.1973619193232</v>
       </c>
       <c r="V36" t="n">
         <v>240.6489209154022</v>
@@ -25326,19 +25326,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G37" t="n">
-        <v>168.3281287320799</v>
+        <v>168.3094630644065</v>
       </c>
       <c r="H37" t="n">
-        <v>162.5112342112035</v>
+        <v>162.3452794567983</v>
       </c>
       <c r="I37" t="n">
-        <v>153.6464806743293</v>
+        <v>153.0851531410239</v>
       </c>
       <c r="J37" t="n">
-        <v>93.89352159128109</v>
+        <v>92.57385888677204</v>
       </c>
       <c r="K37" t="n">
-        <v>23.73526765712697</v>
+        <v>21.56665644925431</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -25353,22 +25353,22 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>13.40873545256764</v>
+        <v>11.15120779141444</v>
       </c>
       <c r="Q37" t="n">
-        <v>96.01294866538856</v>
+        <v>94.44995352957361</v>
       </c>
       <c r="R37" t="n">
-        <v>186.6744331481002</v>
+        <v>185.8351568543492</v>
       </c>
       <c r="S37" t="n">
-        <v>228.9438374938711</v>
+        <v>228.6185458126902</v>
       </c>
       <c r="T37" t="n">
-        <v>222.1693428895585</v>
+        <v>222.0895895822268</v>
       </c>
       <c r="U37" t="n">
-        <v>288.6362308124707</v>
+        <v>288.6352126851431</v>
       </c>
       <c r="V37" t="n">
         <v>245.1090151844499</v>
@@ -25405,16 +25405,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G38" t="n">
-        <v>418.0074221942822</v>
+        <v>417.9658102901039</v>
       </c>
       <c r="H38" t="n">
-        <v>338.5134723020187</v>
+        <v>338.0873143883533</v>
       </c>
       <c r="I38" t="n">
-        <v>208.9822502180322</v>
+        <v>207.3780072822006</v>
       </c>
       <c r="J38" t="n">
-        <v>6.272685937960304</v>
+        <v>2.740927585712328</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25438,16 +25438,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>142.6968974289739</v>
+        <v>140.0829936531375</v>
       </c>
       <c r="S38" t="n">
-        <v>208.5862614242999</v>
+        <v>207.6380301578382</v>
       </c>
       <c r="T38" t="n">
-        <v>218.8292699112955</v>
+        <v>218.6471138007553</v>
       </c>
       <c r="U38" t="n">
-        <v>250.0840814311804</v>
+        <v>250.0807524788462</v>
       </c>
       <c r="V38" t="n">
         <v>320.879783609152</v>
@@ -25484,16 +25484,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
-        <v>148.3001136271938</v>
+        <v>148.2778492956328</v>
       </c>
       <c r="H39" t="n">
-        <v>121.4426787697765</v>
+        <v>121.2276521991739</v>
       </c>
       <c r="I39" t="n">
-        <v>92.05966844771967</v>
+        <v>91.29311141809657</v>
       </c>
       <c r="J39" t="n">
-        <v>10.48053290778771</v>
+        <v>8.377041828155711</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25517,16 +25517,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>107.1223778230184</v>
+        <v>105.7400362546942</v>
       </c>
       <c r="S39" t="n">
-        <v>183.3345687810625</v>
+        <v>182.9210185873741</v>
       </c>
       <c r="T39" t="n">
-        <v>213.1793135669336</v>
+        <v>213.0895726866503</v>
       </c>
       <c r="U39" t="n">
-        <v>237.1988266779785</v>
+        <v>237.1973619193232</v>
       </c>
       <c r="V39" t="n">
         <v>240.6489209154022</v>
@@ -25563,19 +25563,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G40" t="n">
-        <v>168.3281287320799</v>
+        <v>168.3094630644065</v>
       </c>
       <c r="H40" t="n">
-        <v>162.5112342112035</v>
+        <v>162.3452794567983</v>
       </c>
       <c r="I40" t="n">
-        <v>153.6464806743293</v>
+        <v>153.0851531410239</v>
       </c>
       <c r="J40" t="n">
-        <v>93.89352159128109</v>
+        <v>92.57385888677204</v>
       </c>
       <c r="K40" t="n">
-        <v>23.73526765712697</v>
+        <v>21.56665644925431</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -25590,22 +25590,22 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>13.40873545256764</v>
+        <v>11.15120779141444</v>
       </c>
       <c r="Q40" t="n">
-        <v>96.01294866538856</v>
+        <v>94.44995352957361</v>
       </c>
       <c r="R40" t="n">
-        <v>186.6744331481002</v>
+        <v>185.8351568543492</v>
       </c>
       <c r="S40" t="n">
-        <v>228.9438374938711</v>
+        <v>228.6185458126902</v>
       </c>
       <c r="T40" t="n">
-        <v>222.1693428895585</v>
+        <v>222.0895895822268</v>
       </c>
       <c r="U40" t="n">
-        <v>288.6362308124707</v>
+        <v>288.6352126851431</v>
       </c>
       <c r="V40" t="n">
         <v>245.1090151844499</v>
@@ -25642,16 +25642,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G41" t="n">
-        <v>418.0074221942822</v>
+        <v>417.9658102901039</v>
       </c>
       <c r="H41" t="n">
-        <v>338.5134723020187</v>
+        <v>338.0873143883533</v>
       </c>
       <c r="I41" t="n">
-        <v>208.9822502180322</v>
+        <v>207.3780072822006</v>
       </c>
       <c r="J41" t="n">
-        <v>6.272685937960304</v>
+        <v>2.740927585712328</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25675,16 +25675,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>142.6968974289739</v>
+        <v>140.0829936531375</v>
       </c>
       <c r="S41" t="n">
-        <v>208.5862614242999</v>
+        <v>207.6380301578382</v>
       </c>
       <c r="T41" t="n">
-        <v>218.8292699112955</v>
+        <v>218.6471138007553</v>
       </c>
       <c r="U41" t="n">
-        <v>250.0840814311804</v>
+        <v>250.0807524788462</v>
       </c>
       <c r="V41" t="n">
         <v>320.879783609152</v>
@@ -25721,16 +25721,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
-        <v>148.3001136271938</v>
+        <v>148.2778492956328</v>
       </c>
       <c r="H42" t="n">
-        <v>121.4426787697765</v>
+        <v>121.2276521991739</v>
       </c>
       <c r="I42" t="n">
-        <v>92.05966844771967</v>
+        <v>91.29311141809657</v>
       </c>
       <c r="J42" t="n">
-        <v>10.48053290778771</v>
+        <v>8.377041828155711</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25754,16 +25754,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>107.1223778230184</v>
+        <v>105.7400362546942</v>
       </c>
       <c r="S42" t="n">
-        <v>183.3345687810625</v>
+        <v>182.9210185873741</v>
       </c>
       <c r="T42" t="n">
-        <v>213.1793135669336</v>
+        <v>213.0895726866503</v>
       </c>
       <c r="U42" t="n">
-        <v>237.1988266779785</v>
+        <v>237.1973619193232</v>
       </c>
       <c r="V42" t="n">
         <v>240.6489209154022</v>
@@ -25800,19 +25800,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G43" t="n">
-        <v>168.3281287320799</v>
+        <v>168.3094630644065</v>
       </c>
       <c r="H43" t="n">
-        <v>162.5112342112035</v>
+        <v>162.3452794567983</v>
       </c>
       <c r="I43" t="n">
-        <v>153.6464806743293</v>
+        <v>153.0851531410239</v>
       </c>
       <c r="J43" t="n">
-        <v>93.89352159128109</v>
+        <v>92.57385888677204</v>
       </c>
       <c r="K43" t="n">
-        <v>23.73526765712697</v>
+        <v>21.56665644925431</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -25827,22 +25827,22 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>13.40873545256764</v>
+        <v>11.15120779141444</v>
       </c>
       <c r="Q43" t="n">
-        <v>96.01294866538856</v>
+        <v>94.44995352957361</v>
       </c>
       <c r="R43" t="n">
-        <v>186.6744331481002</v>
+        <v>185.8351568543492</v>
       </c>
       <c r="S43" t="n">
-        <v>228.9438374938711</v>
+        <v>228.6185458126902</v>
       </c>
       <c r="T43" t="n">
-        <v>222.1693428895585</v>
+        <v>222.0895895822268</v>
       </c>
       <c r="U43" t="n">
-        <v>288.6362308124707</v>
+        <v>288.6352126851431</v>
       </c>
       <c r="V43" t="n">
         <v>245.1090151844499</v>
@@ -25879,16 +25879,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G44" t="n">
-        <v>417.8783123837688</v>
+        <v>417.9658102901039</v>
       </c>
       <c r="H44" t="n">
-        <v>337.191226455099</v>
+        <v>338.0873143883533</v>
       </c>
       <c r="I44" t="n">
-        <v>204.0047442482169</v>
+        <v>207.3780072822006</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>2.740927585712328</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25912,16 +25912,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>134.5867032943157</v>
+        <v>140.0829936531375</v>
       </c>
       <c r="S44" t="n">
-        <v>205.6441716172273</v>
+        <v>207.6380301578382</v>
       </c>
       <c r="T44" t="n">
-        <v>218.2640917157734</v>
+        <v>218.6471138007553</v>
       </c>
       <c r="U44" t="n">
-        <v>250.0737526463394</v>
+        <v>250.0807524788462</v>
       </c>
       <c r="V44" t="n">
         <v>320.879783609152</v>
@@ -25958,16 +25958,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
-        <v>148.2310337884838</v>
+        <v>148.2778492956328</v>
       </c>
       <c r="H45" t="n">
-        <v>120.7755129590769</v>
+        <v>121.2276521991739</v>
       </c>
       <c r="I45" t="n">
-        <v>89.68126172020311</v>
+        <v>91.29311141809657</v>
       </c>
       <c r="J45" t="n">
-        <v>3.954003058433003</v>
+        <v>8.377041828155711</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25991,16 +25991,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>102.8333681880216</v>
+        <v>105.7400362546942</v>
       </c>
       <c r="S45" t="n">
-        <v>182.0514410751984</v>
+        <v>182.9210185873741</v>
       </c>
       <c r="T45" t="n">
-        <v>212.9008733398524</v>
+        <v>213.0895726866503</v>
       </c>
       <c r="U45" t="n">
-        <v>237.1942819517476</v>
+        <v>237.1973619193232</v>
       </c>
       <c r="V45" t="n">
         <v>240.6489209154022</v>
@@ -26037,19 +26037,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G46" t="n">
-        <v>168.2702145158476</v>
+        <v>168.3094630644065</v>
       </c>
       <c r="H46" t="n">
-        <v>161.9963241796108</v>
+        <v>162.3452794567983</v>
       </c>
       <c r="I46" t="n">
-        <v>151.9048422443612</v>
+        <v>153.0851531410239</v>
       </c>
       <c r="J46" t="n">
-        <v>89.79898650365655</v>
+        <v>92.57385888677204</v>
       </c>
       <c r="K46" t="n">
-        <v>17.00668871668184</v>
+        <v>21.56665644925431</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -26064,22 +26064,22 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>6.404274245706759</v>
+        <v>11.15120779141444</v>
       </c>
       <c r="Q46" t="n">
-        <v>91.16342279524457</v>
+        <v>94.44995352957361</v>
       </c>
       <c r="R46" t="n">
-        <v>184.0703993891455</v>
+        <v>185.8351568543492</v>
       </c>
       <c r="S46" t="n">
-        <v>227.9345506528043</v>
+        <v>228.6185458126902</v>
       </c>
       <c r="T46" t="n">
-        <v>221.9218912383841</v>
+        <v>222.0895895822268</v>
       </c>
       <c r="U46" t="n">
-        <v>288.6330718552217</v>
+        <v>288.6352126851431</v>
       </c>
       <c r="V46" t="n">
         <v>245.1090151844499</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>426838.285039525</v>
+        <v>427720.4058739176</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>426838.285039525</v>
+        <v>427720.4058739176</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>426838.285039525</v>
+        <v>427720.4058739176</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>426838.285039525</v>
+        <v>427720.4058739176</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>426838.285039525</v>
+        <v>427720.4058739176</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>426838.285039525</v>
+        <v>427720.4058739176</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>426838.285039525</v>
+        <v>427720.4058739176</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>426838.285039525</v>
+        <v>427720.4058739176</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>426838.285039525</v>
+        <v>427720.4058739176</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>426838.285039525</v>
+        <v>427720.4058739176</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>426838.285039525</v>
+        <v>427720.4058739176</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>429047.8954458978</v>
+        <v>427720.4058739176</v>
       </c>
     </row>
   </sheetData>
@@ -26322,40 +26322,40 @@
         <v>58173.53424982008</v>
       </c>
       <c r="E2" t="n">
-        <v>76610.41109906371</v>
+        <v>76934.7287361334</v>
       </c>
       <c r="F2" t="n">
-        <v>76610.4110990637</v>
+        <v>76934.7287361334</v>
       </c>
       <c r="G2" t="n">
-        <v>76610.41109906371</v>
+        <v>76934.72873613342</v>
       </c>
       <c r="H2" t="n">
-        <v>76610.4110990637</v>
+        <v>76934.72873613342</v>
       </c>
       <c r="I2" t="n">
-        <v>76610.4110990637</v>
+        <v>76934.7287361334</v>
       </c>
       <c r="J2" t="n">
-        <v>76610.4110990637</v>
+        <v>76934.72873613342</v>
       </c>
       <c r="K2" t="n">
-        <v>76610.41109906367</v>
+        <v>76934.72873613342</v>
       </c>
       <c r="L2" t="n">
-        <v>76610.4110990637</v>
+        <v>76934.72873613342</v>
       </c>
       <c r="M2" t="n">
-        <v>76610.4110990637</v>
+        <v>76934.72873613342</v>
       </c>
       <c r="N2" t="n">
-        <v>76610.4110990637</v>
+        <v>76934.72873613342</v>
       </c>
       <c r="O2" t="n">
-        <v>76610.4110990637</v>
+        <v>76934.72873613342</v>
       </c>
       <c r="P2" t="n">
-        <v>77514.1134962019</v>
+        <v>76934.7287361334</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>247304.0237956926</v>
+        <v>255620.0170480048</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>21375.68232150296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>37019.52179534005</v>
+        <v>37019.52179534004</v>
       </c>
       <c r="C4" t="n">
-        <v>37019.52179534005</v>
+        <v>37019.52179534004</v>
       </c>
       <c r="D4" t="n">
-        <v>37019.52179534005</v>
+        <v>37019.52179534004</v>
       </c>
       <c r="E4" t="n">
-        <v>15927.89823545574</v>
+        <v>15070.49719829297</v>
       </c>
       <c r="F4" t="n">
-        <v>15927.89823545574</v>
+        <v>15070.49719829297</v>
       </c>
       <c r="G4" t="n">
-        <v>15927.89823545574</v>
+        <v>15070.49719829297</v>
       </c>
       <c r="H4" t="n">
-        <v>15927.89823545574</v>
+        <v>15070.49719829297</v>
       </c>
       <c r="I4" t="n">
-        <v>15927.89823545574</v>
+        <v>15070.49719829297</v>
       </c>
       <c r="J4" t="n">
-        <v>15927.89823545574</v>
+        <v>15070.49719829297</v>
       </c>
       <c r="K4" t="n">
-        <v>15927.89823545574</v>
+        <v>15070.49719829297</v>
       </c>
       <c r="L4" t="n">
-        <v>15927.89823545574</v>
+        <v>15070.49719829297</v>
       </c>
       <c r="M4" t="n">
-        <v>15927.89823545574</v>
+        <v>15070.49719829297</v>
       </c>
       <c r="N4" t="n">
-        <v>15927.89823545574</v>
+        <v>15070.49719829297</v>
       </c>
       <c r="O4" t="n">
-        <v>15927.89823545574</v>
+        <v>15070.49719829297</v>
       </c>
       <c r="P4" t="n">
-        <v>13290.37760263282</v>
+        <v>15070.49719829297</v>
       </c>
     </row>
     <row r="5">
@@ -26478,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>6710.48990201194</v>
+        <v>6936.140855394496</v>
       </c>
       <c r="F5" t="n">
-        <v>6710.48990201194</v>
+        <v>6936.140855394496</v>
       </c>
       <c r="G5" t="n">
-        <v>6710.48990201194</v>
+        <v>6936.140855394496</v>
       </c>
       <c r="H5" t="n">
-        <v>6710.48990201194</v>
+        <v>6936.140855394496</v>
       </c>
       <c r="I5" t="n">
-        <v>6710.48990201194</v>
+        <v>6936.140855394496</v>
       </c>
       <c r="J5" t="n">
-        <v>6710.48990201194</v>
+        <v>6936.140855394496</v>
       </c>
       <c r="K5" t="n">
-        <v>6710.48990201194</v>
+        <v>6936.140855394496</v>
       </c>
       <c r="L5" t="n">
-        <v>6710.48990201194</v>
+        <v>6936.140855394496</v>
       </c>
       <c r="M5" t="n">
-        <v>6710.48990201194</v>
+        <v>6936.140855394496</v>
       </c>
       <c r="N5" t="n">
-        <v>6710.48990201194</v>
+        <v>6936.140855394496</v>
       </c>
       <c r="O5" t="n">
-        <v>6710.48990201194</v>
+        <v>6936.140855394496</v>
       </c>
       <c r="P5" t="n">
-        <v>7410.620126973125</v>
+        <v>6936.140855394496</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-12473.58754551996</v>
+        <v>-29278.04815336335</v>
       </c>
       <c r="C6" t="n">
-        <v>-12473.58754551996</v>
+        <v>-29278.04815336335</v>
       </c>
       <c r="D6" t="n">
-        <v>-12473.58754551996</v>
+        <v>-29278.04815336335</v>
       </c>
       <c r="E6" t="n">
-        <v>-193332.0008340966</v>
+        <v>-215790.8238382828</v>
       </c>
       <c r="F6" t="n">
-        <v>53972.02296159602</v>
+        <v>39829.19320972194</v>
       </c>
       <c r="G6" t="n">
-        <v>53972.02296159603</v>
+        <v>39829.19320972195</v>
       </c>
       <c r="H6" t="n">
-        <v>53972.02296159602</v>
+        <v>39829.19320972195</v>
       </c>
       <c r="I6" t="n">
-        <v>53972.02296159602</v>
+        <v>39829.19320972194</v>
       </c>
       <c r="J6" t="n">
-        <v>53972.02296159602</v>
+        <v>39829.19320972195</v>
       </c>
       <c r="K6" t="n">
-        <v>53972.02296159599</v>
+        <v>39829.19320972195</v>
       </c>
       <c r="L6" t="n">
-        <v>53972.02296159602</v>
+        <v>39829.19320972195</v>
       </c>
       <c r="M6" t="n">
-        <v>53972.02296159602</v>
+        <v>39829.19320972195</v>
       </c>
       <c r="N6" t="n">
-        <v>53972.02296159602</v>
+        <v>39829.19320972195</v>
       </c>
       <c r="O6" t="n">
-        <v>53972.02296159602</v>
+        <v>39829.19320972195</v>
       </c>
       <c r="P6" t="n">
-        <v>35437.433445093</v>
+        <v>39829.19320972194</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>307.8206377069697</v>
+        <v>318.1715988713071</v>
       </c>
       <c r="F3" t="n">
-        <v>307.8206377069697</v>
+        <v>318.1715988713071</v>
       </c>
       <c r="G3" t="n">
-        <v>307.8206377069697</v>
+        <v>318.1715988713071</v>
       </c>
       <c r="H3" t="n">
-        <v>307.8206377069697</v>
+        <v>318.1715988713071</v>
       </c>
       <c r="I3" t="n">
-        <v>307.8206377069697</v>
+        <v>318.1715988713071</v>
       </c>
       <c r="J3" t="n">
-        <v>307.8206377069697</v>
+        <v>318.1715988713071</v>
       </c>
       <c r="K3" t="n">
-        <v>307.8206377069697</v>
+        <v>318.1715988713071</v>
       </c>
       <c r="L3" t="n">
-        <v>307.8206377069697</v>
+        <v>318.1715988713071</v>
       </c>
       <c r="M3" t="n">
-        <v>307.8206377069697</v>
+        <v>318.1715988713071</v>
       </c>
       <c r="N3" t="n">
-        <v>307.8206377069697</v>
+        <v>318.1715988713071</v>
       </c>
       <c r="O3" t="n">
-        <v>307.8206377069697</v>
+        <v>318.1715988713071</v>
       </c>
       <c r="P3" t="n">
-        <v>339.9367030721617</v>
+        <v>318.1715988713071</v>
       </c>
     </row>
     <row r="4">
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>307.8206377069697</v>
+        <v>318.1715988713071</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>32.1160653651919</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.237469900329525</v>
+        <v>1.279081804507766</v>
       </c>
       <c r="H11" t="n">
-        <v>12.67323861674976</v>
+        <v>13.09939653041517</v>
       </c>
       <c r="I11" t="n">
-        <v>47.70755833245408</v>
+        <v>49.31180126828571</v>
       </c>
       <c r="J11" t="n">
-        <v>105.0287109530932</v>
+        <v>108.5604693053411</v>
       </c>
       <c r="K11" t="n">
-        <v>157.410811834042</v>
+        <v>162.7040020901549</v>
       </c>
       <c r="L11" t="n">
-        <v>195.2820312962518</v>
+        <v>201.8487018648595</v>
       </c>
       <c r="M11" t="n">
-        <v>217.288886636237</v>
+        <v>224.5955729057745</v>
       </c>
       <c r="N11" t="n">
-        <v>220.8048479905482</v>
+        <v>228.2297640828322</v>
       </c>
       <c r="O11" t="n">
-        <v>208.4997566691465</v>
+        <v>215.5108943892581</v>
       </c>
       <c r="P11" t="n">
-        <v>177.9497185047613</v>
+        <v>183.9335623404726</v>
       </c>
       <c r="Q11" t="n">
-        <v>133.6328276992101</v>
+        <v>138.1264452165381</v>
       </c>
       <c r="R11" t="n">
-        <v>77.73321862657463</v>
+        <v>80.34712240241106</v>
       </c>
       <c r="S11" t="n">
-        <v>28.19884535375909</v>
+        <v>29.14707662022075</v>
       </c>
       <c r="T11" t="n">
-        <v>5.417024488692501</v>
+        <v>5.59918059923275</v>
       </c>
       <c r="U11" t="n">
-        <v>0.09899759202636202</v>
+        <v>0.1023265443606213</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6621047678980103</v>
+        <v>0.684369099459038</v>
       </c>
       <c r="H12" t="n">
-        <v>6.394538153120259</v>
+        <v>6.609564723722816</v>
       </c>
       <c r="I12" t="n">
-        <v>22.79615099999729</v>
+        <v>23.56270802962039</v>
       </c>
       <c r="J12" t="n">
-        <v>62.55438072496072</v>
+        <v>64.65787180459272</v>
       </c>
       <c r="K12" t="n">
-        <v>106.9154001741274</v>
+        <v>110.5106014683483</v>
       </c>
       <c r="L12" t="n">
-        <v>143.7609497139956</v>
+        <v>148.5951415294723</v>
       </c>
       <c r="M12" t="n">
-        <v>167.7622475502985</v>
+        <v>173.4035213848624</v>
       </c>
       <c r="N12" t="n">
         <v>160.2368887416667</v>
       </c>
       <c r="O12" t="n">
-        <v>157.5315672989621</v>
+        <v>162.8288181506773</v>
       </c>
       <c r="P12" t="n">
-        <v>126.4329709857174</v>
+        <v>130.6844818081035</v>
       </c>
       <c r="Q12" t="n">
-        <v>84.51709282852497</v>
+        <v>87.35911522217475</v>
       </c>
       <c r="R12" t="n">
-        <v>41.10857497528174</v>
+        <v>42.49091654360591</v>
       </c>
       <c r="S12" t="n">
-        <v>12.29830566687751</v>
+        <v>12.7118558605659</v>
       </c>
       <c r="T12" t="n">
-        <v>2.668746849553822</v>
+        <v>2.758487729837086</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04355952420381649</v>
+        <v>0.04502428285914726</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5550863958650273</v>
+        <v>0.5737520635384227</v>
       </c>
       <c r="H13" t="n">
-        <v>4.935222683236337</v>
+        <v>5.101177437641616</v>
       </c>
       <c r="I13" t="n">
-        <v>16.6929617956501</v>
+        <v>17.25428932895548</v>
       </c>
       <c r="J13" t="n">
-        <v>39.24460818765743</v>
+        <v>40.56427089216648</v>
       </c>
       <c r="K13" t="n">
-        <v>64.49094671959134</v>
+        <v>66.65955792746399</v>
       </c>
       <c r="L13" t="n">
-        <v>82.52620834524234</v>
+        <v>85.30128406461242</v>
       </c>
       <c r="M13" t="n">
-        <v>87.01231567182423</v>
+        <v>89.93824392357291</v>
       </c>
       <c r="N13" t="n">
-        <v>84.94335728723647</v>
+        <v>87.79971350492977</v>
       </c>
       <c r="O13" t="n">
-        <v>78.45893893554043</v>
+        <v>81.0972462172309</v>
       </c>
       <c r="P13" t="n">
-        <v>67.13517645989383</v>
+        <v>69.39270412104702</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.48091629375242</v>
+        <v>48.04391142956737</v>
       </c>
       <c r="R13" t="n">
-        <v>24.95870285407658</v>
+        <v>25.79797914782761</v>
       </c>
       <c r="S13" t="n">
-        <v>9.6736420079387</v>
+        <v>9.998933689119598</v>
       </c>
       <c r="T13" t="n">
-        <v>2.371732782332388</v>
+        <v>2.451486089664169</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03027743977445607</v>
+        <v>0.03129556710209581</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.237469900329526</v>
+        <v>1.279081804507766</v>
       </c>
       <c r="H14" t="n">
-        <v>12.67323861674976</v>
+        <v>13.09939653041517</v>
       </c>
       <c r="I14" t="n">
-        <v>47.70755833245408</v>
+        <v>49.31180126828571</v>
       </c>
       <c r="J14" t="n">
-        <v>105.0287109530932</v>
+        <v>108.5604693053411</v>
       </c>
       <c r="K14" t="n">
-        <v>157.410811834042</v>
+        <v>162.7040020901549</v>
       </c>
       <c r="L14" t="n">
-        <v>195.2820312962518</v>
+        <v>201.8487018648595</v>
       </c>
       <c r="M14" t="n">
-        <v>217.288886636237</v>
+        <v>224.5955729057745</v>
       </c>
       <c r="N14" t="n">
-        <v>220.8048479905482</v>
+        <v>228.2297640828322</v>
       </c>
       <c r="O14" t="n">
-        <v>208.4997566691465</v>
+        <v>215.5108943892581</v>
       </c>
       <c r="P14" t="n">
-        <v>177.9497185047613</v>
+        <v>183.9335623404726</v>
       </c>
       <c r="Q14" t="n">
-        <v>133.6328276992101</v>
+        <v>138.1264452165381</v>
       </c>
       <c r="R14" t="n">
-        <v>77.73321862657463</v>
+        <v>80.34712240241106</v>
       </c>
       <c r="S14" t="n">
-        <v>28.19884535375909</v>
+        <v>29.14707662022075</v>
       </c>
       <c r="T14" t="n">
-        <v>5.4170244886925</v>
+        <v>5.59918059923275</v>
       </c>
       <c r="U14" t="n">
-        <v>0.09899759202636202</v>
+        <v>0.1023265443606213</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6621047678980103</v>
+        <v>0.684369099459038</v>
       </c>
       <c r="H15" t="n">
-        <v>6.394538153120259</v>
+        <v>6.609564723722816</v>
       </c>
       <c r="I15" t="n">
-        <v>22.79615099999729</v>
+        <v>23.56270802962039</v>
       </c>
       <c r="J15" t="n">
-        <v>62.55438072496072</v>
+        <v>64.65787180459272</v>
       </c>
       <c r="K15" t="n">
-        <v>106.9154001741274</v>
+        <v>110.5106014683483</v>
       </c>
       <c r="L15" t="n">
-        <v>143.7609497139956</v>
+        <v>148.5951415294723</v>
       </c>
       <c r="M15" t="n">
-        <v>167.7622475502985</v>
+        <v>173.4035213848624</v>
       </c>
       <c r="N15" t="n">
         <v>160.2368887416667</v>
       </c>
       <c r="O15" t="n">
-        <v>157.5315672989621</v>
+        <v>162.8288181506773</v>
       </c>
       <c r="P15" t="n">
-        <v>126.4329709857174</v>
+        <v>130.6844818081035</v>
       </c>
       <c r="Q15" t="n">
-        <v>84.51709282852498</v>
+        <v>87.35911522217475</v>
       </c>
       <c r="R15" t="n">
-        <v>41.10857497528175</v>
+        <v>42.49091654360591</v>
       </c>
       <c r="S15" t="n">
-        <v>12.29830566687751</v>
+        <v>12.7118558605659</v>
       </c>
       <c r="T15" t="n">
-        <v>2.668746849553821</v>
+        <v>2.758487729837086</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04355952420381649</v>
+        <v>0.04502428285914726</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5550863958650273</v>
+        <v>0.5737520635384227</v>
       </c>
       <c r="H16" t="n">
-        <v>4.935222683236337</v>
+        <v>5.101177437641616</v>
       </c>
       <c r="I16" t="n">
-        <v>16.6929617956501</v>
+        <v>17.25428932895548</v>
       </c>
       <c r="J16" t="n">
-        <v>39.24460818765743</v>
+        <v>40.56427089216648</v>
       </c>
       <c r="K16" t="n">
-        <v>64.49094671959134</v>
+        <v>66.65955792746399</v>
       </c>
       <c r="L16" t="n">
-        <v>82.52620834524234</v>
+        <v>85.30128406461242</v>
       </c>
       <c r="M16" t="n">
-        <v>87.01231567182423</v>
+        <v>89.93824392357291</v>
       </c>
       <c r="N16" t="n">
-        <v>84.94335728723647</v>
+        <v>87.79971350492977</v>
       </c>
       <c r="O16" t="n">
-        <v>78.45893893554043</v>
+        <v>81.0972462172309</v>
       </c>
       <c r="P16" t="n">
-        <v>67.13517645989381</v>
+        <v>69.39270412104702</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.48091629375242</v>
+        <v>48.04391142956737</v>
       </c>
       <c r="R16" t="n">
-        <v>24.95870285407658</v>
+        <v>25.79797914782761</v>
       </c>
       <c r="S16" t="n">
-        <v>9.6736420079387</v>
+        <v>9.998933689119598</v>
       </c>
       <c r="T16" t="n">
-        <v>2.371732782332389</v>
+        <v>2.451486089664169</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03027743977445607</v>
+        <v>0.03129556710209581</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.237469900329525</v>
+        <v>1.279081804507766</v>
       </c>
       <c r="H17" t="n">
-        <v>12.67323861674976</v>
+        <v>13.09939653041517</v>
       </c>
       <c r="I17" t="n">
-        <v>47.70755833245408</v>
+        <v>49.31180126828571</v>
       </c>
       <c r="J17" t="n">
-        <v>105.0287109530932</v>
+        <v>108.5604693053411</v>
       </c>
       <c r="K17" t="n">
-        <v>157.410811834042</v>
+        <v>162.7040020901549</v>
       </c>
       <c r="L17" t="n">
-        <v>195.2820312962518</v>
+        <v>201.8487018648595</v>
       </c>
       <c r="M17" t="n">
-        <v>217.288886636237</v>
+        <v>224.5955729057745</v>
       </c>
       <c r="N17" t="n">
-        <v>220.8048479905482</v>
+        <v>228.2297640828322</v>
       </c>
       <c r="O17" t="n">
-        <v>208.4997566691465</v>
+        <v>215.5108943892581</v>
       </c>
       <c r="P17" t="n">
-        <v>177.9497185047613</v>
+        <v>183.9335623404726</v>
       </c>
       <c r="Q17" t="n">
-        <v>133.6328276992101</v>
+        <v>138.1264452165381</v>
       </c>
       <c r="R17" t="n">
-        <v>77.73321862657463</v>
+        <v>80.34712240241106</v>
       </c>
       <c r="S17" t="n">
-        <v>28.19884535375909</v>
+        <v>29.14707662022075</v>
       </c>
       <c r="T17" t="n">
-        <v>5.417024488692501</v>
+        <v>5.59918059923275</v>
       </c>
       <c r="U17" t="n">
-        <v>0.09899759202636202</v>
+        <v>0.1023265443606213</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6621047678980103</v>
+        <v>0.684369099459038</v>
       </c>
       <c r="H18" t="n">
-        <v>6.394538153120259</v>
+        <v>6.609564723722816</v>
       </c>
       <c r="I18" t="n">
-        <v>22.79615099999729</v>
+        <v>23.56270802962039</v>
       </c>
       <c r="J18" t="n">
-        <v>62.55438072496072</v>
+        <v>64.65787180459272</v>
       </c>
       <c r="K18" t="n">
-        <v>106.9154001741274</v>
+        <v>110.5106014683483</v>
       </c>
       <c r="L18" t="n">
-        <v>143.7609497139956</v>
+        <v>148.5951415294723</v>
       </c>
       <c r="M18" t="n">
-        <v>167.7622475502985</v>
+        <v>173.4035213848624</v>
       </c>
       <c r="N18" t="n">
         <v>160.2368887416667</v>
       </c>
       <c r="O18" t="n">
-        <v>157.5315672989621</v>
+        <v>162.8288181506773</v>
       </c>
       <c r="P18" t="n">
-        <v>126.4329709857174</v>
+        <v>130.6844818081035</v>
       </c>
       <c r="Q18" t="n">
-        <v>84.51709282852497</v>
+        <v>87.35911522217475</v>
       </c>
       <c r="R18" t="n">
-        <v>41.10857497528174</v>
+        <v>42.49091654360591</v>
       </c>
       <c r="S18" t="n">
-        <v>12.29830566687751</v>
+        <v>12.7118558605659</v>
       </c>
       <c r="T18" t="n">
-        <v>2.668746849553822</v>
+        <v>2.758487729837086</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04355952420381649</v>
+        <v>0.04502428285914726</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5550863958650273</v>
+        <v>0.5737520635384227</v>
       </c>
       <c r="H19" t="n">
-        <v>4.935222683236337</v>
+        <v>5.101177437641616</v>
       </c>
       <c r="I19" t="n">
-        <v>16.6929617956501</v>
+        <v>17.25428932895548</v>
       </c>
       <c r="J19" t="n">
-        <v>39.24460818765743</v>
+        <v>40.56427089216648</v>
       </c>
       <c r="K19" t="n">
-        <v>64.49094671959134</v>
+        <v>66.65955792746399</v>
       </c>
       <c r="L19" t="n">
-        <v>82.52620834524234</v>
+        <v>85.30128406461242</v>
       </c>
       <c r="M19" t="n">
-        <v>87.01231567182423</v>
+        <v>89.93824392357291</v>
       </c>
       <c r="N19" t="n">
-        <v>84.94335728723647</v>
+        <v>87.79971350492977</v>
       </c>
       <c r="O19" t="n">
-        <v>78.45893893554043</v>
+        <v>81.0972462172309</v>
       </c>
       <c r="P19" t="n">
-        <v>67.13517645989383</v>
+        <v>69.39270412104702</v>
       </c>
       <c r="Q19" t="n">
-        <v>46.48091629375242</v>
+        <v>48.04391142956737</v>
       </c>
       <c r="R19" t="n">
-        <v>24.95870285407658</v>
+        <v>25.79797914782761</v>
       </c>
       <c r="S19" t="n">
-        <v>9.6736420079387</v>
+        <v>9.998933689119598</v>
       </c>
       <c r="T19" t="n">
-        <v>2.371732782332388</v>
+        <v>2.451486089664169</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03027743977445607</v>
+        <v>0.03129556710209581</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.237469900329526</v>
+        <v>1.279081804507766</v>
       </c>
       <c r="H20" t="n">
-        <v>12.67323861674976</v>
+        <v>13.09939653041517</v>
       </c>
       <c r="I20" t="n">
-        <v>47.70755833245408</v>
+        <v>49.31180126828571</v>
       </c>
       <c r="J20" t="n">
-        <v>105.0287109530932</v>
+        <v>108.5604693053411</v>
       </c>
       <c r="K20" t="n">
-        <v>157.410811834042</v>
+        <v>162.7040020901549</v>
       </c>
       <c r="L20" t="n">
-        <v>195.2820312962518</v>
+        <v>201.8487018648595</v>
       </c>
       <c r="M20" t="n">
-        <v>217.288886636237</v>
+        <v>224.5955729057745</v>
       </c>
       <c r="N20" t="n">
-        <v>220.8048479905482</v>
+        <v>228.2297640828322</v>
       </c>
       <c r="O20" t="n">
-        <v>208.4997566691465</v>
+        <v>215.5108943892581</v>
       </c>
       <c r="P20" t="n">
-        <v>177.9497185047613</v>
+        <v>183.9335623404726</v>
       </c>
       <c r="Q20" t="n">
-        <v>133.6328276992101</v>
+        <v>138.1264452165381</v>
       </c>
       <c r="R20" t="n">
-        <v>77.73321862657463</v>
+        <v>80.34712240241106</v>
       </c>
       <c r="S20" t="n">
-        <v>28.19884535375909</v>
+        <v>29.14707662022075</v>
       </c>
       <c r="T20" t="n">
-        <v>5.4170244886925</v>
+        <v>5.59918059923275</v>
       </c>
       <c r="U20" t="n">
-        <v>0.09899759202636202</v>
+        <v>0.1023265443606213</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6621047678980103</v>
+        <v>0.684369099459038</v>
       </c>
       <c r="H21" t="n">
-        <v>6.394538153120259</v>
+        <v>6.609564723722816</v>
       </c>
       <c r="I21" t="n">
-        <v>22.79615099999729</v>
+        <v>23.56270802962039</v>
       </c>
       <c r="J21" t="n">
-        <v>62.55438072496072</v>
+        <v>64.65787180459272</v>
       </c>
       <c r="K21" t="n">
-        <v>106.9154001741274</v>
+        <v>110.5106014683483</v>
       </c>
       <c r="L21" t="n">
-        <v>143.7609497139956</v>
+        <v>148.5951415294723</v>
       </c>
       <c r="M21" t="n">
-        <v>167.7622475502985</v>
+        <v>173.4035213848624</v>
       </c>
       <c r="N21" t="n">
         <v>160.2368887416667</v>
       </c>
       <c r="O21" t="n">
-        <v>157.5315672989621</v>
+        <v>162.8288181506773</v>
       </c>
       <c r="P21" t="n">
-        <v>126.4329709857174</v>
+        <v>130.6844818081035</v>
       </c>
       <c r="Q21" t="n">
-        <v>84.51709282852498</v>
+        <v>87.35911522217475</v>
       </c>
       <c r="R21" t="n">
-        <v>41.10857497528175</v>
+        <v>42.49091654360591</v>
       </c>
       <c r="S21" t="n">
-        <v>12.29830566687751</v>
+        <v>12.7118558605659</v>
       </c>
       <c r="T21" t="n">
-        <v>2.668746849553821</v>
+        <v>2.758487729837086</v>
       </c>
       <c r="U21" t="n">
-        <v>0.04355952420381649</v>
+        <v>0.04502428285914726</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5550863958650273</v>
+        <v>0.5737520635384227</v>
       </c>
       <c r="H22" t="n">
-        <v>4.935222683236337</v>
+        <v>5.101177437641616</v>
       </c>
       <c r="I22" t="n">
-        <v>16.6929617956501</v>
+        <v>17.25428932895548</v>
       </c>
       <c r="J22" t="n">
-        <v>39.24460818765743</v>
+        <v>40.56427089216648</v>
       </c>
       <c r="K22" t="n">
-        <v>64.49094671959134</v>
+        <v>66.65955792746399</v>
       </c>
       <c r="L22" t="n">
-        <v>82.52620834524234</v>
+        <v>85.30128406461242</v>
       </c>
       <c r="M22" t="n">
-        <v>87.01231567182423</v>
+        <v>89.93824392357291</v>
       </c>
       <c r="N22" t="n">
-        <v>84.94335728723647</v>
+        <v>87.79971350492977</v>
       </c>
       <c r="O22" t="n">
-        <v>78.45893893554043</v>
+        <v>81.0972462172309</v>
       </c>
       <c r="P22" t="n">
-        <v>67.13517645989381</v>
+        <v>69.39270412104702</v>
       </c>
       <c r="Q22" t="n">
-        <v>46.48091629375242</v>
+        <v>48.04391142956737</v>
       </c>
       <c r="R22" t="n">
-        <v>24.95870285407658</v>
+        <v>25.79797914782761</v>
       </c>
       <c r="S22" t="n">
-        <v>9.6736420079387</v>
+        <v>9.998933689119598</v>
       </c>
       <c r="T22" t="n">
-        <v>2.371732782332389</v>
+        <v>2.451486089664169</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03027743977445607</v>
+        <v>0.03129556710209581</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.237469900329526</v>
+        <v>1.279081804507766</v>
       </c>
       <c r="H23" t="n">
-        <v>12.67323861674976</v>
+        <v>13.09939653041517</v>
       </c>
       <c r="I23" t="n">
-        <v>47.70755833245408</v>
+        <v>49.31180126828571</v>
       </c>
       <c r="J23" t="n">
-        <v>105.0287109530932</v>
+        <v>108.5604693053411</v>
       </c>
       <c r="K23" t="n">
-        <v>157.410811834042</v>
+        <v>162.7040020901549</v>
       </c>
       <c r="L23" t="n">
-        <v>195.2820312962518</v>
+        <v>201.8487018648595</v>
       </c>
       <c r="M23" t="n">
-        <v>217.288886636237</v>
+        <v>224.5955729057745</v>
       </c>
       <c r="N23" t="n">
-        <v>220.8048479905482</v>
+        <v>228.2297640828322</v>
       </c>
       <c r="O23" t="n">
-        <v>208.4997566691465</v>
+        <v>215.5108943892581</v>
       </c>
       <c r="P23" t="n">
-        <v>177.9497185047613</v>
+        <v>183.9335623404726</v>
       </c>
       <c r="Q23" t="n">
-        <v>133.6328276992101</v>
+        <v>138.1264452165381</v>
       </c>
       <c r="R23" t="n">
-        <v>77.73321862657463</v>
+        <v>80.34712240241106</v>
       </c>
       <c r="S23" t="n">
-        <v>28.19884535375909</v>
+        <v>29.14707662022075</v>
       </c>
       <c r="T23" t="n">
-        <v>5.4170244886925</v>
+        <v>5.59918059923275</v>
       </c>
       <c r="U23" t="n">
-        <v>0.09899759202636202</v>
+        <v>0.1023265443606213</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.6621047678980103</v>
+        <v>0.684369099459038</v>
       </c>
       <c r="H24" t="n">
-        <v>6.394538153120259</v>
+        <v>6.609564723722816</v>
       </c>
       <c r="I24" t="n">
-        <v>22.79615099999729</v>
+        <v>23.56270802962039</v>
       </c>
       <c r="J24" t="n">
-        <v>62.55438072496072</v>
+        <v>64.65787180459272</v>
       </c>
       <c r="K24" t="n">
-        <v>106.9154001741274</v>
+        <v>110.5106014683483</v>
       </c>
       <c r="L24" t="n">
-        <v>143.7609497139956</v>
+        <v>148.5951415294723</v>
       </c>
       <c r="M24" t="n">
-        <v>167.7622475502985</v>
+        <v>173.4035213848624</v>
       </c>
       <c r="N24" t="n">
         <v>160.2368887416667</v>
       </c>
       <c r="O24" t="n">
-        <v>157.5315672989621</v>
+        <v>162.8288181506773</v>
       </c>
       <c r="P24" t="n">
-        <v>126.4329709857174</v>
+        <v>130.6844818081035</v>
       </c>
       <c r="Q24" t="n">
-        <v>84.51709282852498</v>
+        <v>87.35911522217475</v>
       </c>
       <c r="R24" t="n">
-        <v>41.10857497528175</v>
+        <v>42.49091654360591</v>
       </c>
       <c r="S24" t="n">
-        <v>12.29830566687751</v>
+        <v>12.7118558605659</v>
       </c>
       <c r="T24" t="n">
-        <v>2.668746849553821</v>
+        <v>2.758487729837086</v>
       </c>
       <c r="U24" t="n">
-        <v>0.04355952420381649</v>
+        <v>0.04502428285914726</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5550863958650273</v>
+        <v>0.5737520635384227</v>
       </c>
       <c r="H25" t="n">
-        <v>4.935222683236337</v>
+        <v>5.101177437641616</v>
       </c>
       <c r="I25" t="n">
-        <v>16.6929617956501</v>
+        <v>17.25428932895548</v>
       </c>
       <c r="J25" t="n">
-        <v>39.24460818765743</v>
+        <v>40.56427089216648</v>
       </c>
       <c r="K25" t="n">
-        <v>64.49094671959134</v>
+        <v>66.65955792746399</v>
       </c>
       <c r="L25" t="n">
-        <v>82.52620834524234</v>
+        <v>85.30128406461242</v>
       </c>
       <c r="M25" t="n">
-        <v>87.01231567182423</v>
+        <v>89.93824392357291</v>
       </c>
       <c r="N25" t="n">
-        <v>84.94335728723647</v>
+        <v>87.79971350492977</v>
       </c>
       <c r="O25" t="n">
-        <v>78.45893893554043</v>
+        <v>81.0972462172309</v>
       </c>
       <c r="P25" t="n">
-        <v>67.13517645989381</v>
+        <v>69.39270412104702</v>
       </c>
       <c r="Q25" t="n">
-        <v>46.48091629375242</v>
+        <v>48.04391142956737</v>
       </c>
       <c r="R25" t="n">
-        <v>24.95870285407658</v>
+        <v>25.79797914782761</v>
       </c>
       <c r="S25" t="n">
-        <v>9.6736420079387</v>
+        <v>9.998933689119598</v>
       </c>
       <c r="T25" t="n">
-        <v>2.371732782332389</v>
+        <v>2.451486089664169</v>
       </c>
       <c r="U25" t="n">
-        <v>0.03027743977445607</v>
+        <v>0.03129556710209581</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.237469900329526</v>
+        <v>1.279081804507766</v>
       </c>
       <c r="H26" t="n">
-        <v>12.67323861674976</v>
+        <v>13.09939653041517</v>
       </c>
       <c r="I26" t="n">
-        <v>47.70755833245408</v>
+        <v>49.31180126828571</v>
       </c>
       <c r="J26" t="n">
-        <v>105.0287109530932</v>
+        <v>108.5604693053411</v>
       </c>
       <c r="K26" t="n">
-        <v>157.410811834042</v>
+        <v>162.7040020901549</v>
       </c>
       <c r="L26" t="n">
-        <v>195.2820312962518</v>
+        <v>201.8487018648595</v>
       </c>
       <c r="M26" t="n">
-        <v>217.288886636237</v>
+        <v>224.5955729057745</v>
       </c>
       <c r="N26" t="n">
-        <v>220.8048479905482</v>
+        <v>228.2297640828322</v>
       </c>
       <c r="O26" t="n">
-        <v>208.4997566691465</v>
+        <v>215.5108943892581</v>
       </c>
       <c r="P26" t="n">
-        <v>177.9497185047613</v>
+        <v>183.9335623404726</v>
       </c>
       <c r="Q26" t="n">
-        <v>133.6328276992101</v>
+        <v>138.1264452165381</v>
       </c>
       <c r="R26" t="n">
-        <v>77.73321862657463</v>
+        <v>80.34712240241106</v>
       </c>
       <c r="S26" t="n">
-        <v>28.19884535375909</v>
+        <v>29.14707662022075</v>
       </c>
       <c r="T26" t="n">
-        <v>5.4170244886925</v>
+        <v>5.59918059923275</v>
       </c>
       <c r="U26" t="n">
-        <v>0.09899759202636202</v>
+        <v>0.1023265443606213</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6621047678980103</v>
+        <v>0.684369099459038</v>
       </c>
       <c r="H27" t="n">
-        <v>6.394538153120259</v>
+        <v>6.609564723722816</v>
       </c>
       <c r="I27" t="n">
-        <v>22.79615099999729</v>
+        <v>23.56270802962039</v>
       </c>
       <c r="J27" t="n">
-        <v>62.55438072496072</v>
+        <v>64.65787180459272</v>
       </c>
       <c r="K27" t="n">
-        <v>106.9154001741274</v>
+        <v>110.5106014683483</v>
       </c>
       <c r="L27" t="n">
-        <v>143.7609497139956</v>
+        <v>148.5951415294723</v>
       </c>
       <c r="M27" t="n">
-        <v>167.7622475502985</v>
+        <v>173.4035213848624</v>
       </c>
       <c r="N27" t="n">
         <v>160.2368887416667</v>
       </c>
       <c r="O27" t="n">
-        <v>157.5315672989621</v>
+        <v>162.8288181506773</v>
       </c>
       <c r="P27" t="n">
-        <v>126.4329709857174</v>
+        <v>130.6844818081035</v>
       </c>
       <c r="Q27" t="n">
-        <v>84.51709282852498</v>
+        <v>87.35911522217475</v>
       </c>
       <c r="R27" t="n">
-        <v>41.10857497528175</v>
+        <v>42.49091654360591</v>
       </c>
       <c r="S27" t="n">
-        <v>12.29830566687751</v>
+        <v>12.7118558605659</v>
       </c>
       <c r="T27" t="n">
-        <v>2.668746849553821</v>
+        <v>2.758487729837086</v>
       </c>
       <c r="U27" t="n">
-        <v>0.04355952420381649</v>
+        <v>0.04502428285914726</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5550863958650273</v>
+        <v>0.5737520635384227</v>
       </c>
       <c r="H28" t="n">
-        <v>4.935222683236337</v>
+        <v>5.101177437641616</v>
       </c>
       <c r="I28" t="n">
-        <v>16.6929617956501</v>
+        <v>17.25428932895548</v>
       </c>
       <c r="J28" t="n">
-        <v>39.24460818765743</v>
+        <v>40.56427089216648</v>
       </c>
       <c r="K28" t="n">
-        <v>64.49094671959134</v>
+        <v>66.65955792746399</v>
       </c>
       <c r="L28" t="n">
-        <v>82.52620834524234</v>
+        <v>85.30128406461242</v>
       </c>
       <c r="M28" t="n">
-        <v>87.01231567182423</v>
+        <v>89.93824392357291</v>
       </c>
       <c r="N28" t="n">
-        <v>84.94335728723647</v>
+        <v>87.79971350492977</v>
       </c>
       <c r="O28" t="n">
-        <v>78.45893893554043</v>
+        <v>81.0972462172309</v>
       </c>
       <c r="P28" t="n">
-        <v>67.13517645989381</v>
+        <v>69.39270412104702</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.48091629375242</v>
+        <v>48.04391142956737</v>
       </c>
       <c r="R28" t="n">
-        <v>24.95870285407658</v>
+        <v>25.79797914782761</v>
       </c>
       <c r="S28" t="n">
-        <v>9.6736420079387</v>
+        <v>9.998933689119598</v>
       </c>
       <c r="T28" t="n">
-        <v>2.371732782332389</v>
+        <v>2.451486089664169</v>
       </c>
       <c r="U28" t="n">
-        <v>0.03027743977445607</v>
+        <v>0.03129556710209581</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.237469900329526</v>
+        <v>1.279081804507766</v>
       </c>
       <c r="H29" t="n">
-        <v>12.67323861674976</v>
+        <v>13.09939653041517</v>
       </c>
       <c r="I29" t="n">
-        <v>47.70755833245408</v>
+        <v>49.31180126828571</v>
       </c>
       <c r="J29" t="n">
-        <v>105.0287109530932</v>
+        <v>108.5604693053411</v>
       </c>
       <c r="K29" t="n">
-        <v>157.410811834042</v>
+        <v>162.7040020901549</v>
       </c>
       <c r="L29" t="n">
-        <v>195.2820312962518</v>
+        <v>201.8487018648595</v>
       </c>
       <c r="M29" t="n">
-        <v>217.288886636237</v>
+        <v>224.5955729057745</v>
       </c>
       <c r="N29" t="n">
-        <v>220.8048479905482</v>
+        <v>228.2297640828322</v>
       </c>
       <c r="O29" t="n">
-        <v>208.4997566691465</v>
+        <v>215.5108943892581</v>
       </c>
       <c r="P29" t="n">
-        <v>177.9497185047613</v>
+        <v>183.9335623404726</v>
       </c>
       <c r="Q29" t="n">
-        <v>133.6328276992101</v>
+        <v>138.1264452165381</v>
       </c>
       <c r="R29" t="n">
-        <v>77.73321862657463</v>
+        <v>80.34712240241106</v>
       </c>
       <c r="S29" t="n">
-        <v>28.19884535375909</v>
+        <v>29.14707662022075</v>
       </c>
       <c r="T29" t="n">
-        <v>5.4170244886925</v>
+        <v>5.59918059923275</v>
       </c>
       <c r="U29" t="n">
-        <v>0.09899759202636202</v>
+        <v>0.1023265443606213</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.6621047678980103</v>
+        <v>0.684369099459038</v>
       </c>
       <c r="H30" t="n">
-        <v>6.394538153120259</v>
+        <v>6.609564723722816</v>
       </c>
       <c r="I30" t="n">
-        <v>22.79615099999729</v>
+        <v>23.56270802962039</v>
       </c>
       <c r="J30" t="n">
-        <v>62.55438072496072</v>
+        <v>64.65787180459272</v>
       </c>
       <c r="K30" t="n">
-        <v>106.9154001741274</v>
+        <v>110.5106014683483</v>
       </c>
       <c r="L30" t="n">
-        <v>143.7609497139956</v>
+        <v>148.5951415294723</v>
       </c>
       <c r="M30" t="n">
-        <v>167.7622475502985</v>
+        <v>173.4035213848624</v>
       </c>
       <c r="N30" t="n">
         <v>160.2368887416667</v>
       </c>
       <c r="O30" t="n">
-        <v>157.5315672989621</v>
+        <v>162.8288181506773</v>
       </c>
       <c r="P30" t="n">
-        <v>126.4329709857174</v>
+        <v>130.6844818081035</v>
       </c>
       <c r="Q30" t="n">
-        <v>84.51709282852498</v>
+        <v>87.35911522217475</v>
       </c>
       <c r="R30" t="n">
-        <v>41.10857497528175</v>
+        <v>42.49091654360591</v>
       </c>
       <c r="S30" t="n">
-        <v>12.29830566687751</v>
+        <v>12.7118558605659</v>
       </c>
       <c r="T30" t="n">
-        <v>2.668746849553821</v>
+        <v>2.758487729837086</v>
       </c>
       <c r="U30" t="n">
-        <v>0.04355952420381649</v>
+        <v>0.04502428285914726</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5550863958650273</v>
+        <v>0.5737520635384227</v>
       </c>
       <c r="H31" t="n">
-        <v>4.935222683236337</v>
+        <v>5.101177437641616</v>
       </c>
       <c r="I31" t="n">
-        <v>16.6929617956501</v>
+        <v>17.25428932895548</v>
       </c>
       <c r="J31" t="n">
-        <v>39.24460818765743</v>
+        <v>40.56427089216648</v>
       </c>
       <c r="K31" t="n">
-        <v>64.49094671959134</v>
+        <v>66.65955792746399</v>
       </c>
       <c r="L31" t="n">
-        <v>82.52620834524234</v>
+        <v>85.30128406461242</v>
       </c>
       <c r="M31" t="n">
-        <v>87.01231567182423</v>
+        <v>89.93824392357291</v>
       </c>
       <c r="N31" t="n">
-        <v>84.94335728723647</v>
+        <v>87.79971350492977</v>
       </c>
       <c r="O31" t="n">
-        <v>78.45893893554043</v>
+        <v>81.0972462172309</v>
       </c>
       <c r="P31" t="n">
-        <v>67.13517645989381</v>
+        <v>69.39270412104702</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.48091629375242</v>
+        <v>48.04391142956737</v>
       </c>
       <c r="R31" t="n">
-        <v>24.95870285407658</v>
+        <v>25.79797914782761</v>
       </c>
       <c r="S31" t="n">
-        <v>9.6736420079387</v>
+        <v>9.998933689119598</v>
       </c>
       <c r="T31" t="n">
-        <v>2.371732782332389</v>
+        <v>2.451486089664169</v>
       </c>
       <c r="U31" t="n">
-        <v>0.03027743977445607</v>
+        <v>0.03129556710209581</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.237469900329526</v>
+        <v>1.279081804507766</v>
       </c>
       <c r="H32" t="n">
-        <v>12.67323861674976</v>
+        <v>13.09939653041517</v>
       </c>
       <c r="I32" t="n">
-        <v>47.70755833245408</v>
+        <v>49.31180126828571</v>
       </c>
       <c r="J32" t="n">
-        <v>105.0287109530932</v>
+        <v>108.5604693053411</v>
       </c>
       <c r="K32" t="n">
-        <v>157.410811834042</v>
+        <v>162.7040020901549</v>
       </c>
       <c r="L32" t="n">
-        <v>195.2820312962518</v>
+        <v>201.8487018648595</v>
       </c>
       <c r="M32" t="n">
-        <v>217.288886636237</v>
+        <v>224.5955729057745</v>
       </c>
       <c r="N32" t="n">
-        <v>220.8048479905482</v>
+        <v>228.2297640828322</v>
       </c>
       <c r="O32" t="n">
-        <v>208.4997566691465</v>
+        <v>215.5108943892581</v>
       </c>
       <c r="P32" t="n">
-        <v>177.9497185047613</v>
+        <v>183.9335623404726</v>
       </c>
       <c r="Q32" t="n">
-        <v>133.6328276992101</v>
+        <v>138.1264452165381</v>
       </c>
       <c r="R32" t="n">
-        <v>77.73321862657463</v>
+        <v>80.34712240241106</v>
       </c>
       <c r="S32" t="n">
-        <v>28.19884535375909</v>
+        <v>29.14707662022075</v>
       </c>
       <c r="T32" t="n">
-        <v>5.4170244886925</v>
+        <v>5.59918059923275</v>
       </c>
       <c r="U32" t="n">
-        <v>0.09899759202636202</v>
+        <v>0.1023265443606213</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.6621047678980103</v>
+        <v>0.684369099459038</v>
       </c>
       <c r="H33" t="n">
-        <v>6.394538153120259</v>
+        <v>6.609564723722816</v>
       </c>
       <c r="I33" t="n">
-        <v>22.79615099999729</v>
+        <v>23.56270802962039</v>
       </c>
       <c r="J33" t="n">
-        <v>62.55438072496072</v>
+        <v>64.65787180459272</v>
       </c>
       <c r="K33" t="n">
-        <v>106.9154001741274</v>
+        <v>110.5106014683483</v>
       </c>
       <c r="L33" t="n">
-        <v>143.7609497139956</v>
+        <v>148.5951415294723</v>
       </c>
       <c r="M33" t="n">
-        <v>167.7622475502985</v>
+        <v>173.4035213848624</v>
       </c>
       <c r="N33" t="n">
         <v>160.2368887416667</v>
       </c>
       <c r="O33" t="n">
-        <v>157.5315672989621</v>
+        <v>162.8288181506773</v>
       </c>
       <c r="P33" t="n">
-        <v>126.4329709857174</v>
+        <v>130.6844818081035</v>
       </c>
       <c r="Q33" t="n">
-        <v>84.51709282852498</v>
+        <v>87.35911522217475</v>
       </c>
       <c r="R33" t="n">
-        <v>41.10857497528175</v>
+        <v>42.49091654360591</v>
       </c>
       <c r="S33" t="n">
-        <v>12.29830566687751</v>
+        <v>12.7118558605659</v>
       </c>
       <c r="T33" t="n">
-        <v>2.668746849553821</v>
+        <v>2.758487729837086</v>
       </c>
       <c r="U33" t="n">
-        <v>0.04355952420381649</v>
+        <v>0.04502428285914726</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5550863958650273</v>
+        <v>0.5737520635384227</v>
       </c>
       <c r="H34" t="n">
-        <v>4.935222683236337</v>
+        <v>5.101177437641616</v>
       </c>
       <c r="I34" t="n">
-        <v>16.6929617956501</v>
+        <v>17.25428932895548</v>
       </c>
       <c r="J34" t="n">
-        <v>39.24460818765743</v>
+        <v>40.56427089216648</v>
       </c>
       <c r="K34" t="n">
-        <v>64.49094671959134</v>
+        <v>66.65955792746399</v>
       </c>
       <c r="L34" t="n">
-        <v>82.52620834524234</v>
+        <v>85.30128406461242</v>
       </c>
       <c r="M34" t="n">
-        <v>87.01231567182423</v>
+        <v>89.93824392357291</v>
       </c>
       <c r="N34" t="n">
-        <v>84.94335728723647</v>
+        <v>87.79971350492977</v>
       </c>
       <c r="O34" t="n">
-        <v>78.45893893554043</v>
+        <v>81.0972462172309</v>
       </c>
       <c r="P34" t="n">
-        <v>67.13517645989381</v>
+        <v>69.39270412104702</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.48091629375242</v>
+        <v>48.04391142956737</v>
       </c>
       <c r="R34" t="n">
-        <v>24.95870285407658</v>
+        <v>25.79797914782761</v>
       </c>
       <c r="S34" t="n">
-        <v>9.6736420079387</v>
+        <v>9.998933689119598</v>
       </c>
       <c r="T34" t="n">
-        <v>2.371732782332389</v>
+        <v>2.451486089664169</v>
       </c>
       <c r="U34" t="n">
-        <v>0.03027743977445607</v>
+        <v>0.03129556710209581</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.237469900329526</v>
+        <v>1.279081804507766</v>
       </c>
       <c r="H35" t="n">
-        <v>12.67323861674976</v>
+        <v>13.09939653041517</v>
       </c>
       <c r="I35" t="n">
-        <v>47.70755833245408</v>
+        <v>49.31180126828571</v>
       </c>
       <c r="J35" t="n">
-        <v>105.0287109530932</v>
+        <v>108.5604693053411</v>
       </c>
       <c r="K35" t="n">
-        <v>157.410811834042</v>
+        <v>162.7040020901549</v>
       </c>
       <c r="L35" t="n">
-        <v>195.2820312962518</v>
+        <v>201.8487018648595</v>
       </c>
       <c r="M35" t="n">
-        <v>217.288886636237</v>
+        <v>224.5955729057745</v>
       </c>
       <c r="N35" t="n">
-        <v>220.8048479905482</v>
+        <v>228.2297640828322</v>
       </c>
       <c r="O35" t="n">
-        <v>208.4997566691465</v>
+        <v>215.5108943892581</v>
       </c>
       <c r="P35" t="n">
-        <v>177.9497185047613</v>
+        <v>183.9335623404726</v>
       </c>
       <c r="Q35" t="n">
-        <v>133.6328276992101</v>
+        <v>138.1264452165381</v>
       </c>
       <c r="R35" t="n">
-        <v>77.73321862657463</v>
+        <v>80.34712240241106</v>
       </c>
       <c r="S35" t="n">
-        <v>28.19884535375909</v>
+        <v>29.14707662022075</v>
       </c>
       <c r="T35" t="n">
-        <v>5.4170244886925</v>
+        <v>5.59918059923275</v>
       </c>
       <c r="U35" t="n">
-        <v>0.09899759202636202</v>
+        <v>0.1023265443606213</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.6621047678980103</v>
+        <v>0.684369099459038</v>
       </c>
       <c r="H36" t="n">
-        <v>6.394538153120259</v>
+        <v>6.609564723722816</v>
       </c>
       <c r="I36" t="n">
-        <v>22.79615099999729</v>
+        <v>23.56270802962039</v>
       </c>
       <c r="J36" t="n">
-        <v>62.55438072496072</v>
+        <v>64.65787180459272</v>
       </c>
       <c r="K36" t="n">
-        <v>106.9154001741274</v>
+        <v>110.5106014683483</v>
       </c>
       <c r="L36" t="n">
-        <v>143.7609497139956</v>
+        <v>148.5951415294723</v>
       </c>
       <c r="M36" t="n">
-        <v>167.7622475502985</v>
+        <v>173.4035213848624</v>
       </c>
       <c r="N36" t="n">
         <v>160.2368887416667</v>
       </c>
       <c r="O36" t="n">
-        <v>157.5315672989621</v>
+        <v>162.8288181506773</v>
       </c>
       <c r="P36" t="n">
-        <v>126.4329709857174</v>
+        <v>130.6844818081035</v>
       </c>
       <c r="Q36" t="n">
-        <v>84.51709282852498</v>
+        <v>87.35911522217475</v>
       </c>
       <c r="R36" t="n">
-        <v>41.10857497528175</v>
+        <v>42.49091654360591</v>
       </c>
       <c r="S36" t="n">
-        <v>12.29830566687751</v>
+        <v>12.7118558605659</v>
       </c>
       <c r="T36" t="n">
-        <v>2.668746849553821</v>
+        <v>2.758487729837086</v>
       </c>
       <c r="U36" t="n">
-        <v>0.04355952420381649</v>
+        <v>0.04502428285914726</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5550863958650273</v>
+        <v>0.5737520635384227</v>
       </c>
       <c r="H37" t="n">
-        <v>4.935222683236337</v>
+        <v>5.101177437641616</v>
       </c>
       <c r="I37" t="n">
-        <v>16.6929617956501</v>
+        <v>17.25428932895548</v>
       </c>
       <c r="J37" t="n">
-        <v>39.24460818765743</v>
+        <v>40.56427089216648</v>
       </c>
       <c r="K37" t="n">
-        <v>64.49094671959134</v>
+        <v>66.65955792746399</v>
       </c>
       <c r="L37" t="n">
-        <v>82.52620834524234</v>
+        <v>85.30128406461242</v>
       </c>
       <c r="M37" t="n">
-        <v>87.01231567182423</v>
+        <v>89.93824392357291</v>
       </c>
       <c r="N37" t="n">
-        <v>84.94335728723647</v>
+        <v>87.79971350492977</v>
       </c>
       <c r="O37" t="n">
-        <v>78.45893893554043</v>
+        <v>81.0972462172309</v>
       </c>
       <c r="P37" t="n">
-        <v>67.13517645989381</v>
+        <v>69.39270412104702</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.48091629375242</v>
+        <v>48.04391142956737</v>
       </c>
       <c r="R37" t="n">
-        <v>24.95870285407658</v>
+        <v>25.79797914782761</v>
       </c>
       <c r="S37" t="n">
-        <v>9.6736420079387</v>
+        <v>9.998933689119598</v>
       </c>
       <c r="T37" t="n">
-        <v>2.371732782332389</v>
+        <v>2.451486089664169</v>
       </c>
       <c r="U37" t="n">
-        <v>0.03027743977445607</v>
+        <v>0.03129556710209581</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.237469900329526</v>
+        <v>1.279081804507766</v>
       </c>
       <c r="H38" t="n">
-        <v>12.67323861674976</v>
+        <v>13.09939653041517</v>
       </c>
       <c r="I38" t="n">
-        <v>47.70755833245408</v>
+        <v>49.31180126828571</v>
       </c>
       <c r="J38" t="n">
-        <v>105.0287109530932</v>
+        <v>108.5604693053411</v>
       </c>
       <c r="K38" t="n">
-        <v>157.410811834042</v>
+        <v>162.7040020901549</v>
       </c>
       <c r="L38" t="n">
-        <v>195.2820312962518</v>
+        <v>201.8487018648595</v>
       </c>
       <c r="M38" t="n">
-        <v>217.288886636237</v>
+        <v>224.5955729057745</v>
       </c>
       <c r="N38" t="n">
-        <v>220.8048479905482</v>
+        <v>228.2297640828322</v>
       </c>
       <c r="O38" t="n">
-        <v>208.4997566691465</v>
+        <v>215.5108943892581</v>
       </c>
       <c r="P38" t="n">
-        <v>177.9497185047613</v>
+        <v>183.9335623404726</v>
       </c>
       <c r="Q38" t="n">
-        <v>133.6328276992101</v>
+        <v>138.1264452165381</v>
       </c>
       <c r="R38" t="n">
-        <v>77.73321862657463</v>
+        <v>80.34712240241106</v>
       </c>
       <c r="S38" t="n">
-        <v>28.19884535375909</v>
+        <v>29.14707662022075</v>
       </c>
       <c r="T38" t="n">
-        <v>5.4170244886925</v>
+        <v>5.59918059923275</v>
       </c>
       <c r="U38" t="n">
-        <v>0.09899759202636202</v>
+        <v>0.1023265443606213</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6621047678980103</v>
+        <v>0.684369099459038</v>
       </c>
       <c r="H39" t="n">
-        <v>6.394538153120259</v>
+        <v>6.609564723722816</v>
       </c>
       <c r="I39" t="n">
-        <v>22.79615099999729</v>
+        <v>23.56270802962039</v>
       </c>
       <c r="J39" t="n">
-        <v>62.55438072496072</v>
+        <v>64.65787180459272</v>
       </c>
       <c r="K39" t="n">
-        <v>106.9154001741274</v>
+        <v>110.5106014683483</v>
       </c>
       <c r="L39" t="n">
-        <v>143.7609497139956</v>
+        <v>148.5951415294723</v>
       </c>
       <c r="M39" t="n">
-        <v>167.7622475502985</v>
+        <v>173.4035213848624</v>
       </c>
       <c r="N39" t="n">
         <v>160.2368887416667</v>
       </c>
       <c r="O39" t="n">
-        <v>157.5315672989621</v>
+        <v>162.8288181506773</v>
       </c>
       <c r="P39" t="n">
-        <v>126.4329709857174</v>
+        <v>130.6844818081035</v>
       </c>
       <c r="Q39" t="n">
-        <v>84.51709282852498</v>
+        <v>87.35911522217475</v>
       </c>
       <c r="R39" t="n">
-        <v>41.10857497528175</v>
+        <v>42.49091654360591</v>
       </c>
       <c r="S39" t="n">
-        <v>12.29830566687751</v>
+        <v>12.7118558605659</v>
       </c>
       <c r="T39" t="n">
-        <v>2.668746849553821</v>
+        <v>2.758487729837086</v>
       </c>
       <c r="U39" t="n">
-        <v>0.04355952420381649</v>
+        <v>0.04502428285914726</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5550863958650273</v>
+        <v>0.5737520635384227</v>
       </c>
       <c r="H40" t="n">
-        <v>4.935222683236337</v>
+        <v>5.101177437641616</v>
       </c>
       <c r="I40" t="n">
-        <v>16.6929617956501</v>
+        <v>17.25428932895548</v>
       </c>
       <c r="J40" t="n">
-        <v>39.24460818765743</v>
+        <v>40.56427089216648</v>
       </c>
       <c r="K40" t="n">
-        <v>64.49094671959134</v>
+        <v>66.65955792746399</v>
       </c>
       <c r="L40" t="n">
-        <v>82.52620834524234</v>
+        <v>85.30128406461242</v>
       </c>
       <c r="M40" t="n">
-        <v>87.01231567182423</v>
+        <v>89.93824392357291</v>
       </c>
       <c r="N40" t="n">
-        <v>84.94335728723647</v>
+        <v>87.79971350492977</v>
       </c>
       <c r="O40" t="n">
-        <v>78.45893893554043</v>
+        <v>81.0972462172309</v>
       </c>
       <c r="P40" t="n">
-        <v>67.13517645989381</v>
+        <v>69.39270412104702</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.48091629375242</v>
+        <v>48.04391142956737</v>
       </c>
       <c r="R40" t="n">
-        <v>24.95870285407658</v>
+        <v>25.79797914782761</v>
       </c>
       <c r="S40" t="n">
-        <v>9.6736420079387</v>
+        <v>9.998933689119598</v>
       </c>
       <c r="T40" t="n">
-        <v>2.371732782332389</v>
+        <v>2.451486089664169</v>
       </c>
       <c r="U40" t="n">
-        <v>0.03027743977445607</v>
+        <v>0.03129556710209581</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.237469900329526</v>
+        <v>1.279081804507766</v>
       </c>
       <c r="H41" t="n">
-        <v>12.67323861674976</v>
+        <v>13.09939653041517</v>
       </c>
       <c r="I41" t="n">
-        <v>47.70755833245408</v>
+        <v>49.31180126828571</v>
       </c>
       <c r="J41" t="n">
-        <v>105.0287109530932</v>
+        <v>108.5604693053411</v>
       </c>
       <c r="K41" t="n">
-        <v>157.410811834042</v>
+        <v>162.7040020901549</v>
       </c>
       <c r="L41" t="n">
-        <v>195.2820312962518</v>
+        <v>201.8487018648595</v>
       </c>
       <c r="M41" t="n">
-        <v>217.288886636237</v>
+        <v>224.5955729057745</v>
       </c>
       <c r="N41" t="n">
-        <v>220.8048479905482</v>
+        <v>228.2297640828322</v>
       </c>
       <c r="O41" t="n">
-        <v>208.4997566691465</v>
+        <v>215.5108943892581</v>
       </c>
       <c r="P41" t="n">
-        <v>177.9497185047613</v>
+        <v>183.9335623404726</v>
       </c>
       <c r="Q41" t="n">
-        <v>133.6328276992101</v>
+        <v>138.1264452165381</v>
       </c>
       <c r="R41" t="n">
-        <v>77.73321862657463</v>
+        <v>80.34712240241106</v>
       </c>
       <c r="S41" t="n">
-        <v>28.19884535375909</v>
+        <v>29.14707662022075</v>
       </c>
       <c r="T41" t="n">
-        <v>5.4170244886925</v>
+        <v>5.59918059923275</v>
       </c>
       <c r="U41" t="n">
-        <v>0.09899759202636202</v>
+        <v>0.1023265443606213</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6621047678980103</v>
+        <v>0.684369099459038</v>
       </c>
       <c r="H42" t="n">
-        <v>6.394538153120259</v>
+        <v>6.609564723722816</v>
       </c>
       <c r="I42" t="n">
-        <v>22.79615099999729</v>
+        <v>23.56270802962039</v>
       </c>
       <c r="J42" t="n">
-        <v>62.55438072496072</v>
+        <v>64.65787180459272</v>
       </c>
       <c r="K42" t="n">
-        <v>106.9154001741274</v>
+        <v>110.5106014683483</v>
       </c>
       <c r="L42" t="n">
-        <v>143.7609497139956</v>
+        <v>148.5951415294723</v>
       </c>
       <c r="M42" t="n">
-        <v>167.7622475502985</v>
+        <v>173.4035213848624</v>
       </c>
       <c r="N42" t="n">
         <v>160.2368887416667</v>
       </c>
       <c r="O42" t="n">
-        <v>157.5315672989621</v>
+        <v>162.8288181506773</v>
       </c>
       <c r="P42" t="n">
-        <v>126.4329709857174</v>
+        <v>130.6844818081035</v>
       </c>
       <c r="Q42" t="n">
-        <v>84.51709282852498</v>
+        <v>87.35911522217475</v>
       </c>
       <c r="R42" t="n">
-        <v>41.10857497528175</v>
+        <v>42.49091654360591</v>
       </c>
       <c r="S42" t="n">
-        <v>12.29830566687751</v>
+        <v>12.7118558605659</v>
       </c>
       <c r="T42" t="n">
-        <v>2.668746849553821</v>
+        <v>2.758487729837086</v>
       </c>
       <c r="U42" t="n">
-        <v>0.04355952420381649</v>
+        <v>0.04502428285914726</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5550863958650273</v>
+        <v>0.5737520635384227</v>
       </c>
       <c r="H43" t="n">
-        <v>4.935222683236337</v>
+        <v>5.101177437641616</v>
       </c>
       <c r="I43" t="n">
-        <v>16.6929617956501</v>
+        <v>17.25428932895548</v>
       </c>
       <c r="J43" t="n">
-        <v>39.24460818765743</v>
+        <v>40.56427089216648</v>
       </c>
       <c r="K43" t="n">
-        <v>64.49094671959134</v>
+        <v>66.65955792746399</v>
       </c>
       <c r="L43" t="n">
-        <v>82.52620834524234</v>
+        <v>85.30128406461242</v>
       </c>
       <c r="M43" t="n">
-        <v>87.01231567182423</v>
+        <v>89.93824392357291</v>
       </c>
       <c r="N43" t="n">
-        <v>84.94335728723647</v>
+        <v>87.79971350492977</v>
       </c>
       <c r="O43" t="n">
-        <v>78.45893893554043</v>
+        <v>81.0972462172309</v>
       </c>
       <c r="P43" t="n">
-        <v>67.13517645989381</v>
+        <v>69.39270412104702</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.48091629375242</v>
+        <v>48.04391142956737</v>
       </c>
       <c r="R43" t="n">
-        <v>24.95870285407658</v>
+        <v>25.79797914782761</v>
       </c>
       <c r="S43" t="n">
-        <v>9.6736420079387</v>
+        <v>9.998933689119598</v>
       </c>
       <c r="T43" t="n">
-        <v>2.371732782332389</v>
+        <v>2.451486089664169</v>
       </c>
       <c r="U43" t="n">
-        <v>0.03027743977445607</v>
+        <v>0.03129556710209581</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.36657971084286</v>
+        <v>1.279081804507766</v>
       </c>
       <c r="H44" t="n">
-        <v>13.99548446366944</v>
+        <v>13.09939653041517</v>
       </c>
       <c r="I44" t="n">
-        <v>52.68506430226941</v>
+        <v>49.31180126828571</v>
       </c>
       <c r="J44" t="n">
-        <v>115.9867447331493</v>
+        <v>108.5604693053411</v>
       </c>
       <c r="K44" t="n">
-        <v>173.8340638931276</v>
+        <v>162.7040020901549</v>
       </c>
       <c r="L44" t="n">
-        <v>215.6565277188348</v>
+        <v>201.8487018648595</v>
       </c>
       <c r="M44" t="n">
-        <v>239.9594396515365</v>
+        <v>224.5955729057745</v>
       </c>
       <c r="N44" t="n">
-        <v>243.8422342549688</v>
+        <v>228.2297640828322</v>
       </c>
       <c r="O44" t="n">
-        <v>230.2533072552751</v>
+        <v>215.5108943892581</v>
       </c>
       <c r="P44" t="n">
-        <v>196.5158706438419</v>
+        <v>183.9335623404726</v>
       </c>
       <c r="Q44" t="n">
-        <v>147.575234749282</v>
+        <v>138.1264452165381</v>
       </c>
       <c r="R44" t="n">
-        <v>85.84341276123287</v>
+        <v>80.34712240241106</v>
       </c>
       <c r="S44" t="n">
-        <v>31.1409351608317</v>
+        <v>29.14707662022075</v>
       </c>
       <c r="T44" t="n">
-        <v>5.982202684214622</v>
+        <v>5.59918059923275</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1093263768674288</v>
+        <v>0.1023265443606213</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,22 +34438,22 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.7311846066080457</v>
+        <v>0.684369099459038</v>
       </c>
       <c r="H45" t="n">
-        <v>7.061703963819812</v>
+        <v>6.609564723722816</v>
       </c>
       <c r="I45" t="n">
-        <v>25.17455772751386</v>
+        <v>23.56270802962039</v>
       </c>
       <c r="J45" t="n">
-        <v>69.08091057431542</v>
+        <v>64.65787180459272</v>
       </c>
       <c r="K45" t="n">
-        <v>118.0702792170545</v>
+        <v>110.5106014683483</v>
       </c>
       <c r="L45" t="n">
-        <v>158.7600611847865</v>
+        <v>148.5951415294723</v>
       </c>
       <c r="M45" t="n">
         <v>173.4035213848624</v>
@@ -34462,25 +34462,25 @@
         <v>160.2368887416667</v>
       </c>
       <c r="O45" t="n">
-        <v>173.9674182222222</v>
+        <v>162.8288181506773</v>
       </c>
       <c r="P45" t="n">
-        <v>139.6241903618469</v>
+        <v>130.6844818081035</v>
       </c>
       <c r="Q45" t="n">
-        <v>93.33507364351127</v>
+        <v>87.35911522217475</v>
       </c>
       <c r="R45" t="n">
-        <v>45.39758461027851</v>
+        <v>42.49091654360591</v>
       </c>
       <c r="S45" t="n">
-        <v>13.58143337274154</v>
+        <v>12.7118558605659</v>
       </c>
       <c r="T45" t="n">
-        <v>2.947187076635061</v>
+        <v>2.758487729837086</v>
       </c>
       <c r="U45" t="n">
-        <v>0.04810425043473988</v>
+        <v>0.04502428285914726</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6130006120973406</v>
+        <v>0.5737520635384227</v>
       </c>
       <c r="H46" t="n">
-        <v>5.450132714829087</v>
+        <v>5.101177437641616</v>
       </c>
       <c r="I46" t="n">
-        <v>18.43460022561821</v>
+        <v>17.25428932895548</v>
       </c>
       <c r="J46" t="n">
-        <v>43.33914327528198</v>
+        <v>40.56427089216648</v>
       </c>
       <c r="K46" t="n">
-        <v>71.21952566003647</v>
+        <v>66.65955792746399</v>
       </c>
       <c r="L46" t="n">
-        <v>91.13647282036283</v>
+        <v>85.30128406461242</v>
       </c>
       <c r="M46" t="n">
-        <v>96.09063231267676</v>
+        <v>89.93824392357291</v>
       </c>
       <c r="N46" t="n">
-        <v>93.80581184940493</v>
+        <v>87.79971350492977</v>
       </c>
       <c r="O46" t="n">
-        <v>86.6448501535405</v>
+        <v>81.0972462172309</v>
       </c>
       <c r="P46" t="n">
-        <v>74.13963766675469</v>
+        <v>69.39270412104702</v>
       </c>
       <c r="Q46" t="n">
-        <v>51.33044216389641</v>
+        <v>48.04391142956737</v>
       </c>
       <c r="R46" t="n">
-        <v>27.56273661303132</v>
+        <v>25.79797914782761</v>
       </c>
       <c r="S46" t="n">
-        <v>10.68292884900547</v>
+        <v>9.998933689119598</v>
       </c>
       <c r="T46" t="n">
-        <v>2.619184433506818</v>
+        <v>2.451486089664169</v>
       </c>
       <c r="U46" t="n">
-        <v>0.03343639702349135</v>
+        <v>0.03129556710209581</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
